--- a/docs/Cruise_Leg_DDL_DML_generator.xlsx
+++ b/docs/Cruise_Leg_DDL_DML_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="46" activeTab="50"/>
   </bookViews>
   <sheets>
     <sheet name="Vessels" sheetId="10" r:id="rId1"/>
@@ -42,6 +42,22 @@
     <sheet name="Leg Ecosystems" sheetId="39" r:id="rId33"/>
     <sheet name="Leg Gear" sheetId="40" r:id="rId34"/>
     <sheet name="Cruise Target Species OTH" sheetId="42" r:id="rId35"/>
+    <sheet name="Gear Presets" sheetId="43" r:id="rId36"/>
+    <sheet name="Gear Preset Options" sheetId="44" r:id="rId37"/>
+    <sheet name="Reg Ecosystem Presets" sheetId="45" r:id="rId38"/>
+    <sheet name="Reg Ecosystem Preset Options" sheetId="46" r:id="rId39"/>
+    <sheet name="Region Presets" sheetId="47" r:id="rId40"/>
+    <sheet name="Region Preset Options" sheetId="48" r:id="rId41"/>
+    <sheet name="Survey Category Presets" sheetId="49" r:id="rId42"/>
+    <sheet name="Survey Category Preset Options" sheetId="50" r:id="rId43"/>
+    <sheet name="MMPA Species Presets" sheetId="51" r:id="rId44"/>
+    <sheet name="MMPA Species Preset Options" sheetId="52" r:id="rId45"/>
+    <sheet name="ESA Species Presets" sheetId="53" r:id="rId46"/>
+    <sheet name="ESA Species Preset Options" sheetId="54" r:id="rId47"/>
+    <sheet name="FSSI Species Presets" sheetId="55" r:id="rId48"/>
+    <sheet name="FSSI Species Preset Options" sheetId="56" r:id="rId49"/>
+    <sheet name="Expected Species Cat Presets" sheetId="57" r:id="rId50"/>
+    <sheet name="Expected Species Cat Preset Opt" sheetId="58" r:id="rId51"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -121,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="1766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3514" uniqueCount="1852">
   <si>
     <t>Cruise Name</t>
   </si>
@@ -5419,6 +5435,264 @@
   </si>
   <si>
     <t>Survey Type</t>
+  </si>
+  <si>
+    <t>GEAR_PRE_NAME</t>
+  </si>
+  <si>
+    <t>GEAR_PRE_DESC</t>
+  </si>
+  <si>
+    <t>Hawaii Bottomfish</t>
+  </si>
+  <si>
+    <t>Hawaii Life History</t>
+  </si>
+  <si>
+    <t>Main Hawaiian Island (MHI) Insular Bottomfish</t>
+  </si>
+  <si>
+    <t>GEAR_PRE_OPT_NOTES</t>
+  </si>
+  <si>
+    <t>GEAR_PRE_ID</t>
+  </si>
+  <si>
+    <t>GEAR_ID</t>
+  </si>
+  <si>
+    <t>Marine Debris Research and Removal</t>
+  </si>
+  <si>
+    <t>Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)</t>
+  </si>
+  <si>
+    <t>HICEAS</t>
+  </si>
+  <si>
+    <t>HMSEAS Leg 1</t>
+  </si>
+  <si>
+    <t>HMSEAS Leg 2</t>
+  </si>
+  <si>
+    <t>Hawaiian Monk Seal Enhancement and Survey Cruise (HMSEAS) Leg 1 (pulled info from FINSS for SE-19-03)</t>
+  </si>
+  <si>
+    <t>Hawaiian Monk Seal Enhancement and Survey Cruise (HMSEAS) Leg 2 (pulled info from FINSS for SE-19-05)</t>
+  </si>
+  <si>
+    <t>REG_ECO_PRE_NAME</t>
+  </si>
+  <si>
+    <t>REG_ECO_PRE_DESC</t>
+  </si>
+  <si>
+    <t>Pacific Islands</t>
+  </si>
+  <si>
+    <t>Pacific Islands Ecosystem</t>
+  </si>
+  <si>
+    <t>REG_ECO_PRE_ID</t>
+  </si>
+  <si>
+    <t>REG_ECOSYSTEM_ID</t>
+  </si>
+  <si>
+    <t>REG_ECO_PRE_OPT_NOTES</t>
+  </si>
+  <si>
+    <t>REGION_PRE_NAME</t>
+  </si>
+  <si>
+    <t>REGION_PRE_DESC</t>
+  </si>
+  <si>
+    <t>Transit to Marianas with survey of Wake Island</t>
+  </si>
+  <si>
+    <t>Transit to America Samoa including PRIA surveys</t>
+  </si>
+  <si>
+    <t>MHI and PRIA</t>
+  </si>
+  <si>
+    <t>NWHI and PRIA</t>
+  </si>
+  <si>
+    <t>MHI and NWHI</t>
+  </si>
+  <si>
+    <t>Surveys of the Main Hawaiian Islands and PRIA</t>
+  </si>
+  <si>
+    <t>Surveys of the Northwestern Hawaiian Islands and PRIA</t>
+  </si>
+  <si>
+    <t>Surveys of the Main Hawaiian Islands and Northwestern Hawaiian Islands</t>
+  </si>
+  <si>
+    <t>REGION_PRE_ID</t>
+  </si>
+  <si>
+    <t>REGION_PRE_OPT_NOTES</t>
+  </si>
+  <si>
+    <t>AMSM and PRIA</t>
+  </si>
+  <si>
+    <t>CNMI and PRIA</t>
+  </si>
+  <si>
+    <t>SVY_CAT_PRE_NAME</t>
+  </si>
+  <si>
+    <t>SVY_CAT_PRE_DESC</t>
+  </si>
+  <si>
+    <t>SVY_CAT_PRE_ID</t>
+  </si>
+  <si>
+    <t>SVY_CAT_ID</t>
+  </si>
+  <si>
+    <t>SVY_CAT_PRE_OPT_NOTES</t>
+  </si>
+  <si>
+    <t>SVY_CAT_PRIMARY_YN</t>
+  </si>
+  <si>
+    <t>Bottomfish Primary Survey Category</t>
+  </si>
+  <si>
+    <t>PSD Primary Survey Category</t>
+  </si>
+  <si>
+    <t>PSD</t>
+  </si>
+  <si>
+    <t>RAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reef Assessment and Monitoring Program </t>
+  </si>
+  <si>
+    <t>Fisheries Oceanography - Pelagic Ecosystem Characterization</t>
+  </si>
+  <si>
+    <t>PIFSC Secondary Survey Category</t>
+  </si>
+  <si>
+    <t>Fisheries Research Primary Survey Category</t>
+  </si>
+  <si>
+    <t>MMPA_PRE_NAME</t>
+  </si>
+  <si>
+    <t>MMPA_PRE_DESC</t>
+  </si>
+  <si>
+    <t>IEA</t>
+  </si>
+  <si>
+    <t>Integrated Ecosystem Assessment</t>
+  </si>
+  <si>
+    <t>MMPA_PRE_ID</t>
+  </si>
+  <si>
+    <t>TGT_SPP_MMPA_ID</t>
+  </si>
+  <si>
+    <t>MMPA_PRE_OPT_NOTES</t>
+  </si>
+  <si>
+    <t>HMSEAS</t>
+  </si>
+  <si>
+    <t>Hawaiian Monk Seal Enhancement and Survey Cruise</t>
+  </si>
+  <si>
+    <t>ESA_PRE_NAME</t>
+  </si>
+  <si>
+    <t>ESA_PRE_DESC</t>
+  </si>
+  <si>
+    <t>ESA_PRE_ID</t>
+  </si>
+  <si>
+    <t>TGT_SPP_ESA_ID</t>
+  </si>
+  <si>
+    <t>ESA_PRE_OPT_NOTES</t>
+  </si>
+  <si>
+    <t>Marine Turtle Population Assessment Survey</t>
+  </si>
+  <si>
+    <t>Marine Turtles</t>
+  </si>
+  <si>
+    <t>green turtle - all other areas except Florida &amp; Mexico's Pacific coast breeding colonies</t>
+  </si>
+  <si>
+    <t>FSSI_PRE_NAME</t>
+  </si>
+  <si>
+    <t>FSSI_PRE_DESC</t>
+  </si>
+  <si>
+    <t>FSSI_PRE_ID</t>
+  </si>
+  <si>
+    <t>TGT_SPP_FSSI_ID</t>
+  </si>
+  <si>
+    <t>FSSI_PRE_OPT_NOTES</t>
+  </si>
+  <si>
+    <t>Insular Bottomfish Survey</t>
+  </si>
+  <si>
+    <t>Hawaiian Islands: Technology for the Ecology of Cetacean</t>
+  </si>
+  <si>
+    <t>HI-TEC</t>
+  </si>
+  <si>
+    <t>Life History</t>
+  </si>
+  <si>
+    <t>Debris Cleanup</t>
+  </si>
+  <si>
+    <t>MARAMP</t>
+  </si>
+  <si>
+    <t>Marianas Reef Assessment and Monitoring Program (MARAMP)</t>
+  </si>
+  <si>
+    <t>EXP_SPP_CAT_ID</t>
+  </si>
+  <si>
+    <t>PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey</t>
+  </si>
+  <si>
+    <t>MACS</t>
+  </si>
+  <si>
+    <t>SPP_CAT_PRE_NAME</t>
+  </si>
+  <si>
+    <t>SPP_CAT_PRE_DESC</t>
+  </si>
+  <si>
+    <t>SPP_CAT_PRE_OPT_NOTES</t>
+  </si>
+  <si>
+    <t>SPP_CAT_PRE_ID</t>
   </si>
 </sst>
 </file>
@@ -5502,7 +5776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -5517,6 +5791,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6237,7 +6514,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15868,7 +16145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="J61" sqref="J2:J61"/>
     </sheetView>
   </sheetViews>
@@ -17879,10 +18156,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17915,7 +18192,7 @@
         <v>1034</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE("INSERT INTO CCD_SVY_CATS (SVY_CAT_NAME, SVY_CAT_DESC, FINSS_ID) VALUES ('", SUBSTITUTE(B2, "'", "''"), "', '", SUBSTITUTE(C2, "'", "''"), "', ", A2, ");")</f>
+        <f>CONCATENATE("INSERT INTO CCD_SVY_CATS (SVY_CAT_NAME, SVY_CAT_DESC, FINSS_ID) VALUES ('", SUBSTITUTE(B2, "'", "''"), "', '", SUBSTITUTE(C2, "'", "''"), "', ", IF(ISBLANK(A2), "NULL", A2), ");")</f>
         <v>INSERT INTO CCD_SVY_CATS (SVY_CAT_NAME, SVY_CAT_DESC, FINSS_ID) VALUES ('Ecosystem Monitoring and Assessment', 'Surveys that principally collect oceanographic and lower trophic level (phytoplankton, zooplankton, and ichthyoplankton) data to monitor the health and status of the ecosystems, with the ultimate goal of characterizing the changing states of ecosystems, supporting protected resources and sustainable fisheries, and forecasting the subsequent impact on fisheries productivity. Examples include ecosystem monitoring and assessment, oceanography, climate observation, IEA, HAB, MPA, etc.', 63);</v>
       </c>
     </row>
@@ -17930,7 +18207,7 @@
         <v>1036</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D6" si="0">CONCATENATE("INSERT INTO CCD_SVY_CATS (SVY_CAT_NAME, SVY_CAT_DESC, FINSS_ID) VALUES ('", SUBSTITUTE(B3, "'", "''"), "', '", SUBSTITUTE(C3, "'", "''"), "', ", A3, ");")</f>
+        <f t="shared" ref="D3:D7" si="0">CONCATENATE("INSERT INTO CCD_SVY_CATS (SVY_CAT_NAME, SVY_CAT_DESC, FINSS_ID) VALUES ('", SUBSTITUTE(B3, "'", "''"), "', '", SUBSTITUTE(C3, "'", "''"), "', ", IF(ISBLANK(A3), "NULL", A3), ");")</f>
         <v>INSERT INTO CCD_SVY_CATS (SVY_CAT_NAME, SVY_CAT_DESC, FINSS_ID) VALUES ('Fisheries Monitoring and Assessment', 'Surveys that principally collect data of temporal distribution and abundance of commercially-targeted and ecologically-important species; examine the changes in the species composition and size and age compositions of species over time and space; examine reproductive biology and food habits of the community; and describe the physical habitat. Examples include stock assessment, life history, recruitement, reef fisheries, etc.', 62);</v>
       </c>
     </row>
@@ -17977,6 +18254,15 @@
       <c r="D6" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO CCD_SVY_CATS (SVY_CAT_NAME, SVY_CAT_DESC, FINSS_ID) VALUES ('Science, Services and Stewardship', 'Other survey types that support NOAA missions, including research, education and outreach, marine debris removal, advancing technology research and development, etc.', 65);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_SVY_CATS (SVY_CAT_NAME, SVY_CAT_DESC, FINSS_ID) VALUES ('Debris Cleanup', '', NULL);</v>
       </c>
     </row>
   </sheetData>
@@ -17986,10 +18272,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C73"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18016,7 +18302,7 @@
         <v>433</v>
       </c>
       <c r="C2" t="str">
-        <f>CONCATENATE("INSERT INTO CCD_TGT_SPP_ESA (TGT_SPP_ESA_NAME, FINSS_ID) VALUES ('", SUBSTITUTE(B2, "'", "''"), "', ", A2, ");")</f>
+        <f>CONCATENATE("INSERT INTO CCD_TGT_SPP_ESA (TGT_SPP_ESA_NAME, FINSS_ID) VALUES ('", SUBSTITUTE(B2, "'", "''"), "', ", IF(ISBLANK(A2), "NULL", A2), ");")</f>
         <v>INSERT INTO CCD_TGT_SPP_ESA (TGT_SPP_ESA_NAME, FINSS_ID) VALUES ('Atlantic salmon - Gulf of Maine', 798);</v>
       </c>
     </row>
@@ -18028,7 +18314,7 @@
         <v>434</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">CONCATENATE("INSERT INTO CCD_TGT_SPP_ESA (TGT_SPP_ESA_NAME, FINSS_ID) VALUES ('", SUBSTITUTE(B3, "'", "''"), "', ", A3, ");")</f>
+        <f t="shared" ref="C3:C66" si="0">CONCATENATE("INSERT INTO CCD_TGT_SPP_ESA (TGT_SPP_ESA_NAME, FINSS_ID) VALUES ('", SUBSTITUTE(B3, "'", "''"), "', ", IF(ISBLANK(A3), "NULL", A3), ");")</f>
         <v>INSERT INTO CCD_TGT_SPP_ESA (TGT_SPP_ESA_NAME, FINSS_ID) VALUES ('Atlantic sturgeon', 824);</v>
       </c>
     </row>
@@ -18796,7 +19082,7 @@
         <v>498</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C73" si="1">CONCATENATE("INSERT INTO CCD_TGT_SPP_ESA (TGT_SPP_ESA_NAME, FINSS_ID) VALUES ('", SUBSTITUTE(B67, "'", "''"), "', ", A67, ");")</f>
+        <f t="shared" ref="C67:C74" si="1">CONCATENATE("INSERT INTO CCD_TGT_SPP_ESA (TGT_SPP_ESA_NAME, FINSS_ID) VALUES ('", SUBSTITUTE(B67, "'", "''"), "', ", IF(ISBLANK(A67), "NULL", A67), ");")</f>
         <v>INSERT INTO CCD_TGT_SPP_ESA (TGT_SPP_ESA_NAME, FINSS_ID) VALUES ('steelhead trout - Upper Columbia River', 797);</v>
       </c>
     </row>
@@ -18872,8 +19158,18 @@
         <v>INSERT INTO CCD_TGT_SPP_ESA (TGT_SPP_ESA_NAME, FINSS_ID) VALUES ('white abalone', 737);</v>
       </c>
     </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_TGT_SPP_ESA (TGT_SPP_ESA_NAME, FINSS_ID) VALUES ('green turtle - all other areas except Florida &amp; Mexico''s Pacific coast breeding colonies', NULL);</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -27487,6 +27783,658 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("insert into CCD_GEAR_PRE (", $A$1, ", ", $B$1, ") VALUES ('",SUBSTITUTE(A2, "'", "''"), "', '", SUBSTITUTE(B2, "'", "''"), "');")</f>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('Hawaii Bottomfish', 'Main Hawaiian Island (MHI) Insular Bottomfish');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C16" si="0">CONCATENATE("insert into CCD_GEAR_PRE (", $A$1, ", ", $B$1, ") VALUES ('",SUBSTITUTE(A3, "'", "''"), "', '", SUBSTITUTE(B3, "'", "''"), "');")</f>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('Hawaii Life History', 'Hawaiian Archipelago Life History Bio-sampling');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('Marine Debris', 'Marine Debris Research and Removal');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('HICEAS', 'Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('HMSEAS Leg 1', 'Hawaiian Monk Seal Enhancement and Survey Cruise (HMSEAS) Leg 1 (pulled info from FINSS for SE-19-03)');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('HMSEAS Leg 2', 'Hawaiian Monk Seal Enhancement and Survey Cruise (HMSEAS) Leg 2 (pulled info from FINSS for SE-19-05)');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE (GEAR_PRE_NAME, GEAR_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("insert into CCD_GEAR_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = '", SUBSTITUTE(B2, "'", "''"), "'), '",SUBSTITUTE(C2, "'", "''"), "');")</f>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'Hawaii Life History'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'BotCam (baited camera stations)'), '');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D32" si="0">CONCATENATE("insert into CCD_GEAR_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = '", SUBSTITUTE(B3, "'", "''"), "'), '",SUBSTITUTE(C3, "'", "''"), "');")</f>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'Hawaii Life History'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'CTD'), '');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B4" t="s">
+        <v>772</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'Hawaii Life History'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Handline'), '');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B5" t="s">
+        <v>774</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'Hawaii Life History'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Hook and Line'), '');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'Hawaii Bottomfish'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'BotCam (baited camera stations)'), '');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'Hawaii Bottomfish'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'CTD'), '');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B8" t="s">
+        <v>772</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'Hawaii Bottomfish'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Handline'), '');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B9" t="s">
+        <v>825</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'Hawaii Bottomfish'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Temperature Depth Recorders (TDRs)'), '');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B10" t="s">
+        <v>836</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'Marine Debris'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Others'), '');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B11" t="s">
+        <v>811</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'Marine Debris'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'), '');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B12" t="s">
+        <v>747</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HICEAS'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Binoculars'), '');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B13" t="s">
+        <v>749</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HICEAS'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Biopsy'), '');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B14" t="s">
+        <v>773</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HICEAS'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'High-frequency Autonomous Acoustic Recording Package (HARP)'), '');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B15" t="s">
+        <v>775</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HICEAS'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Human Observation'), '');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HICEAS'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Others'), '');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B17" t="s">
+        <v>828</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HICEAS'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Towed Hydrophone Array'), '');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B18" t="s">
+        <v>834</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HICEAS'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Visual Census'), '');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B19" t="s">
+        <v>747</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 1'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Binoculars'), '');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B20" t="s">
+        <v>749</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 1'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Biopsy'), '');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 1'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'CTD'), '');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B22" t="s">
+        <v>773</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 1'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'High-frequency Autonomous Acoustic Recording Package (HARP)'), '');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B23" t="s">
+        <v>775</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 1'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Human Observation'), '');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B24" t="s">
+        <v>823</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 1'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Tags (satellite, acoustic and others)'), '');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B25" t="s">
+        <v>834</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 1'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Visual Census'), '');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B26" t="s">
+        <v>747</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 2'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Binoculars'), '');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B27" t="s">
+        <v>749</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 2'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Biopsy'), '');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 2'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'CTD'), '');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B29" t="s">
+        <v>775</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 2'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Human Observation'), '');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B30" t="s">
+        <v>804</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 2'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'PIT Tags'), '');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B31" t="s">
+        <v>823</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 2'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Tags (satellite, acoustic and others)'), '');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B32" t="s">
+        <v>834</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_GEAR_PRE_OPTS (GEAR_PRE_ID, GEAR_ID, GEAR_PRE_OPT_NOTES) VALUES ((SELECT GEAR_PRE_ID FROM CCD_GEAR_PRE WHERE GEAR_PRE_NAME = 'HMSEAS Leg 2'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Visual Census'), '');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("insert into CCD_REG_ECO_PRE (", $A$1, ", ", $B$1, ") VALUES ('",SUBSTITUTE(A2, "'", "''"), "', '", SUBSTITUTE(B2, "'", "''"), "');")</f>
+        <v>insert into CCD_REG_ECO_PRE (REG_ECO_PRE_NAME, REG_ECO_PRE_DESC) VALUES ('Pacific Islands', 'Pacific Islands Ecosystem');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("insert into CCD_REG_ECO_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT REG_ECO_PRE_ID FROM CCD_REG_ECO_PRE WHERE REG_ECO_PRE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = '", SUBSTITUTE(B2, "'", "''"), "'), '",SUBSTITUTE(C2, "'", "''"), "');")</f>
+        <v>insert into CCD_REG_ECO_PRE_OPTS (REG_ECO_PRE_ID, REG_ECOSYSTEM_ID, REG_ECO_PRE_OPT_NOTES) VALUES ((SELECT REG_ECO_PRE_ID FROM CCD_REG_ECO_PRE WHERE REG_ECO_PRE_NAME = 'Pacific Islands'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'), '');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C155"/>
@@ -29312,6 +30260,2007 @@
       <c r="C155" t="str">
         <f>CONCATENATE("insert into ccd_leg_aliases (cruise_leg_id, LEG_ALIAS_NAME) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A155, "'), '", B155, "');")</f>
         <v>insert into ccd_leg_aliases (cruise_leg_id, LEG_ALIAS_NAME) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0908'), 'OES0908');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("insert into CCD_REGION_PRE (", $A$1, ", ", $B$1, ") VALUES ('",SUBSTITUTE(A2, "'", "''"), "', '", SUBSTITUTE(B2, "'", "''"), "');")</f>
+        <v>insert into CCD_REGION_PRE (REGION_PRE_NAME, REGION_PRE_DESC) VALUES ('AMSM and PRIA', 'Transit to America Samoa including PRIA surveys');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1795</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C6" si="0">CONCATENATE("insert into CCD_REGION_PRE (", $A$1, ", ", $B$1, ") VALUES ('",SUBSTITUTE(A3, "'", "''"), "', '", SUBSTITUTE(B3, "'", "''"), "');")</f>
+        <v>insert into CCD_REGION_PRE (REGION_PRE_NAME, REGION_PRE_DESC) VALUES ('MHI and PRIA', 'Surveys of the Main Hawaiian Islands and PRIA');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_REGION_PRE (REGION_PRE_NAME, REGION_PRE_DESC) VALUES ('CNMI and PRIA', 'Transit to Marianas with survey of Wake Island');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_REGION_PRE (REGION_PRE_NAME, REGION_PRE_DESC) VALUES ('NWHI and PRIA', 'Surveys of the Northwestern Hawaiian Islands and PRIA');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1797</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_REGION_PRE (REGION_PRE_NAME, REGION_PRE_DESC) VALUES ('MHI and NWHI', 'Surveys of the Main Hawaiian Islands and Northwestern Hawaiian Islands');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("insert into CCD_REGION_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT REGION_PRE_ID FROM CCD_REGION_PRE WHERE REGION_PRE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT REGION_ID FROM CCD_REGIONS WHERE REGION_NAME = '", SUBSTITUTE(B2, "'", "''"), "'), '",SUBSTITUTE(C2, "'", "''"), "');")</f>
+        <v>insert into CCD_REGION_PRE_OPTS (REGION_PRE_ID, REGION_ID, REGION_PRE_OPT_NOTES) VALUES ((SELECT REGION_PRE_ID FROM CCD_REGION_PRE WHERE REGION_PRE_NAME = 'AMSM and PRIA'), (SELECT REGION_ID FROM CCD_REGIONS WHERE REGION_NAME = 'American Samoa'), '');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D11" si="0">CONCATENATE("insert into CCD_REGION_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT REGION_PRE_ID FROM CCD_REGION_PRE WHERE REGION_PRE_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT REGION_ID FROM CCD_REGIONS WHERE REGION_NAME = '", SUBSTITUTE(B3, "'", "''"), "'), '",SUBSTITUTE(C3, "'", "''"), "');")</f>
+        <v>insert into CCD_REGION_PRE_OPTS (REGION_PRE_ID, REGION_ID, REGION_PRE_OPT_NOTES) VALUES ((SELECT REGION_PRE_ID FROM CCD_REGION_PRE WHERE REGION_PRE_NAME = 'AMSM and PRIA'), (SELECT REGION_ID FROM CCD_REGIONS WHERE REGION_NAME = 'Pacific Remote Island Areas'), '');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_REGION_PRE_OPTS (REGION_PRE_ID, REGION_ID, REGION_PRE_OPT_NOTES) VALUES ((SELECT REGION_PRE_ID FROM CCD_REGION_PRE WHERE REGION_PRE_NAME = 'MHI and PRIA'), (SELECT REGION_ID FROM CCD_REGIONS WHERE REGION_NAME = 'Main Hawaiian Islands'), '');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_REGION_PRE_OPTS (REGION_PRE_ID, REGION_ID, REGION_PRE_OPT_NOTES) VALUES ((SELECT REGION_PRE_ID FROM CCD_REGION_PRE WHERE REGION_PRE_NAME = 'MHI and PRIA'), (SELECT REGION_ID FROM CCD_REGIONS WHERE REGION_NAME = 'Pacific Remote Island Areas'), '');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_REGION_PRE_OPTS (REGION_PRE_ID, REGION_ID, REGION_PRE_OPT_NOTES) VALUES ((SELECT REGION_PRE_ID FROM CCD_REGION_PRE WHERE REGION_PRE_NAME = 'CNMI and PRIA'), (SELECT REGION_ID FROM CCD_REGIONS WHERE REGION_NAME = 'Commonwealth of the Northern Mariana Islands'), '');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_REGION_PRE_OPTS (REGION_PRE_ID, REGION_ID, REGION_PRE_OPT_NOTES) VALUES ((SELECT REGION_PRE_ID FROM CCD_REGION_PRE WHERE REGION_PRE_NAME = 'CNMI and PRIA'), (SELECT REGION_ID FROM CCD_REGIONS WHERE REGION_NAME = 'Pacific Remote Island Areas'), '');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_REGION_PRE_OPTS (REGION_PRE_ID, REGION_ID, REGION_PRE_OPT_NOTES) VALUES ((SELECT REGION_PRE_ID FROM CCD_REGION_PRE WHERE REGION_PRE_NAME = 'NWHI and PRIA'), (SELECT REGION_ID FROM CCD_REGIONS WHERE REGION_NAME = 'Northwest Hawaiian Islands'), '');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_REGION_PRE_OPTS (REGION_PRE_ID, REGION_ID, REGION_PRE_OPT_NOTES) VALUES ((SELECT REGION_PRE_ID FROM CCD_REGION_PRE WHERE REGION_PRE_NAME = 'NWHI and PRIA'), (SELECT REGION_ID FROM CCD_REGIONS WHERE REGION_NAME = 'Pacific Remote Island Areas'), '');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_REGION_PRE_OPTS (REGION_PRE_ID, REGION_ID, REGION_PRE_OPT_NOTES) VALUES ((SELECT REGION_PRE_ID FROM CCD_REGION_PRE WHERE REGION_PRE_NAME = 'MHI and NWHI'), (SELECT REGION_ID FROM CCD_REGIONS WHERE REGION_NAME = 'Northwest Hawaiian Islands'), '');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_REGION_PRE_OPTS (REGION_PRE_ID, REGION_ID, REGION_PRE_OPT_NOTES) VALUES ((SELECT REGION_PRE_ID FROM CCD_REGION_PRE WHERE REGION_PRE_NAME = 'MHI and NWHI'), (SELECT REGION_ID FROM CCD_REGIONS WHERE REGION_NAME = 'Main Hawaiian Islands'), '');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="136.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1809</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D10" si="0">CONCATENATE("insert into CCD_SVY_CAT_PRE (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ('",SUBSTITUTE(A2, "'", "''"), "', '", SUBSTITUTE(B2, "'", "''"), "', '", SUBSTITUTE(C2, "'", "''"), "');")</f>
+        <v>insert into CCD_SVY_CAT_PRE (SVY_CAT_PRE_NAME, SVY_CAT_PRE_DESC, SVY_CAT_PRIMARY_YN) VALUES ('PSD', 'PSD Primary Survey Category', 'Y');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE (SVY_CAT_PRE_NAME, SVY_CAT_PRE_DESC, SVY_CAT_PRIMARY_YN) VALUES ('BFISH', 'Bottomfish Primary Survey Category', 'Y');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE (SVY_CAT_PRE_NAME, SVY_CAT_PRE_DESC, SVY_CAT_PRIMARY_YN) VALUES ('RAMP', 'Reef Assessment and Monitoring Program ', 'Y');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE (SVY_CAT_PRE_NAME, SVY_CAT_PRE_DESC, SVY_CAT_PRIMARY_YN) VALUES ('Fisheries Oceanography', 'Fisheries Oceanography - Pelagic Ecosystem Characterization', 'Y');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE (SVY_CAT_PRE_NAME, SVY_CAT_PRE_DESC, SVY_CAT_PRIMARY_YN) VALUES ('Science, Services and Stewardship', 'PIFSC Secondary Survey Category', 'N');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE (SVY_CAT_PRE_NAME, SVY_CAT_PRE_DESC, SVY_CAT_PRIMARY_YN) VALUES ('Fisheries Research', 'Fisheries Research Primary Survey Category', 'Y');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE (SVY_CAT_PRE_NAME, SVY_CAT_PRE_DESC, SVY_CAT_PRIMARY_YN) VALUES ('HI-TEC', 'Hawaiian Islands: Technology for the Ecology of Cetacean', 'Y');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE (SVY_CAT_PRE_NAME, SVY_CAT_PRE_DESC, SVY_CAT_PRIMARY_YN) VALUES ('Life History', 'Life History Bio-Sampling', 'Y');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE (SVY_CAT_PRE_NAME, SVY_CAT_PRE_DESC, SVY_CAT_PRIMARY_YN) VALUES ('Marine Debris', 'Marine Debris Research and Removal', 'Y');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("insert into CCD_SVY_CAT_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = '", SUBSTITUTE(B2, "'", "''"), "'), '",SUBSTITUTE(C2, "'", "''"), "');")</f>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'PSD'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Protected Species Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE("insert into CCD_SVY_CAT_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = '", SUBSTITUTE(B3, "'", "''"), "'), '",SUBSTITUTE(C3, "'", "''"), "');")</f>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'PSD'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Science, Services and Stewardship'), '');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D23" si="0">CONCATENATE("insert into CCD_SVY_CAT_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = '", SUBSTITUTE(A4, "'", "''"), "'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = '", SUBSTITUTE(B4, "'", "''"), "'), '",SUBSTITUTE(C4, "'", "''"), "');")</f>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'BFISH'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Fisheries Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'BFISH'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Science, Services and Stewardship'), '');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'RAMP'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Ecosystem Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'RAMP'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Fisheries Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'RAMP'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Habitat Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'Fisheries Oceanography'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Ecosystem Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>430</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'Fisheries Oceanography'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Fisheries Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>430</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'Fisheries Oceanography'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Science, Services and Stewardship'), '');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'Fisheries Research'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Ecosystem Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'Fisheries Research'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Fisheries Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'Fisheries Research'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Habitat Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'Fisheries Research'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Protected Species Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'Fisheries Research'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Science, Services and Stewardship'), '');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'Science, Services and Stewardship'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Science, Services and Stewardship'), '');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'HI-TEC'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Habitat Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'HI-TEC'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Protected Species Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'HI-TEC'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Science, Services and Stewardship'), '');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'Life History'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Fisheries Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'Life History'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Habitat Monitoring and Assessment'), '');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SVY_CAT_PRE_OPTS (SVY_CAT_PRE_ID, SVY_CAT_ID, SVY_CAT_PRE_OPT_NOTES) VALUES ((SELECT SVY_CAT_PRE_ID FROM CCD_SVY_CAT_PRE WHERE SVY_CAT_PRE_NAME = 'Marine Debris'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Debris Cleanup'), '');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE (", $A$1, ", ", $B$1, ") VALUES ('",SUBSTITUTE(A2, "'", "''"), "', '", SUBSTITUTE(B2, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE (MMPA_PRE_NAME, MMPA_PRE_DESC) VALUES ('IEA', 'Integrated Ecosystem Assessment');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C5" si="0">CONCATENATE("insert into CCD_SPP_MMPA_PRE (", $A$1, ", ", $B$1, ") VALUES ('",SUBSTITUTE(A3, "'", "''"), "', '", SUBSTITUTE(B3, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE (MMPA_PRE_NAME, MMPA_PRE_DESC) VALUES ('HMSEAS', 'Hawaiian Monk Seal Enhancement and Survey Cruise');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_MMPA_PRE (MMPA_PRE_NAME, MMPA_PRE_DESC) VALUES ('HICEAS', 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_MMPA_PRE (MMPA_PRE_NAME, MMPA_PRE_DESC) VALUES ('MACS', 'Mariana Archipelago Cetacean Survey (MACS)');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B2, "'", "''"), "'), '",SUBSTITUTE(C2, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Baird''s Beaked Whale - California-Oregon-Washington'), '');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B3, "'", "''"), "'), '",SUBSTITUTE(C3, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Blainville''s Beaked Whale - Western North Atlantic'), '');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="D4" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A4, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B4, "'", "''"), "'), '",SUBSTITUTE(C4, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Bottlenose Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="D5" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A5, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B5, "'", "''"), "'), '",SUBSTITUTE(C5, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Cuvier''s Beaked Whale - Western North Atlantic'), '');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="D6" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A6, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B6, "'", "''"), "'), '",SUBSTITUTE(C6, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Dwarf Sperm Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="D7" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A7, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B7, "'", "''"), "'), '",SUBSTITUTE(C7, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'False Killer Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A8, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B8, "'", "''"), "'), '",SUBSTITUTE(C8, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Fraser''s Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="D9" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A9, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B9, "'", "''"), "'), '",SUBSTITUTE(C9, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Long-Finned Pilot Whale - Western North Atlantic'), '');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="D10" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A10, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B10, "'", "''"), "'), '",SUBSTITUTE(C10, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Melon-Headed Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="D11" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A11, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B11, "'", "''"), "'), '",SUBSTITUTE(C11, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pacific White-Sided Dolphin - North Pacific, formerly Central North Pacific'), '');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="D12" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A12, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B12, "'", "''"), "'), '",SUBSTITUTE(C12, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pygmy Killer Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="D13" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A13, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B13, "'", "''"), "'), '",SUBSTITUTE(C13, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pygmy Sperm Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>965</v>
+      </c>
+      <c r="D14" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A14, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B14, "'", "''"), "'), '",SUBSTITUTE(C14, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Risso''s Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="D15" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A15, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B15, "'", "''"), "'), '",SUBSTITUTE(C15, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Short-Finned Pilot Whale - Western North Atlantic'), '');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>981</v>
+      </c>
+      <c r="D16" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A16, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B16, "'", "''"), "'), '",SUBSTITUTE(C16, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Sperm Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>985</v>
+      </c>
+      <c r="D17" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A17, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B17, "'", "''"), "'), '",SUBSTITUTE(C17, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Spinner Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="D18" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A18, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B18, "'", "''"), "'), '",SUBSTITUTE(C18, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'IEA'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Striped Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B19" t="s">
+        <v>914</v>
+      </c>
+      <c r="D19" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A19, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B19, "'", "''"), "'), '",SUBSTITUTE(C19, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HMSEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Hawaiian Monk Seal - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B20" t="s">
+        <v>847</v>
+      </c>
+      <c r="D20" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A20, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B20, "'", "''"), "'), '",SUBSTITUTE(C20, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Blainville''s Beaked Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B21" t="s">
+        <v>851</v>
+      </c>
+      <c r="D21" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A21, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B21, "'", "''"), "'), '",SUBSTITUTE(C21, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Blue whale - Western North Pacific, formerly Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B22" t="s">
+        <v>857</v>
+      </c>
+      <c r="D22" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A22, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B22, "'", "''"), "'), '",SUBSTITUTE(C22, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Bottlenose Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B23" t="s">
+        <v>864</v>
+      </c>
+      <c r="D23" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A23, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B23, "'", "''"), "'), '",SUBSTITUTE(C23, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Bryde''s Whale - Eastern Tropical Pacific'), '');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B24" t="s">
+        <v>865</v>
+      </c>
+      <c r="D24" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A24, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B24, "'", "''"), "'), '",SUBSTITUTE(C24, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Bryde''s Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B25" t="s">
+        <v>873</v>
+      </c>
+      <c r="D25" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A25, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B25, "'", "''"), "'), '",SUBSTITUTE(C25, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Cuvier''s Beaked Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B26" t="s">
+        <v>879</v>
+      </c>
+      <c r="D26" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A26, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B26, "'", "''"), "'), '",SUBSTITUTE(C26, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Dwarf Sperm Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B27" t="s">
+        <v>882</v>
+      </c>
+      <c r="D27" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A27, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B27, "'", "''"), "'), '",SUBSTITUTE(C27, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'False Killer Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B28" t="s">
+        <v>885</v>
+      </c>
+      <c r="D28" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A28, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B28, "'", "''"), "'), '",SUBSTITUTE(C28, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Fin Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B29" t="s">
+        <v>888</v>
+      </c>
+      <c r="D29" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A29, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B29, "'", "''"), "'), '",SUBSTITUTE(C29, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Fraser''s Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B30" t="s">
+        <v>916</v>
+      </c>
+      <c r="D30" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A30, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B30, "'", "''"), "'), '",SUBSTITUTE(C30, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Humpback Whale - Central North Pacific'), '');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B31" t="s">
+        <v>927</v>
+      </c>
+      <c r="D31" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A31, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B31, "'", "''"), "'), '",SUBSTITUTE(C31, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Killer Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B32" t="s">
+        <v>933</v>
+      </c>
+      <c r="D32" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A32, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B32, "'", "''"), "'), '",SUBSTITUTE(C32, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Longman''s Beaked Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B33" t="s">
+        <v>934</v>
+      </c>
+      <c r="D33" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A33, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B33, "'", "''"), "'), '",SUBSTITUTE(C33, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Melon-Headed Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B34" t="s">
+        <v>942</v>
+      </c>
+      <c r="D34" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A34, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B34, "'", "''"), "'), '",SUBSTITUTE(C34, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Minke Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B35" t="s">
+        <v>952</v>
+      </c>
+      <c r="D35" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A35, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B35, "'", "''"), "'), '",SUBSTITUTE(C35, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pantropical Spotted Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B36" t="s">
+        <v>955</v>
+      </c>
+      <c r="D36" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A36, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B36, "'", "''"), "'), '",SUBSTITUTE(C36, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pygmy Killer Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B37" t="s">
+        <v>959</v>
+      </c>
+      <c r="D37" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A37, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B37, "'", "''"), "'), '",SUBSTITUTE(C37, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pygmy Sperm Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B38" t="s">
+        <v>965</v>
+      </c>
+      <c r="D38" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A38, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B38, "'", "''"), "'), '",SUBSTITUTE(C38, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Risso''s Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B39" t="s">
+        <v>968</v>
+      </c>
+      <c r="D39" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A39, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B39, "'", "''"), "'), '",SUBSTITUTE(C39, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Rough-Toothed Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B40" t="s">
+        <v>971</v>
+      </c>
+      <c r="D40" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A40, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B40, "'", "''"), "'), '",SUBSTITUTE(C40, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Sei Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B41" t="s">
+        <v>976</v>
+      </c>
+      <c r="D41" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A41, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B41, "'", "''"), "'), '",SUBSTITUTE(C41, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Short-Finned Pilot Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B42" t="s">
+        <v>981</v>
+      </c>
+      <c r="D42" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A42, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B42, "'", "''"), "'), '",SUBSTITUTE(C42, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Sperm Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B43" t="s">
+        <v>985</v>
+      </c>
+      <c r="D43" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A43, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B43, "'", "''"), "'), '",SUBSTITUTE(C43, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Spinner Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B44" t="s">
+        <v>991</v>
+      </c>
+      <c r="D44" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A44, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B44, "'", "''"), "'), '",SUBSTITUTE(C44, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Striped Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B45" t="s">
+        <v>847</v>
+      </c>
+      <c r="D45" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A45, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B45, "'", "''"), "'), '",SUBSTITUTE(C45, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Blainville''s Beaked Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B46" t="s">
+        <v>851</v>
+      </c>
+      <c r="D46" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A46, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B46, "'", "''"), "'), '",SUBSTITUTE(C46, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Blue whale - Western North Pacific, formerly Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B47" t="s">
+        <v>857</v>
+      </c>
+      <c r="D47" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A47, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B47, "'", "''"), "'), '",SUBSTITUTE(C47, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Bottlenose Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B48" t="s">
+        <v>865</v>
+      </c>
+      <c r="D48" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A48, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B48, "'", "''"), "'), '",SUBSTITUTE(C48, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Bryde''s Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B49" t="s">
+        <v>873</v>
+      </c>
+      <c r="D49" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A49, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B49, "'", "''"), "'), '",SUBSTITUTE(C49, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Cuvier''s Beaked Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B50" t="s">
+        <v>879</v>
+      </c>
+      <c r="D50" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A50, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B50, "'", "''"), "'), '",SUBSTITUTE(C50, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Dwarf Sperm Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B51" t="s">
+        <v>882</v>
+      </c>
+      <c r="D51" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A51, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B51, "'", "''"), "'), '",SUBSTITUTE(C51, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'False Killer Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B52" t="s">
+        <v>885</v>
+      </c>
+      <c r="D52" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A52, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B52, "'", "''"), "'), '",SUBSTITUTE(C52, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Fin Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B53" t="s">
+        <v>888</v>
+      </c>
+      <c r="D53" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A53, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B53, "'", "''"), "'), '",SUBSTITUTE(C53, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Fraser''s Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B54" t="s">
+        <v>916</v>
+      </c>
+      <c r="D54" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A54, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B54, "'", "''"), "'), '",SUBSTITUTE(C54, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Humpback Whale - Central North Pacific'), '');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B55" t="s">
+        <v>927</v>
+      </c>
+      <c r="D55" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A55, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B55, "'", "''"), "'), '",SUBSTITUTE(C55, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Killer Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B56" t="s">
+        <v>933</v>
+      </c>
+      <c r="D56" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A56, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B56, "'", "''"), "'), '",SUBSTITUTE(C56, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Longman''s Beaked Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B57" t="s">
+        <v>934</v>
+      </c>
+      <c r="D57" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A57, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B57, "'", "''"), "'), '",SUBSTITUTE(C57, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Melon-Headed Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B58" t="s">
+        <v>942</v>
+      </c>
+      <c r="D58" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A58, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B58, "'", "''"), "'), '",SUBSTITUTE(C58, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Minke Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B59" t="s">
+        <v>952</v>
+      </c>
+      <c r="D59" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A59, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B59, "'", "''"), "'), '",SUBSTITUTE(C59, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pantropical Spotted Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B60" t="s">
+        <v>955</v>
+      </c>
+      <c r="D60" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A60, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B60, "'", "''"), "'), '",SUBSTITUTE(C60, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pygmy Killer Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B61" t="s">
+        <v>959</v>
+      </c>
+      <c r="D61" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A61, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B61, "'", "''"), "'), '",SUBSTITUTE(C61, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pygmy Sperm Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B62" t="s">
+        <v>965</v>
+      </c>
+      <c r="D62" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A62, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B62, "'", "''"), "'), '",SUBSTITUTE(C62, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Risso''s Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B63" t="s">
+        <v>968</v>
+      </c>
+      <c r="D63" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A63, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B63, "'", "''"), "'), '",SUBSTITUTE(C63, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Rough-Toothed Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B64" t="s">
+        <v>971</v>
+      </c>
+      <c r="D64" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A64, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B64, "'", "''"), "'), '",SUBSTITUTE(C64, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Sei Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B65" t="s">
+        <v>976</v>
+      </c>
+      <c r="D65" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A65, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B65, "'", "''"), "'), '",SUBSTITUTE(C65, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Short-Finned Pilot Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B66" t="s">
+        <v>981</v>
+      </c>
+      <c r="D66" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A66, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B66, "'", "''"), "'), '",SUBSTITUTE(C66, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Sperm Whale - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B67" t="s">
+        <v>985</v>
+      </c>
+      <c r="D67" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A67, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B67, "'", "''"), "'), '",SUBSTITUTE(C67, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Spinner Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B68" t="s">
+        <v>991</v>
+      </c>
+      <c r="D68" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_MMPA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = '", SUBSTITUTE(A68, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B68, "'", "''"), "'), '",SUBSTITUTE(C68, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_MMPA_PRE_OPTS (MMPA_PRE_ID, TGT_SPP_MMPA_ID, MMPA_PRE_OPT_NOTES) VALUES ((SELECT MMPA_PRE_ID FROM CCD_SPP_MMPA_PRE WHERE MMPA_PRE_NAME = 'MACS'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Striped Dolphin - Hawaii'), '');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_ESA_PRE (", $A$1, ", ", $B$1, ") VALUES ('",SUBSTITUTE(A2, "'", "''"), "', '", SUBSTITUTE(B2, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_ESA_PRE (ESA_PRE_NAME, ESA_PRE_DESC) VALUES ('HMSEAS', 'Hawaiian Monk Seal Enhancement and Survey Cruise');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C14" si="0">CONCATENATE("insert into CCD_SPP_ESA_PRE (", $A$1, ", ", $B$1, ") VALUES ('",SUBSTITUTE(A3, "'", "''"), "', '", SUBSTITUTE(B3, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_ESA_PRE (ESA_PRE_NAME, ESA_PRE_DESC) VALUES ('Marine Turtles', 'Marine Turtle Population Assessment Survey');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_ESA_PRE (ESA_PRE_NAME, ESA_PRE_DESC) VALUES ('HICEAS', 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_ESA_PRE (ESA_PRE_NAME, ESA_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_ESA_PRE (ESA_PRE_NAME, ESA_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_ESA_PRE (ESA_PRE_NAME, ESA_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_ESA_PRE (ESA_PRE_NAME, ESA_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_ESA_PRE (ESA_PRE_NAME, ESA_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_ESA_PRE (ESA_PRE_NAME, ESA_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_ESA_PRE (ESA_PRE_NAME, ESA_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_ESA_PRE (ESA_PRE_NAME, ESA_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_ESA_PRE (ESA_PRE_NAME, ESA_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_ESA_PRE (ESA_PRE_NAME, ESA_PRE_DESC) VALUES ('', '');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_ESA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B2, "'", "''"), "'), '",SUBSTITUTE(C2, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_ESA_PRE_OPTS (ESA_PRE_ID, TGT_SPP_ESA_ID, ESA_PRE_OPT_NOTES) VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = 'HMSEAS'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Hawaiian Monk Seal'), '');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_ESA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B3, "'", "''"), "'), '",SUBSTITUTE(C3, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_ESA_PRE_OPTS (ESA_PRE_ID, TGT_SPP_ESA_ID, ESA_PRE_OPT_NOTES) VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = 'Marine Turtles'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'green turtle - all other areas except Florida &amp; Mexico''s Pacific coast breeding colonies'), '');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B4" t="s">
+        <v>466</v>
+      </c>
+      <c r="D4" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_ESA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = '", SUBSTITUTE(A4, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B4, "'", "''"), "'), '",SUBSTITUTE(C4, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_ESA_PRE_OPTS (ESA_PRE_ID, TGT_SPP_ESA_ID, ESA_PRE_OPT_NOTES) VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = 'Marine Turtles'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'hawksbill turtle'), '');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D5" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_ESA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = '", SUBSTITUTE(A5, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B5, "'", "''"), "'), '",SUBSTITUTE(C5, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_ESA_PRE_OPTS (ESA_PRE_ID, TGT_SPP_ESA_ID, ESA_PRE_OPT_NOTES) VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Blue whale'), '');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D6" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_ESA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = '", SUBSTITUTE(A6, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B6, "'", "''"), "'), '",SUBSTITUTE(C6, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_ESA_PRE_OPTS (ESA_PRE_ID, TGT_SPP_ESA_ID, ESA_PRE_OPT_NOTES) VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Fin Whale'), '');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D7" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_ESA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = '", SUBSTITUTE(A7, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B7, "'", "''"), "'), '",SUBSTITUTE(C7, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_ESA_PRE_OPTS (ESA_PRE_ID, TGT_SPP_ESA_ID, ESA_PRE_OPT_NOTES) VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Humpback Whale'), '');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B8" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_ESA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = '", SUBSTITUTE(A8, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B8, "'", "''"), "'), '",SUBSTITUTE(C8, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_ESA_PRE_OPTS (ESA_PRE_ID, TGT_SPP_ESA_ID, ESA_PRE_OPT_NOTES) VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Sei Whale'), '');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D9" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_ESA_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = '", SUBSTITUTE(A9, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B9, "'", "''"), "'), '",SUBSTITUTE(C9, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_ESA_PRE_OPTS (ESA_PRE_ID, TGT_SPP_ESA_ID, ESA_PRE_OPT_NOTES) VALUES ((SELECT ESA_PRE_ID FROM CCD_SPP_ESA_PRE WHERE ESA_PRE_NAME = 'HICEAS'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Sperm Whale'), '');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_FSSI_PRE (", $A$1, ", ", $B$1, ") VALUES ('",SUBSTITUTE(A2, "'", "''"), "', '", SUBSTITUTE(B2, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_FSSI_PRE (FSSI_PRE_NAME, FSSI_PRE_DESC) VALUES ('IEA', 'Integrated Ecosystem Assessment');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_FSSI_PRE (", $A$1, ", ", $B$1, ") VALUES ('",SUBSTITUTE(A3, "'", "''"), "', '", SUBSTITUTE(B3, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_FSSI_PRE (FSSI_PRE_NAME, FSSI_PRE_DESC) VALUES ('BFISH', 'Hawaiian Archipelago Bottomfish Multi-species Complex');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_FSSI_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT FSSI_PRE_ID FROM CCD_SPP_FSSI_PRE WHERE FSSI_PRE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = '", SUBSTITUTE(B2, "'", "''"), "'), '",SUBSTITUTE(C2, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_FSSI_PRE_OPTS (FSSI_PRE_ID, TGT_SPP_FSSI_ID, FSSI_PRE_OPT_NOTES) VALUES ((SELECT FSSI_PRE_ID FROM CCD_SPP_FSSI_PRE WHERE FSSI_PRE_NAME = 'IEA'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Hawaiian Archipelago Coral Reef Ecosystem Multi-species Complex'), '');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_FSSI_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT FSSI_PRE_ID FROM CCD_SPP_FSSI_PRE WHERE FSSI_PRE_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = '", SUBSTITUTE(B3, "'", "''"), "'), '",SUBSTITUTE(C3, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_FSSI_PRE_OPTS (FSSI_PRE_ID, TGT_SPP_FSSI_ID, FSSI_PRE_OPT_NOTES) VALUES ((SELECT FSSI_PRE_ID FROM CCD_SPP_FSSI_PRE WHERE FSSI_PRE_NAME = 'BFISH'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Hawaiian Archipelago Bottomfish Multi-species Complex'), '');</v>
       </c>
     </row>
   </sheetData>
@@ -29423,6 +32372,234 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_CAT_PRE (", $A$1, ", ", $B$1, ") VALUES ('",SUBSTITUTE(A2, "'", "''"), "', '", SUBSTITUTE(B2, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_CAT_PRE (SPP_CAT_PRE_NAME, SPP_CAT_PRE_DESC) VALUES ('BFISH', 'Insular Bottomfish Survey');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_CAT_PRE (", $A$1, ", ", $B$1, ") VALUES ('",SUBSTITUTE(A3, "'", "''"), "', '", SUBSTITUTE(B3, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_CAT_PRE (SPP_CAT_PRE_NAME, SPP_CAT_PRE_DESC) VALUES ('MARAMP', 'Marianas Reef Assessment and Monitoring Program (MARAMP)');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1850</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("insert into CCD_SPP_CAT_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = '", SUBSTITUTE(B2, "'", "''"), "'), '",SUBSTITUTE(C2, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_CAT_PRE_OPTS (SPP_CAT_PRE_ID, EXP_SPP_CAT_ID, SPP_CAT_PRE_OPT_NOTES) VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = 'BFISH'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fish-General'), '');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D14" si="0">CONCATENATE("insert into CCD_SPP_CAT_PRE_OPTS (", $A$1, ", ", $B$1, ", ", $C$1, ") VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = '", SUBSTITUTE(B3, "'", "''"), "'), '",SUBSTITUTE(C3, "'", "''"), "');")</f>
+        <v>insert into CCD_SPP_CAT_PRE_OPTS (SPP_CAT_PRE_ID, EXP_SPP_CAT_ID, SPP_CAT_PRE_OPT_NOTES) VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = 'BFISH'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Benthic Fish'), '');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_CAT_PRE_OPTS (SPP_CAT_PRE_ID, EXP_SPP_CAT_ID, SPP_CAT_PRE_OPT_NOTES) VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = 'BFISH'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Reef Fish'), '');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B5" t="s">
+        <v>996</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_CAT_PRE_OPTS (SPP_CAT_PRE_ID, EXP_SPP_CAT_ID, SPP_CAT_PRE_OPT_NOTES) VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = 'MARAMP'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Algae'), '');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B6" t="s">
+        <v>998</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_CAT_PRE_OPTS (SPP_CAT_PRE_ID, EXP_SPP_CAT_ID, SPP_CAT_PRE_OPT_NOTES) VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = 'MARAMP'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Hermatypic Stony Coral'), '');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_CAT_PRE_OPTS (SPP_CAT_PRE_ID, EXP_SPP_CAT_ID, SPP_CAT_PRE_OPT_NOTES) VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = 'MARAMP'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Shallow Water Coral'), '');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_CAT_PRE_OPTS (SPP_CAT_PRE_ID, EXP_SPP_CAT_ID, SPP_CAT_PRE_OPT_NOTES) VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = 'MARAMP'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Crustaceans'), '');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_CAT_PRE_OPTS (SPP_CAT_PRE_ID, EXP_SPP_CAT_ID, SPP_CAT_PRE_OPT_NOTES) VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = 'MARAMP'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Reef Fish'), '');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_CAT_PRE_OPTS (SPP_CAT_PRE_ID, EXP_SPP_CAT_ID, SPP_CAT_PRE_OPT_NOTES) VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = 'MARAMP'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Shark'), '');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_CAT_PRE_OPTS (SPP_CAT_PRE_ID, EXP_SPP_CAT_ID, SPP_CAT_PRE_OPT_NOTES) VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = 'MARAMP'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Invertebrate-General'), '');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_CAT_PRE_OPTS (SPP_CAT_PRE_ID, EXP_SPP_CAT_ID, SPP_CAT_PRE_OPT_NOTES) VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = ''), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = ''), '');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_CAT_PRE_OPTS (SPP_CAT_PRE_ID, EXP_SPP_CAT_ID, SPP_CAT_PRE_OPT_NOTES) VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = ''), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = ''), '');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CCD_SPP_CAT_PRE_OPTS (SPP_CAT_PRE_ID, EXP_SPP_CAT_ID, SPP_CAT_PRE_OPT_NOTES) VALUES ((SELECT SPP_CAT_PRE_ID FROM CCD_SPP_CAT_PRE WHERE SPP_CAT_PRE_NAME = ''), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = ''), '');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/docs/Cruise_Leg_DDL_DML_generator.xlsx
+++ b/docs/Cruise_Leg_DDL_DML_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vessels" sheetId="10" r:id="rId1"/>
@@ -12,37 +12,37 @@
     <sheet name="Cruise Legs" sheetId="5" r:id="rId3"/>
     <sheet name="Cruise Leg Aliases" sheetId="9" r:id="rId4"/>
     <sheet name="Regions" sheetId="6" r:id="rId5"/>
-    <sheet name="Cruise Leg Regions" sheetId="7" r:id="rId6"/>
-    <sheet name="Data Set Types" sheetId="2" r:id="rId7"/>
-    <sheet name="Data Products" sheetId="8" r:id="rId8"/>
-    <sheet name="Data Sets" sheetId="3" r:id="rId9"/>
-    <sheet name="Data Set Status" sheetId="4" r:id="rId10"/>
-    <sheet name="Platform Type" sheetId="11" r:id="rId11"/>
-    <sheet name="Science Center" sheetId="29" r:id="rId12"/>
-    <sheet name="Science Center Divisions" sheetId="59" r:id="rId13"/>
-    <sheet name="Regional Ecosystem" sheetId="12" r:id="rId14"/>
-    <sheet name="Gear" sheetId="13" r:id="rId15"/>
-    <sheet name="Standard Survey Name" sheetId="15" r:id="rId16"/>
-    <sheet name="Survey Frequency" sheetId="16" r:id="rId17"/>
-    <sheet name="Survey Name" sheetId="30" r:id="rId18"/>
-    <sheet name="Survey Type" sheetId="31" r:id="rId19"/>
-    <sheet name="Vessel List" sheetId="32" r:id="rId20"/>
-    <sheet name="Vessel Type" sheetId="33" r:id="rId21"/>
-    <sheet name="Survey Categories" sheetId="17" r:id="rId22"/>
-    <sheet name="Target Species - ESA" sheetId="24" r:id="rId23"/>
-    <sheet name="Fiscal Year" sheetId="26" r:id="rId24"/>
-    <sheet name="Fiscal Quarter" sheetId="27" r:id="rId25"/>
-    <sheet name="Target Species - MMPA" sheetId="19" r:id="rId26"/>
-    <sheet name="Target Species - FSSI" sheetId="21" r:id="rId27"/>
-    <sheet name="Expected Species Categories" sheetId="20" r:id="rId28"/>
-    <sheet name="Cruise Survey Categories" sheetId="34" r:id="rId29"/>
-    <sheet name="Cruise ESA Species" sheetId="35" r:id="rId30"/>
-    <sheet name="Cruise FSSI Species" sheetId="36" r:id="rId31"/>
-    <sheet name="Cruise MMPA Species" sheetId="37" r:id="rId32"/>
-    <sheet name="Cruise Expected Species" sheetId="38" r:id="rId33"/>
+    <sheet name="Data Set Types" sheetId="2" r:id="rId6"/>
+    <sheet name="Data Products" sheetId="8" r:id="rId7"/>
+    <sheet name="Data Sets" sheetId="3" r:id="rId8"/>
+    <sheet name="Data Set Status" sheetId="4" r:id="rId9"/>
+    <sheet name="Platform Type" sheetId="11" r:id="rId10"/>
+    <sheet name="Science Center" sheetId="29" r:id="rId11"/>
+    <sheet name="Science Center Divisions" sheetId="59" r:id="rId12"/>
+    <sheet name="Regional Ecosystem" sheetId="12" r:id="rId13"/>
+    <sheet name="Gear" sheetId="13" r:id="rId14"/>
+    <sheet name="Standard Survey Name" sheetId="15" r:id="rId15"/>
+    <sheet name="Survey Frequency" sheetId="16" r:id="rId16"/>
+    <sheet name="Survey Name" sheetId="30" r:id="rId17"/>
+    <sheet name="Survey Type" sheetId="31" r:id="rId18"/>
+    <sheet name="Vessel List" sheetId="32" r:id="rId19"/>
+    <sheet name="Vessel Type" sheetId="33" r:id="rId20"/>
+    <sheet name="Survey Categories" sheetId="17" r:id="rId21"/>
+    <sheet name="Target Species - ESA" sheetId="24" r:id="rId22"/>
+    <sheet name="Fiscal Year" sheetId="26" r:id="rId23"/>
+    <sheet name="Fiscal Quarter" sheetId="27" r:id="rId24"/>
+    <sheet name="Target Species - MMPA" sheetId="19" r:id="rId25"/>
+    <sheet name="Target Species - FSSI" sheetId="21" r:id="rId26"/>
+    <sheet name="Expected Species Categories" sheetId="20" r:id="rId27"/>
+    <sheet name="Cruise Survey Categories" sheetId="34" r:id="rId28"/>
+    <sheet name="Cruise ESA Species" sheetId="35" r:id="rId29"/>
+    <sheet name="Cruise FSSI Species" sheetId="36" r:id="rId30"/>
+    <sheet name="Cruise MMPA Species" sheetId="37" r:id="rId31"/>
+    <sheet name="Cruise Expected Species" sheetId="38" r:id="rId32"/>
+    <sheet name="Cruise Target Species OTH" sheetId="42" r:id="rId33"/>
     <sheet name="Leg Ecosystems" sheetId="39" r:id="rId34"/>
     <sheet name="Leg Gear" sheetId="40" r:id="rId35"/>
-    <sheet name="Cruise Target Species OTH" sheetId="42" r:id="rId36"/>
+    <sheet name="Cruise Leg Regions" sheetId="7" r:id="rId36"/>
     <sheet name="Gear Presets" sheetId="43" r:id="rId37"/>
     <sheet name="Gear Preset Options" sheetId="44" r:id="rId38"/>
     <sheet name="Reg Ecosystem Presets" sheetId="45" r:id="rId39"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="1870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4059" uniqueCount="1871">
   <si>
     <t>Cruise Name</t>
   </si>
@@ -5748,6 +5748,9 @@
   </si>
   <si>
     <t>Science Center Division</t>
+  </si>
+  <si>
+    <t>Test Case Data:</t>
   </si>
 </sst>
 </file>
@@ -6193,152 +6196,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="69.42578125" customWidth="1"/>
-    <col min="4" max="5" width="25.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" t="str">
-        <f>CONCATENATE("insert into ccd_data_set_status (", A$1, ", ", B$1, ", ", C$1, ", ", D$1, ") values ('", SUBSTITUTE(A2, "'", "''"), "', '", SUBSTITUTE(B2, "'", "''"), "', '", C2, "', '", D2, "');")</f>
-        <v>insert into ccd_data_set_status (STATUS_CODE, STATUS_NAME, STATUS_DESC, STATUS_COLOR) values ('COL', 'Data Collection', 'Data is being collected', '#e76e3c');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E7" si="0">CONCATENATE("insert into ccd_data_set_status (", A$1, ", ", B$1, ", ", C$1, ", ", D$1, ") values ('", SUBSTITUTE(A3, "'", "''"), "', '", SUBSTITUTE(B3, "'", "''"), "', '", C3, "', '", D3, "');")</f>
-        <v>insert into ccd_data_set_status (STATUS_CODE, STATUS_NAME, STATUS_DESC, STATUS_COLOR) values ('PR', 'Data Processing', 'Data has been collected and the data is currently being processed', '#4b6a88');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_data_set_status (STATUS_CODE, STATUS_NAME, STATUS_DESC, STATUS_COLOR) values ('QC', 'Quality Control', 'Data has been processed and data quality control is currently being evaluated and issues are being resolved and/or annotated', '#0000e0');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_data_set_status (STATUS_CODE, STATUS_NAME, STATUS_DESC, STATUS_COLOR) values ('IA', 'Internally Accessible', 'Data has been quality controlled and it is currently internally accessible', '#1e90ff');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_data_set_status (STATUS_CODE, STATUS_NAME, STATUS_DESC, STATUS_COLOR) values ('PA', 'Publicly Accessible', 'Data has been quality controlled and it is currently publicly accessible', '#005555');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_data_set_status (STATUS_CODE, STATUS_NAME, STATUS_DESC, STATUS_COLOR) values ('ARCH', 'Archived', 'Data has been quality controlled and it is currently archived', '#00aa00');</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -6453,7 +6310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -6564,7 +6421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -6647,7 +6504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U12"/>
   <sheetViews>
@@ -6986,7 +6843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U104"/>
   <sheetViews>
@@ -9688,7 +9545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U360"/>
   <sheetViews>
@@ -18470,7 +18327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -18619,7 +18476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B80"/>
   <sheetViews>
@@ -19275,7 +19132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -19330,2294 +19187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L71"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="144.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1718</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1869</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1760</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1761</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1765</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1859</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>1866</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L2" s="2" t="str">
-        <f>CONCATENATE("insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('", A2, "', '", SUBSTITUTE(C2, "'", "''"), "', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = '", SUBSTITUTE(E2, "'", "''"),"'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D2, "'", "''"), "'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = '", SUBSTITUTE(F2, "'", "''"), "'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D2, "'", "''"), "') IS NULL THEN '", SUBSTITUTE(D2, "'", "''"), "' ELSE NULL END), '", SUBSTITUTE(G2, "'", "''"), "', '", SUBSTITUTE(H2, "'", "''"), "', (SELECT svy_type_id from ccd_svy_types where svy_type_name = '", SUBSTITUTE(I2, "'", "''"), "'), '", SUBSTITUTE(J2, "'", "''"), "', '", SUBSTITUTE(K2, "'", "''"), "');")</f>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HA1007', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L51" si="0">CONCATENATE("insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('", A3, "', '", SUBSTITUTE(C3, "'", "''"), "', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = '", SUBSTITUTE(E3, "'", "''"),"'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D3, "'", "''"), "'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = '", SUBSTITUTE(F3, "'", "''"), "'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D3, "'", "''"), "') IS NULL THEN '", SUBSTITUTE(D3, "'", "''"), "' ELSE NULL END), '", SUBSTITUTE(G3, "'", "''"), "', '", SUBSTITUTE(H3, "'", "''"), "', (SELECT svy_type_id from ccd_svy_types where svy_type_name = '", SUBSTITUTE(I3, "'", "''"), "'), '", SUBSTITUTE(J3, "'", "''"), "', '", SUBSTITUTE(K3, "'", "''"), "');")</f>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HA1008', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HA1201', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0401', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0602', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0604', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0609', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Mapping'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Mapping') IS NULL THEN 'Coral Reef Mapping' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I9" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0610', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I10" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0611', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K11" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0701', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI1001', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI1101', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0304', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0306', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F16" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0407', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K17" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0410', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1444</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0411', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Environmental Monitoring Research, Black Coral Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Environmental Monitoring Research, Black Coral Research') IS NULL THEN 'Environmental Monitoring Research, Black Coral Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I19" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K19" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0504', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0506', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K21" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0509', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0512', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I23" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K23" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0604', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K24" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0606', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K25" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0607', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Lobster Research &amp; Bottomfishing'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Lobster Research &amp; Bottomfishing') IS NULL THEN 'Lobster Research &amp; Bottomfishing' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K26" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0608', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I27" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J27" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0706', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris') IS NULL THEN 'Marine Debris' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1459</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K28" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0908', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris') IS NULL THEN 'Marine Debris' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K29" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-15-01', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Oceanography - North Pacific Subtropical Front Survey'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Oceanography - North Pacific Subtropical Front Survey') IS NULL THEN 'Fisheries Oceanography - North Pacific Subtropical Front Survey' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K30" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0005', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands') IS NULL THEN 'Marine Debris Research and Removal - Northwestern hawaiian Islands' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K31" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0009', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)') IS NULL THEN 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K32" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0011', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Remote Islands Insular Reef Fish Survey'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Remote Islands Insular Reef Fish Survey') IS NULL THEN 'Pacific Remote Islands Insular Reef Fish Survey' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J33" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K33" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0012', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)') IS NULL THEN 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K34" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0108', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Islands Cetacean Ecosystem Survey (PICES)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Islands Cetacean Ecosystem Survey (PICES)') IS NULL THEN 'Pacific Islands Cetacean Ecosystem Survey (PICES)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G35" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K35" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0109', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'NWHI Marine Turtle Population Assessment Survey - Deploy'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'NWHI Marine Turtle Population Assessment Survey - Deploy') IS NULL THEN 'NWHI Marine Turtle Population Assessment Survey - Deploy' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K36" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0110', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands') IS NULL THEN 'Marine Debris Research and Removal - Northwestern hawaiian Islands' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I37" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J37" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K37" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0111', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marianas Reef Assessment and Monitoring Program (MARAMP) - National Coral Reef Monitoring Program (NCRMP)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marianas Reef Assessment and Monitoring Program (MARAMP) - National Coral Reef Monitoring Program (NCRMP)') IS NULL THEN 'Marianas Reef Assessment and Monitoring Program (MARAMP) - National Coral Reef Monitoring Program (NCRMP)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>1310</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J38" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K38" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0201', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Islands Cetacean Ecosystem Survey (PICES)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Islands Cetacean Ecosystem Survey (PICES)') IS NULL THEN 'Pacific Islands Cetacean Ecosystem Survey (PICES)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>1315</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I39" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J39" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K39" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0207', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)') IS NULL THEN 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K40" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC9905', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marianas Reef Assessment and Monitoring Program (MARAMP) - National Coral Reef Monitoring Program (NCRMP)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marianas Reef Assessment and Monitoring Program (MARAMP) - National Coral Reef Monitoring Program (NCRMP)') IS NULL THEN 'Marianas Reef Assessment and Monitoring Program (MARAMP) - National Coral Reef Monitoring Program (NCRMP)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K41" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC9906', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands') IS NULL THEN 'Marine Debris Research and Removal - Northwestern hawaiian Islands' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>102</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K42" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC9908', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Remote Islands Insular Reef Fish Survey'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Remote Islands Insular Reef Fish Survey') IS NULL THEN 'Pacific Remote Islands Insular Reef Fish Survey' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I43" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J43" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K43" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC9909', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'NWHI Marine Turtle Population Assessment Survey - Deploy'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'NWHI Marine Turtle Population Assessment Survey - Deploy') IS NULL THEN 'NWHI Marine Turtle Population Assessment Survey - Deploy' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>1722</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E44" t="s">
-        <v>1861</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I44" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J44" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K44" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC9910', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Main Hawaiian Island (MHI) Insular Bottomfish Survey_Fall'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Main Hawaiian Island (MHI) Insular Bottomfish Survey_Fall') IS NULL THEN 'Main Hawaiian Island (MHI) Insular Bottomfish Survey_Fall' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I45" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K45" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-17-07', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Archipelago Insular Bottomfish Survey'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Archipelago Insular Bottomfish Survey') IS NULL THEN 'Hawaiian Archipelago Insular Bottomfish Survey' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G46" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K46" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-18-06', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Main Hawaiian Island (MHI) Insular Bottomfish Survey_Fall'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'BIENNIAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Main Hawaiian Island (MHI) Insular Bottomfish Survey_Fall') IS NULL THEN 'Main Hawaiian Island (MHI) Insular Bottomfish Survey_Fall' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I47" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K47" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-17-02', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Archipelago Insular Bottomfish Survey'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Archipelago Insular Bottomfish Survey') IS NULL THEN 'Hawaiian Archipelago Insular Bottomfish Survey' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I48" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K48" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-17-06', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)') IS NULL THEN 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I49" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J49" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K49" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('RL-17-05', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)') IS NULL THEN 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>1306</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I50" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J50" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K50" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-19-01', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)') IS NULL THEN 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I51" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J51" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K51" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-18-03', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Mariana Archipelago Cetacean Survey (MACS)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Mariana Archipelago Cetacean Survey (MACS)') IS NULL THEN 'Mariana Archipelago Cetacean Survey (MACS)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>400</v>
-      </c>
-      <c r="B56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" t="s">
-        <v>403</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F56" t="s">
-        <v>1423</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I56" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K56" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L56" s="2" t="str">
-        <f t="shared" ref="L56:L71" si="1">CONCATENATE("insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('", A56, "', '", SUBSTITUTE(C56, "'", "''"), "', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = '", SUBSTITUTE(E56, "'", "''"),"'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D56, "'", "''"), "'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = '", SUBSTITUTE(F56, "'", "''"), "'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D56, "'", "''"), "') IS NULL THEN '", SUBSTITUTE(D56, "'", "''"), "' ELSE NULL END), '", SUBSTITUTE(G56, "'", "''"), "', '", SUBSTITUTE(H56, "'", "''"), "', (SELECT svy_type_id from ccd_svy_types where svy_type_name = '", SUBSTITUTE(I56, "'", "''"), "'), '", SUBSTITUTE(J56, "'", "''"), "', '", SUBSTITUTE(K56, "'", "''"), "');")</f>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-14-01', 'Kona Integrated Ecosystem Assessment', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Oceanography - West Hawaii Integrated Ecosystem Assessment (IEA)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'BIENNIAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Oceanography - West Hawaii Integrated Ecosystem Assessment (IEA)') IS NULL THEN 'Fisheries Oceanography - West Hawaii Integrated Ecosystem Assessment (IEA)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>401</v>
-      </c>
-      <c r="B57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" t="s">
-        <v>404</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1445</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G57" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I57" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K57" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-14-02', 'MHI Insular Bottom Fish Survey', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Research') IS NULL THEN 'Fisheries Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>405</v>
-      </c>
-      <c r="B58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" t="s">
-        <v>406</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F58" t="s">
-        <v>1421</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I58" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J58" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K58" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L58" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-14-04', 'Insular Reef &amp; Bottom Fish Survey - Marianas', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Bottomfish Sampling and Life History'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Bottomfish Sampling and Life History') IS NULL THEN 'Bottomfish Sampling and Life History' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>407</v>
-      </c>
-      <c r="B59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" t="s">
-        <v>408</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1445</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I59" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K59" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L59" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-14-05', 'Insular Reef Fish Survey - Guam', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Research') IS NULL THEN 'Fisheries Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>409</v>
-      </c>
-      <c r="B60" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" t="s">
-        <v>410</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1215</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1810</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G60" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H60" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I60" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J60" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K60" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L60" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-14-06', 'Monk Seal Population Assessment', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>412</v>
-      </c>
-      <c r="B61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" t="s">
-        <v>411</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1862</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>1425</v>
-      </c>
-      <c r="G61" s="11" t="s">
-        <v>1763</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>1762</v>
-      </c>
-      <c r="I61" t="s">
-        <v>1715</v>
-      </c>
-      <c r="J61" t="s">
-        <v>1867</v>
-      </c>
-      <c r="K61" t="s">
-        <v>1868</v>
-      </c>
-      <c r="L61" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-14-07', 'Marine Debris (DARP)', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands') IS NULL THEN 'Marine Debris Research and Removal - Northwestern hawaiian Islands' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" t="s">
-        <v>430</v>
-      </c>
-      <c r="L62" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-15-01', 'Fisheries Oceanography', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>33</v>
-      </c>
-      <c r="L63" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>33</v>
-      </c>
-      <c r="L64" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
-      </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>33</v>
-      </c>
-      <c r="L65" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
-      </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>33</v>
-      </c>
-      <c r="L66" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
-      </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>33</v>
-      </c>
-      <c r="L67" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>33</v>
-      </c>
-      <c r="L68" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
-      </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>33</v>
-      </c>
-      <c r="L69" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
-      </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>33</v>
-      </c>
-      <c r="L70" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
-      </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>33</v>
-      </c>
-      <c r="L71" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3:H51" r:id="rId2" display="test@test.com"/>
-    <hyperlink ref="H56:H61" r:id="rId3" display="test@test.com"/>
-    <hyperlink ref="G2" r:id="rId4"/>
-    <hyperlink ref="G3:G51" r:id="rId5" display="http://www.noaa.gov/testURL"/>
-    <hyperlink ref="G56:G61" r:id="rId6" display="http://www.noaa.gov/testURL"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U249"/>
   <sheetViews>
@@ -27655,7 +25225,2294 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="39.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1869</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>1859</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1866</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>CONCATENATE("insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('", A2, "', '", SUBSTITUTE(C2, "'", "''"), "', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = '", SUBSTITUTE(E2, "'", "''"),"'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D2, "'", "''"), "'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = '", SUBSTITUTE(F2, "'", "''"), "'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D2, "'", "''"), "') IS NULL THEN '", SUBSTITUTE(D2, "'", "''"), "' ELSE NULL END), '", SUBSTITUTE(G2, "'", "''"), "', '", SUBSTITUTE(H2, "'", "''"), "', (SELECT svy_type_id from ccd_svy_types where svy_type_name = '", SUBSTITUTE(I2, "'", "''"), "'), '", SUBSTITUTE(J2, "'", "''"), "', '", SUBSTITUTE(K2, "'", "''"), "');")</f>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HA1007', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f t="shared" ref="L3:L51" si="0">CONCATENATE("insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('", A3, "', '", SUBSTITUTE(C3, "'", "''"), "', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = '", SUBSTITUTE(E3, "'", "''"),"'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D3, "'", "''"), "'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = '", SUBSTITUTE(F3, "'", "''"), "'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D3, "'", "''"), "') IS NULL THEN '", SUBSTITUTE(D3, "'", "''"), "' ELSE NULL END), '", SUBSTITUTE(G3, "'", "''"), "', '", SUBSTITUTE(H3, "'", "''"), "', (SELECT svy_type_id from ccd_svy_types where svy_type_name = '", SUBSTITUTE(I3, "'", "''"), "'), '", SUBSTITUTE(J3, "'", "''"), "', '", SUBSTITUTE(K3, "'", "''"), "');")</f>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HA1008', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HA1201', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0401', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0602', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0604', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0609', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Mapping'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Mapping') IS NULL THEN 'Coral Reef Mapping' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0610', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0611', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI0701', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI1001', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HI1101', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0304', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0306', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0407', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0410', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0411', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Environmental Monitoring Research, Black Coral Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Environmental Monitoring Research, Black Coral Research') IS NULL THEN 'Environmental Monitoring Research, Black Coral Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0504', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0506', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0509', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0512', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0604', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0606', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K25" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0607', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Lobster Research &amp; Bottomfishing'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Lobster Research &amp; Bottomfishing') IS NULL THEN 'Lobster Research &amp; Bottomfishing' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0608', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0706', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris') IS NULL THEN 'Marine Debris' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('OES0908', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris') IS NULL THEN 'Marine Debris' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-15-01', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Oceanography - North Pacific Subtropical Front Survey'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Oceanography - North Pacific Subtropical Front Survey') IS NULL THEN 'Fisheries Oceanography - North Pacific Subtropical Front Survey' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0005', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands') IS NULL THEN 'Marine Debris Research and Removal - Northwestern hawaiian Islands' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0009', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)') IS NULL THEN 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0011', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Remote Islands Insular Reef Fish Survey'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Remote Islands Insular Reef Fish Survey') IS NULL THEN 'Pacific Remote Islands Insular Reef Fish Survey' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0012', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)') IS NULL THEN 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0108', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Islands Cetacean Ecosystem Survey (PICES)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Islands Cetacean Ecosystem Survey (PICES)') IS NULL THEN 'Pacific Islands Cetacean Ecosystem Survey (PICES)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0109', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'NWHI Marine Turtle Population Assessment Survey - Deploy'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'NWHI Marine Turtle Population Assessment Survey - Deploy') IS NULL THEN 'NWHI Marine Turtle Population Assessment Survey - Deploy' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0110', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands') IS NULL THEN 'Marine Debris Research and Removal - Northwestern hawaiian Islands' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0111', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marianas Reef Assessment and Monitoring Program (MARAMP) - National Coral Reef Monitoring Program (NCRMP)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marianas Reef Assessment and Monitoring Program (MARAMP) - National Coral Reef Monitoring Program (NCRMP)') IS NULL THEN 'Marianas Reef Assessment and Monitoring Program (MARAMP) - National Coral Reef Monitoring Program (NCRMP)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0201', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Islands Cetacean Ecosystem Survey (PICES)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Islands Cetacean Ecosystem Survey (PICES)') IS NULL THEN 'Pacific Islands Cetacean Ecosystem Survey (PICES)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC0207', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)') IS NULL THEN 'Pacific Reef Assessment and Monitoring Program (Pacific RAMP) - National Coral Reef Monitoring Program (NCRMP)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC9905', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marianas Reef Assessment and Monitoring Program (MARAMP) - National Coral Reef Monitoring Program (NCRMP)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marianas Reef Assessment and Monitoring Program (MARAMP) - National Coral Reef Monitoring Program (NCRMP)') IS NULL THEN 'Marianas Reef Assessment and Monitoring Program (MARAMP) - National Coral Reef Monitoring Program (NCRMP)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC9906', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands') IS NULL THEN 'Marine Debris Research and Removal - Northwestern hawaiian Islands' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC9908', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Remote Islands Insular Reef Fish Survey'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Pacific Remote Islands Insular Reef Fish Survey') IS NULL THEN 'Pacific Remote Islands Insular Reef Fish Survey' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC9909', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'NWHI Marine Turtle Population Assessment Survey - Deploy'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'NWHI Marine Turtle Population Assessment Survey - Deploy') IS NULL THEN 'NWHI Marine Turtle Population Assessment Survey - Deploy' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('TC9910', 'Could not retrieve this information from FINSS since data is only available for 2014 and later, these values were made up for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Main Hawaiian Island (MHI) Insular Bottomfish Survey_Fall'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Main Hawaiian Island (MHI) Insular Bottomfish Survey_Fall') IS NULL THEN 'Main Hawaiian Island (MHI) Insular Bottomfish Survey_Fall' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-17-07', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Archipelago Insular Bottomfish Survey'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Archipelago Insular Bottomfish Survey') IS NULL THEN 'Hawaiian Archipelago Insular Bottomfish Survey' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-18-06', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Main Hawaiian Island (MHI) Insular Bottomfish Survey_Fall'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'BIENNIAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Main Hawaiian Island (MHI) Insular Bottomfish Survey_Fall') IS NULL THEN 'Main Hawaiian Island (MHI) Insular Bottomfish Survey_Fall' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-17-02', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Archipelago Insular Bottomfish Survey'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Archipelago Insular Bottomfish Survey') IS NULL THEN 'Hawaiian Archipelago Insular Bottomfish Survey' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-17-06', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)') IS NULL THEN 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('RL-17-05', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)') IS NULL THEN 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-19-01', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)') IS NULL THEN 'PIFSC - Hawaiian Islands Cetacean and Ecosystem Assessment Survey (HICEAS)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G51" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-18-03', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Mariana Archipelago Cetacean Survey (MACS)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Mariana Archipelago Cetacean Survey (MACS)') IS NULL THEN 'Mariana Archipelago Cetacean Survey (MACS)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>400</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>403</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1423</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L56" s="2" t="str">
+        <f t="shared" ref="L56:L71" si="1">CONCATENATE("insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('", A56, "', '", SUBSTITUTE(C56, "'", "''"), "', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = '", SUBSTITUTE(E56, "'", "''"),"'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D56, "'", "''"), "'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = '", SUBSTITUTE(F56, "'", "''"), "'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D56, "'", "''"), "') IS NULL THEN '", SUBSTITUTE(D56, "'", "''"), "' ELSE NULL END), '", SUBSTITUTE(G56, "'", "''"), "', '", SUBSTITUTE(H56, "'", "''"), "', (SELECT svy_type_id from ccd_svy_types where svy_type_name = '", SUBSTITUTE(I56, "'", "''"), "'), '", SUBSTITUTE(J56, "'", "''"), "', '", SUBSTITUTE(K56, "'", "''"), "');")</f>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-14-01', 'Kona Integrated Ecosystem Assessment', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Oceanography - West Hawaii Integrated Ecosystem Assessment (IEA)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'BIENNIAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Oceanography - West Hawaii Integrated Ecosystem Assessment (IEA)') IS NULL THEN 'Fisheries Oceanography - West Hawaii Integrated Ecosystem Assessment (IEA)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>401</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>404</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-14-02', 'MHI Insular Bottom Fish Survey', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Research') IS NULL THEN 'Fisheries Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>405</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>406</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L58" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-14-04', 'Insular Reef &amp; Bottom Fish Survey - Marianas', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Bottomfish Sampling and Life History'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Bottomfish Sampling and Life History') IS NULL THEN 'Bottomfish Sampling and Life History' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>407</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>408</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-14-05', 'Insular Reef Fish Survey - Guam', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Fisheries Research') IS NULL THEN 'Fisheries Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>409</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>410</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="G60" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L60" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-14-06', 'Monk Seal Population Assessment', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'SEMI-ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery') IS NULL THEN 'Hawaiian Monk Seal Population Assessment and Recovery Activities - Recovery' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>412</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>411</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1862</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-14-07', 'Marine Debris (DARP)', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'INTERMITTENT'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Marine Debris Research and Removal - Northwestern hawaiian Islands') IS NULL THEN 'Marine Debris Research and Removal - Northwestern hawaiian Islands' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>430</v>
+      </c>
+      <c r="L62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-15-01', 'Fisheries Oceanography', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="L63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="L64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="L65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="L66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="L67" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="L68" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="L70" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="L71" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('', '', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = ''), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = ''), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = ''), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '') IS NULL THEN '' ELSE NULL END), '', '', (SELECT svy_type_id from ccd_svy_types where svy_type_name = ''), '', '');</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="H3:H51" r:id="rId2" display="test@test.com"/>
+    <hyperlink ref="H56:H61" r:id="rId3" display="test@test.com"/>
+    <hyperlink ref="G2" r:id="rId4"/>
+    <hyperlink ref="G3:G51" r:id="rId5" display="http://www.noaa.gov/testURL"/>
+    <hyperlink ref="G56:G61" r:id="rId6" display="http://www.noaa.gov/testURL"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -27693,7 +27550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -27809,7 +27666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U74"/>
   <sheetViews>
@@ -29748,7 +29605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
@@ -29915,7 +29772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -29978,7 +29835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U164"/>
   <sheetViews>
@@ -34245,7 +34102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U231"/>
   <sheetViews>
@@ -39950,7 +39807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
@@ -40726,12 +40583,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40934,6 +40792,502 @@
         <v>INSERT INTO CCD_CRUISE_SVY_CATS (CRUISE_ID, SVY_CAT_ID, PRIMARY_YN) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Protected Species Monitoring and Assessment'), 'N');</v>
       </c>
     </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" ref="D26:D33" si="1">CONCATENATE("INSERT INTO CCD_CRUISE_SVY_CATS (CRUISE_ID, SVY_CAT_ID, PRIMARY_YN) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A26, "'", "''"), "'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = '", SUBSTITUTE(B26, "'", "''"), "'), '", C26, "');")</f>
+        <v>INSERT INTO CCD_CRUISE_SVY_CATS (CRUISE_ID, SVY_CAT_ID, PRIMARY_YN) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Habitat Monitoring and Assessment'), 'N');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SVY_CATS (CRUISE_ID, SVY_CAT_ID, PRIMARY_YN) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Protected Species Monitoring and Assessment'), 'Y');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SVY_CATS (CRUISE_ID, SVY_CAT_ID, PRIMARY_YN) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Science, Services and Stewardship'), 'N');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SVY_CATS (CRUISE_ID, SVY_CAT_ID, PRIMARY_YN) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Ecosystem Monitoring and Assessment'), 'Y');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SVY_CATS (CRUISE_ID, SVY_CAT_ID, PRIMARY_YN) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Protected Species Monitoring and Assessment'), 'Y');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SVY_CATS (CRUISE_ID, SVY_CAT_ID, PRIMARY_YN) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Science, Services and Stewardship'), 'N');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SVY_CATS (CRUISE_ID, SVY_CAT_ID, PRIMARY_YN) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Protected Species Monitoring and Assessment'), 'Y');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SVY_CATS (CRUISE_ID, SVY_CAT_ID, PRIMARY_YN) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT SVY_CAT_ID FROM CCD_SVY_CATS WHERE SVY_CAT_NAME = 'Science, Services and Stewardship'), 'N');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B2, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Hawaiian Monk Seal'));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C12" si="0">CONCATENATE("INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B3, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'hawksbill turtle'));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Humpback Whale'));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'leatherback turtle'));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'loggerhead turtle'));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>488</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'staghorn coral'));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'hawksbill turtle'));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Humpback Whale'));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Kemp''s ridley turtle'));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Sei Whale'));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Fin Whale'));</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" t="s">
+        <v>465</v>
+      </c>
+      <c r="C20" t="str">
+        <f>CONCATENATE("INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A20, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B20, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Hawaiian Monk Seal'));</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" t="s">
+        <v>466</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" ref="C21:C36" si="1">CONCATENATE("INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A21, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B21, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'hawksbill turtle'));</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s">
+        <v>467</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Humpback Whale'));</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>472</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'leatherback turtle'));</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>473</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'loggerhead turtle'));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>488</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'staghorn coral'));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Kemp''s ridley turtle'));</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>481</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Sei Whale'));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>457</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Fin Whale'));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>465</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Hawaiian Monk Seal'));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>466</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'hawksbill turtle'));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>467</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Humpback Whale'));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B32" t="s">
+        <v>467</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Humpback Whale'));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B33" t="s">
+        <v>472</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'leatherback turtle'));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B34" t="s">
+        <v>473</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'loggerhead turtle'));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35" t="s">
+        <v>488</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'staghorn coral'));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s">
+        <v>470</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Kemp''s ridley turtle'));</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -40945,8 +41299,8 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H77" sqref="H2:H77"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H59" sqref="H59:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40984,7 +41338,7 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -41224,7 +41578,7 @@
       <c r="A12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -41560,7 +41914,7 @@
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -41584,7 +41938,7 @@
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -41872,7 +42226,7 @@
       <c r="A39" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -41896,7 +42250,7 @@
       <c r="A40" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -42016,7 +42370,7 @@
       <c r="A45" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>318</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -42040,7 +42394,7 @@
       <c r="A46" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>319</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -42064,7 +42418,7 @@
       <c r="A47" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -42256,7 +42610,7 @@
       <c r="A55" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="2" t="s">
         <v>302</v>
       </c>
       <c r="C55" s="6" t="s">
@@ -42280,7 +42634,7 @@
       <c r="A56" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>303</v>
       </c>
       <c r="C56" s="6" t="s">
@@ -42355,7 +42709,7 @@
       <c r="A59" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>346</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -42382,7 +42736,7 @@
       <c r="A60" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>347</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -42409,7 +42763,7 @@
       <c r="A61" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -42436,7 +42790,7 @@
       <c r="A62" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -42463,7 +42817,7 @@
       <c r="A63" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>350</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -42850,13 +43204,16 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -42874,11 +43231,11 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>705</v>
       </c>
       <c r="C2" t="str">
-        <f>CONCATENATE("INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B2, "'", "''"), "'));")</f>
-        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Hawaiian Monk Seal'));</v>
+        <f t="shared" ref="C2:C12" si="0">CONCATENATE("INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = '", SUBSTITUTE(B2, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Wahoo - Pacific'));</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -42886,11 +43243,11 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>466</v>
+        <v>727</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C12" si="0">CONCATENATE("INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = '", SUBSTITUTE(B3, "'", "''"), "'));")</f>
-        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'hawksbill turtle'));</v>
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Yellowfin tuna - Central Western Pacific'));</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -42898,11 +43255,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Humpback Whale'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Albacore - South Pacific'));</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -42910,11 +43267,11 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>472</v>
+        <v>511</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'leatherback turtle'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'American Samoa Bottomfish Multi-species Complex'));</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -42922,11 +43279,11 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>473</v>
+        <v>545</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'loggerhead turtle'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Blue marlin - Pacific'));</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -42934,11 +43291,11 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'staghorn coral'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Blue shark - Pacific'));</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -42946,11 +43303,11 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>466</v>
+        <v>574</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'hawksbill turtle'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Dolphinfish - Pacific'));</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -42958,11 +43315,11 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>602</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Humpback Whale'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Hawaiian Archipelago Bottomfish Multi-species Complex'));</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -42970,11 +43327,11 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>470</v>
+        <v>607</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Kemp''s ridley turtle'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Kawakawa - Tropical Pacific'));</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -42982,11 +43339,11 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>481</v>
+        <v>674</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Sei Whale'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Shortbill spearfish - Pacific'));</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -42994,11 +43351,208 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>457</v>
+        <v>627</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_ESA (CRUISE_ID, TGT_SPP_ESA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_ESA_ID FROM CCD_TGT_SPP_ESA WHERE TGT_SPP_ESA_NAME = 'Fin Whale'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Opah - Pacific'));</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>548</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ref="C24:C39" si="1">CONCATENATE("INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A24, "'", "''"), "'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = '", SUBSTITUTE(B24, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Blue shark - Pacific'));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>574</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Dolphinfish - Pacific'));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>602</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Hawaiian Archipelago Bottomfish Multi-species Complex'));</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>607</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Kawakawa - Tropical Pacific'));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>674</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Shortbill spearfish - Pacific'));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>627</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Opah - Pacific'));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>705</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Wahoo - Pacific'));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>727</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Yellowfin tuna - Central Western Pacific'));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>509</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Albacore - South Pacific'));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>511</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'American Samoa Bottomfish Multi-species Complex'));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>545</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Blue marlin - Pacific'));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35" t="s">
+        <v>574</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Dolphinfish - Pacific'));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s">
+        <v>602</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Hawaiian Archipelago Bottomfish Multi-species Complex'));</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>607</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Kawakawa - Tropical Pacific'));</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B38" t="s">
+        <v>674</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Shortbill spearfish - Pacific'));</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B39" t="s">
+        <v>627</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Opah - Pacific'));</v>
       </c>
     </row>
   </sheetData>
@@ -43009,13 +43563,16 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -43033,11 +43590,11 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>705</v>
+        <v>952</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C12" si="0">CONCATENATE("INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = '", SUBSTITUTE(B2, "'", "''"), "'));")</f>
-        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Wahoo - Pacific'));</v>
+        <f t="shared" ref="C2:C12" si="0">CONCATENATE("INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B2, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pantropical Spotted Dolphin - Hawaii'));</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -43045,11 +43602,11 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>727</v>
+        <v>942</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Yellowfin tuna - Central Western Pacific'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Minke Whale - Hawaii'));</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -43057,11 +43614,11 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>509</v>
+        <v>933</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Albacore - South Pacific'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Longman''s Beaked Whale - Hawaii'));</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -43069,11 +43626,11 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>511</v>
+        <v>959</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'American Samoa Bottomfish Multi-species Complex'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pygmy Sperm Whale - Hawaii'));</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -43081,11 +43638,11 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>545</v>
+        <v>971</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Blue marlin - Pacific'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Sei Whale - Hawaii'));</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -43093,11 +43650,11 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>548</v>
+        <v>965</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Blue shark - Pacific'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Risso''s Dolphin - Hawaii'));</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -43105,11 +43662,11 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>574</v>
+        <v>976</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Dolphinfish - Pacific'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Short-Finned Pilot Whale - Hawaii'));</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -43117,11 +43674,11 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>602</v>
+        <v>981</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Hawaiian Archipelago Bottomfish Multi-species Complex'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Sperm Whale - Hawaii'));</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -43129,11 +43686,11 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>607</v>
+        <v>985</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Kawakawa - Tropical Pacific'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Spinner Dolphin - Hawaii'));</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -43141,11 +43698,11 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>674</v>
+        <v>991</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Shortbill spearfish - Pacific'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Striped Dolphin - Hawaii'));</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -43153,11 +43710,566 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>627</v>
+        <v>847</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_FSSI (CRUISE_ID, TGT_SPP_FSSI_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_FSSI_ID FROM CCD_TGT_SPP_FSSI WHERE TGT_SPP_FSSI_NAME = 'Opah - Pacific'));</v>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Blainville''s Beaked Whale - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>952</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ref="C24:C40" si="1">CONCATENATE("INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A24, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B24, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pantropical Spotted Dolphin - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>942</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Minke Whale - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>933</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Longman''s Beaked Whale - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>959</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pygmy Sperm Whale - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>971</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Sei Whale - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>965</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Risso''s Dolphin - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>976</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Short-Finned Pilot Whale - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>971</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Sei Whale - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>965</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Risso''s Dolphin - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>976</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Short-Finned Pilot Whale - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>981</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Sperm Whale - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>985</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Spinner Dolphin - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>991</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Striped Dolphin - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>959</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pygmy Sperm Whale - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B38" t="s">
+        <v>971</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Sei Whale - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B39" t="s">
+        <v>965</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Risso''s Dolphin - Hawaii'));</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B40" t="s">
+        <v>976</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Short-Finned Pilot Whale - Hawaii'));</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = '", SUBSTITUTE(B2, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Mesophotic Hermatypic Coral'));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C12" si="0">CONCATENATE("INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = '", SUBSTITUTE(B3, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Octocoral'));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Reef Fish'));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Pelagic Fish'));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Benthic Fish'));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Shallow Water Coral'));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Octocoral'));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Crustaceans'));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Shallow Water Coral'));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Invertebrate-Benthic'));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Sea Turtle'));</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" ref="C23:C37" si="1">CONCATENATE("INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A23, "'", "''"), "'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = '", SUBSTITUTE(B23, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Benthic Fish'));</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Shallow Water Coral'));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Octocoral'));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Crustaceans'));</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Mesophotic Hermatypic Coral'));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Invertebrate-Benthic'));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Sea Turtle'));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Reef Fish'));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Pelagic Fish'));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Benthic Fish'));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Sea Turtle'));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Mesophotic Hermatypic Coral'));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Octocoral'));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Reef Fish'));</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Benthic Fish'));</v>
       </c>
     </row>
   </sheetData>
@@ -43166,649 +44278,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>952</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C12" si="0">CONCATENATE("INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = '", SUBSTITUTE(B2, "'", "''"), "'));")</f>
-        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pantropical Spotted Dolphin - Hawaii'));</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>942</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Minke Whale - Hawaii'));</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>933</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Longman''s Beaked Whale - Hawaii'));</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>959</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Pygmy Sperm Whale - Hawaii'));</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>971</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Sei Whale - Hawaii'));</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>965</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Risso''s Dolphin - Hawaii'));</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>976</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Short-Finned Pilot Whale - Hawaii'));</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>981</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Sperm Whale - Hawaii'));</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>985</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Spinner Dolphin - Hawaii'));</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>991</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Striped Dolphin - Hawaii'));</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>847</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_SPP_MMPA (CRUISE_ID, TGT_SPP_MMPA_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT TGT_SPP_MMPA_ID FROM CCD_TGT_SPP_MMPA WHERE TGT_SPP_MMPA_NAME = 'Blainville''s Beaked Whale - Hawaii'));</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1726</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1732</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C2" t="str">
-        <f>CONCATENATE("INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = '", SUBSTITUTE(B2, "'", "''"), "'));")</f>
-        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Mesophotic Hermatypic Coral'));</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C12" si="0">CONCATENATE("INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = '", SUBSTITUTE(B3, "'", "''"), "'));")</f>
-        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Octocoral'));</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1007'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Reef Fish'));</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Pelagic Fish'));</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HA1201'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Fishes-Benthic Fish'));</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Shallow Water Coral'));</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Octocoral'));</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI1101'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Crustaceans'));</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Coral-Shallow Water Coral'));</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Invertebrate-Benthic'));</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_CRUISE_EXP_SPP (CRUISE_ID, EXP_SPP_CAT_ID) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), (SELECT EXP_SPP_CAT_ID FROM CCD_EXP_SPP_CATS WHERE EXP_SPP_CAT_NAME = 'Sea Turtle'));</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1734</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C2" t="str">
-        <f>CONCATENATE("INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = '", SUBSTITUTE(B2, "'", "''"), "'));")</f>
-        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1007'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C12" si="0">CONCATENATE("INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = '", SUBSTITUTE(B3, "'", "''"), "'));")</f>
-        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1007'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Eastern Tropical Pacific'));</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1007'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Northeast Shelf'));</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1201_LEG_I'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1201_LEG_I'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Eastern Tropical Pacific'));</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1201_LEG_II&amp;III'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI1001_LEGII'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI1001_LEGII'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Eastern Tropical Pacific'));</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI0701'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI0701'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Eastern Tropical Pacific'));</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI0701'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Northeast Shelf'));</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1733</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>811</v>
-      </c>
-      <c r="C2" t="str">
-        <f>CONCATENATE("INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = '", SUBSTITUTE(B2, "'", "''"), "'));")</f>
-        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1007'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>831</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C12" si="0">CONCATENATE("INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = '", SUBSTITUTE(B3, "'", "''"), "'));")</f>
-        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1007'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Trawl'));</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>819</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1007'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Snorkel/Free Dive'));</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" t="s">
-        <v>811</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1201_LEG_I'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" t="s">
-        <v>743</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1201_LEG_I'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Autonomous Reef Monitoring Structure (ARMS)'));</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="B7" t="s">
-        <v>811</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1201_LEG_II&amp;III'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>811</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI1001_LEGII'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>744</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI1001_LEGII'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'AUV'));</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>811</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI0701'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>759</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI0701'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'DCIP'));</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI0701'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'CTD'));</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D12"/>
+      <selection activeCell="D36" sqref="D36:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43996,8 +44471,1115 @@
         <v>INSERT INTO CCD_TGT_SPP_OTHER (CRUISE_ID, TGT_SPP_OTHER_CNAME, TGT_SPP_OTHER_SNAME) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'HI0701'), 'Yellowfin parrotfish', 'Scarus flavipectoralis');</v>
       </c>
     </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" ref="D29:D37" si="1">CONCATENATE("INSERT INTO CCD_TGT_SPP_OTHER (CRUISE_ID, TGT_SPP_OTHER_CNAME, TGT_SPP_OTHER_SNAME) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = '", SUBSTITUTE(A29, "'", "''"), "'), '", SUBSTITUTE(B29, "'", "''"), "', '", SUBSTITUTE(C29, "'", "''"), "');")</f>
+        <v>INSERT INTO CCD_TGT_SPP_OTHER (CRUISE_ID, TGT_SPP_OTHER_CNAME, TGT_SPP_OTHER_SNAME) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), 'Black triggerfish', 'Melichthys niger');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_TGT_SPP_OTHER (CRUISE_ID, TGT_SPP_OTHER_CNAME, TGT_SPP_OTHER_SNAME) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), 'Redlip cleaner wrasse', 'Labroides rubrolabiatus');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_TGT_SPP_OTHER (CRUISE_ID, TGT_SPP_OTHER_CNAME, TGT_SPP_OTHER_SNAME) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'SE-17-07'), 'Yellowfin parrotfish', 'Scarus flavipectoralis');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_TGT_SPP_OTHER (CRUISE_ID, TGT_SPP_OTHER_CNAME, TGT_SPP_OTHER_SNAME) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), 'Hawaiian cleaner wrasse', 'Labroides phthirophagus');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_TGT_SPP_OTHER (CRUISE_ID, TGT_SPP_OTHER_CNAME, TGT_SPP_OTHER_SNAME) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), 'Black triggerfish', 'Melichthys niger');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_TGT_SPP_OTHER (CRUISE_ID, TGT_SPP_OTHER_CNAME, TGT_SPP_OTHER_SNAME) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), 'Redlip cleaner wrasse', 'Labroides rubrolabiatus');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_TGT_SPP_OTHER (CRUISE_ID, TGT_SPP_OTHER_CNAME, TGT_SPP_OTHER_SNAME) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'TC9909'), 'Yellowfin parrotfish', 'Scarus flavipectoralis');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_TGT_SPP_OTHER (CRUISE_ID, TGT_SPP_OTHER_CNAME, TGT_SPP_OTHER_SNAME) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), 'False moorish idol', 'Heniochus diphreutes');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_TGT_SPP_OTHER (CRUISE_ID, TGT_SPP_OTHER_CNAME, TGT_SPP_OTHER_SNAME) VALUES ((SELECT CRUISE_ID FROM CCD_CRUISES WHERE CRUISE_NAME = 'RL-17-05'), 'Acanthurus species', 'Acanthurus sp');</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = '", SUBSTITUTE(B2, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1007'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C12" si="0">CONCATENATE("INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = '", SUBSTITUTE(B3, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1007'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Eastern Tropical Pacific'));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1007'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Northeast Shelf'));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1201_LEG_I'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1201_LEG_I'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Eastern Tropical Pacific'));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1201_LEG_II&amp;III'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI1001_LEGII'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI1001_LEGII'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Eastern Tropical Pacific'));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI0701'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI0701'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Eastern Tropical Pacific'));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI0701'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Northeast Shelf'));</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ref="C24:C30" si="1">CONCATENATE("INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = '", SUBSTITUTE(A24, "'", "''"), "'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = '", SUBSTITUTE(B24, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGI'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGI'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Eastern Tropical Pacific'));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGII'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGII'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Northeast Shelf'));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>346</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 1'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>347</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 2'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Eastern Tropical Pacific'));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 2'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Northeast Shelf'));</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE("INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = '", SUBSTITUTE(A2, "'", "''"), "'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = '", SUBSTITUTE(B2, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1007'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C12" si="0">CONCATENATE("INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = '", SUBSTITUTE(A3, "'", "''"), "'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = '", SUBSTITUTE(B3, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1007'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Trawl'));</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1007'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Snorkel/Free Dive'));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>811</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1201_LEG_I'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1201_LEG_I'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Autonomous Reef Monitoring Structure (ARMS)'));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>811</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HA1201_LEG_II&amp;III'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>811</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI1001_LEGII'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>744</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI1001_LEGII'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'AUV'));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>811</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI0701'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>759</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI0701'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'DCIP'));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'HI0701'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'CTD'));</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>773</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" ref="C25:C42" si="1">CONCATENATE("INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = '", SUBSTITUTE(A25, "'", "''"), "'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = '", SUBSTITUTE(B25, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGI'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'High-frequency Autonomous Acoustic Recording Package (HARP)'));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>774</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGI'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Hook and Line'));</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>775</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGI'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Human Observation'));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
+        <v>804</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGII'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'PIT Tags'));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>811</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGII'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" t="s">
+        <v>819</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGII'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Snorkel/Free Dive'));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>823</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGII'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Tags (satellite, acoustic and others)'));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" t="s">
+        <v>825</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGII'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Temperature Depth Recorders (TDRs)'));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" t="s">
+        <v>828</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGII'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Towed Hydrophone Array'));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>831</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGII'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Trawl'));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>834</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGII'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Visual Census'));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>346</v>
+      </c>
+      <c r="B36" t="s">
+        <v>773</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 1'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'High-frequency Autonomous Acoustic Recording Package (HARP)'));</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>346</v>
+      </c>
+      <c r="B37" t="s">
+        <v>774</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 1'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Hook and Line'));</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>346</v>
+      </c>
+      <c r="B38" t="s">
+        <v>775</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 1'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Human Observation'));</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" t="s">
+        <v>804</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 1'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'PIT Tags'));</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>346</v>
+      </c>
+      <c r="B40" t="s">
+        <v>811</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 1'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B41" t="s">
+        <v>819</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 2'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Snorkel/Free Dive'));</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>347</v>
+      </c>
+      <c r="B42" t="s">
+        <v>811</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 2'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE("insert into ccd_leg_regions (", A$1, ", ", B$1, ", ", C$1, ") values ((SELECT region_id from ccd_regions where region_code = '", A2, "'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = '", B2, "'), '", SUBSTITUTE(C2, "'", "''"), "');")</f>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'MHI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-07'), '');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D15" si="0">CONCATENATE("insert into ccd_leg_regions (", A$1, ", ", B$1, ", ", C$1, ") values ((SELECT region_id from ccd_regions where region_code = '", A3, "'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = '", B3, "'), '", SUBSTITUTE(C3, "'", "''"), "');")</f>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'MHI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-18-06'), '');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'MHI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-02'), '');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'NPSF'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01'), '');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_I'), '');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'AMSM'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_I'), '');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'AMSM'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_II&amp;III'), '');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_IV'), '');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_I'), '');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'CNMI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_II'), '');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_III'), '');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HI1001_LEGI'), '');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'AMSM'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HI1001_LEGII'), '');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HI1001_LEGIII'), '');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ref="D28:D37" si="1">CONCATENATE("insert into ccd_leg_regions (", A$1, ", ", B$1, ", ", C$1, ") values ((SELECT region_id from ccd_regions where region_code = '", A28, "'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = '", B28, "'), '", SUBSTITUTE(C28, "'", "''"), "');")</f>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'NWHI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0908_LEGI'), '');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>221</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0908_LEGI'), '');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'AMSM'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0908_LEGI'), '');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>224</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'CNMI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0908_LEGII'), '');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0908_LEGII'), '');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" t="s">
+        <v>346</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'NPSF'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 1'), '');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 1'), '');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" t="s">
+        <v>347</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'MHI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 2'), '');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B36" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'NWHI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 2'), '');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37" t="s">
+        <v>347</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 2'), '');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -44610,9 +46192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44634,7 +46216,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -44982,7 +46564,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -44994,7 +46576,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -45006,7 +46588,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -45018,7 +46600,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -45378,7 +46960,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -45390,7 +46972,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -45762,7 +47344,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="2" t="s">
         <v>302</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -45774,7 +47356,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="2" t="s">
         <v>303</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -48823,208 +50405,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" t="str">
-        <f>CONCATENATE("insert into ccd_leg_regions (", A$1, ", ", B$1, ", ", C$1, ") values ((SELECT region_id from ccd_regions where region_code = '", A2, "'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = '", B2, "'), '", SUBSTITUTE(C2, "'", "''"), "');")</f>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'MHI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-07'), '');</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D15" si="0">CONCATENATE("insert into ccd_leg_regions (", A$1, ", ", B$1, ", ", C$1, ") values ((SELECT region_id from ccd_regions where region_code = '", A3, "'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = '", B3, "'), '", SUBSTITUTE(C3, "'", "''"), "');")</f>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'MHI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-18-06'), '');</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'MHI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-02'), '');</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'NPSF'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01'), '');</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_I'), '');</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'AMSM'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_I'), '');</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'AMSM'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_II&amp;III'), '');</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_IV'), '');</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_I'), '');</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'CNMI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_II'), '');</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>221</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_III'), '');</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HI1001_LEGI'), '');</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'AMSM'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HI1001_LEGII'), '');</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>221</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'HI1001_LEGIII'), '');</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49211,7 +50591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -49223,7 +50603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -49485,4 +50865,150 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="69.42578125" customWidth="1"/>
+    <col min="4" max="5" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE("insert into ccd_data_set_status (", A$1, ", ", B$1, ", ", C$1, ", ", D$1, ") values ('", SUBSTITUTE(A2, "'", "''"), "', '", SUBSTITUTE(B2, "'", "''"), "', '", C2, "', '", D2, "');")</f>
+        <v>insert into ccd_data_set_status (STATUS_CODE, STATUS_NAME, STATUS_DESC, STATUS_COLOR) values ('COL', 'Data Collection', 'Data is being collected', '#e76e3c');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E7" si="0">CONCATENATE("insert into ccd_data_set_status (", A$1, ", ", B$1, ", ", C$1, ", ", D$1, ") values ('", SUBSTITUTE(A3, "'", "''"), "', '", SUBSTITUTE(B3, "'", "''"), "', '", C3, "', '", D3, "');")</f>
+        <v>insert into ccd_data_set_status (STATUS_CODE, STATUS_NAME, STATUS_DESC, STATUS_COLOR) values ('PR', 'Data Processing', 'Data has been collected and the data is currently being processed', '#4b6a88');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_data_set_status (STATUS_CODE, STATUS_NAME, STATUS_DESC, STATUS_COLOR) values ('QC', 'Quality Control', 'Data has been processed and data quality control is currently being evaluated and issues are being resolved and/or annotated', '#0000e0');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_data_set_status (STATUS_CODE, STATUS_NAME, STATUS_DESC, STATUS_COLOR) values ('IA', 'Internally Accessible', 'Data has been quality controlled and it is currently internally accessible', '#1e90ff');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_data_set_status (STATUS_CODE, STATUS_NAME, STATUS_DESC, STATUS_COLOR) values ('PA', 'Publicly Accessible', 'Data has been quality controlled and it is currently publicly accessible', '#005555');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_data_set_status (STATUS_CODE, STATUS_NAME, STATUS_DESC, STATUS_COLOR) values ('ARCH', 'Archived', 'Data has been quality controlled and it is currently archived', '#00aa00');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/Cruise_Leg_DDL_DML_generator.xlsx
+++ b/docs/Cruise_Leg_DDL_DML_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vessels" sheetId="10" r:id="rId1"/>
@@ -5801,7 +5801,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5820,6 +5820,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5834,7 +5846,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -5852,6 +5864,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -25230,7 +25244,7 @@
   <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25709,7 +25723,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
@@ -26387,7 +26401,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B31" t="s">
@@ -41298,9 +41312,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H59" sqref="H59:H60"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41410,7 +41424,7 @@
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="14" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -41506,7 +41520,7 @@
       <c r="A9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -41530,7 +41544,7 @@
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>333</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -41554,7 +41568,7 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -41794,7 +41808,7 @@
       <c r="A21" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -41818,7 +41832,7 @@
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -41842,7 +41856,7 @@
       <c r="A23" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -41962,7 +41976,7 @@
       <c r="A28" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="14" t="s">
         <v>269</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -41986,7 +42000,7 @@
       <c r="A29" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="14" t="s">
         <v>270</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -46192,9 +46206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Cruise_Leg_DDL_DML_generator.xlsx
+++ b/docs/Cruise_Leg_DDL_DML_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="32" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="Vessels" sheetId="10" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4766" uniqueCount="2017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4818" uniqueCount="2018">
   <si>
     <t>Cruise Name</t>
   </si>
@@ -6189,6 +6189,9 @@
   </si>
   <si>
     <t>SE-22-01 Leg 2</t>
+  </si>
+  <si>
+    <t>RL-17-05 Leg 6</t>
   </si>
 </sst>
 </file>
@@ -43177,8 +43180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD89"/>
     </sheetView>
   </sheetViews>
@@ -47478,10 +47481,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:A29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47646,7 +47649,7 @@
         <v>1030</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ref="C24:C30" si="1">CONCATENATE("INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = '", SUBSTITUTE(A24, "'", "''"), "'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = '", SUBSTITUTE(B24, "'", "''"), "'));")</f>
+        <f t="shared" ref="C24:C38" si="1">CONCATENATE("INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = '", SUBSTITUTE(A24, "'", "''"), "'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = '", SUBSTITUTE(B24, "'", "''"), "'));")</f>
         <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'OES0908_LEGI'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
       </c>
     </row>
@@ -47720,6 +47723,90 @@
       <c r="C30" t="str">
         <f t="shared" si="1"/>
         <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 2'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Northeast Shelf'));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>348</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 3'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>348</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 3'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Eastern Tropical Pacific'));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>349</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 4'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>349</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 4'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Eastern Tropical Pacific'));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>350</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 5'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Northeast Shelf'));</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>350</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 5'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Pacific Islands Ecosystem Complex'));</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO CCD_LEG_ECOSYSTEMS (CRUISE_LEG_ID, REG_ECOSYSTEM_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 6'), (SELECT REG_ECOSYSTEM_ID FROM CCD_REG_ECOSYSTEMS WHERE REG_ECOSYSTEM_NAME = 'Eastern Tropical Pacific'));</v>
       </c>
     </row>
   </sheetData>
@@ -47730,10 +47817,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C104" sqref="C73:C104"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117:C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48783,6 +48870,150 @@
         <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'SE-22-02 Leg 2'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Temperature Depth Recorders (TDRs)'));</v>
       </c>
     </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>348</v>
+      </c>
+      <c r="B108" t="s">
+        <v>811</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" ref="C108:C119" si="4">CONCATENATE("INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = '", SUBSTITUTE(A108, "'", "''"), "'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = '", SUBSTITUTE(B108, "'", "''"), "'));")</f>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 3'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'SCUBA'));</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>348</v>
+      </c>
+      <c r="B109" t="s">
+        <v>744</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 3'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'AUV'));</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>348</v>
+      </c>
+      <c r="B110" t="s">
+        <v>759</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 3'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'DCIP'));</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>348</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 3'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'CTD'));</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>349</v>
+      </c>
+      <c r="B112" t="s">
+        <v>812</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 4'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Seine'));</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>349</v>
+      </c>
+      <c r="B113" t="s">
+        <v>813</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 4'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Set Net'));</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>349</v>
+      </c>
+      <c r="B114" t="s">
+        <v>814</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 4'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Settlement Traps'));</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>350</v>
+      </c>
+      <c r="B115" t="s">
+        <v>774</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 5'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Hook and Line'));</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>350</v>
+      </c>
+      <c r="B116" t="s">
+        <v>775</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 5'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'Human Observation'));</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B117" t="s">
+        <v>744</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 6'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'AUV'));</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B118" t="s">
+        <v>759</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 6'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'DCIP'));</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B119" t="s">
+        <v>111</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="4"/>
+        <v>INSERT INTO CCD_LEG_GEAR (CRUISE_LEG_ID, GEAR_ID) VALUES ((SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS WHERE LEG_NAME = 'RL-17-05 Leg 6'), (SELECT GEAR_ID FROM CCD_GEAR WHERE GEAR_NAME = 'CTD'));</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -48791,10 +49022,10 @@
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:D37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D44" sqref="D43:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49001,7 +49232,7 @@
         <v>69</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" ref="D28:D37" si="1">CONCATENATE("insert into ccd_leg_regions (", A$1, ", ", B$1, ", ", C$1, ") values ((SELECT region_id from ccd_regions where region_code = '", A28, "'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = '", B28, "'), '", SUBSTITUTE(C28, "'", "''"), "');")</f>
+        <f t="shared" ref="D28:D44" si="1">CONCATENATE("insert into ccd_leg_regions (", A$1, ", ", B$1, ", ", C$1, ") values ((SELECT region_id from ccd_regions where region_code = '", A28, "'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = '", B28, "'), '", SUBSTITUTE(C28, "'", "''"), "');")</f>
         <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'NWHI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0908_LEGI'), '');</v>
       </c>
     </row>
@@ -49111,6 +49342,90 @@
       <c r="D37" t="str">
         <f t="shared" si="1"/>
         <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 2'), '');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" t="s">
+        <v>348</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'MHI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 3'), '');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" t="s">
+        <v>348</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'NWHI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 3'), '');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 4'), '');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B41" t="s">
+        <v>349</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'CNMI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 4'), '');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42" t="s">
+        <v>350</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 5'), '');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'CNMI'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 6'), '');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_regions (REGION_ID, CRUISE_LEG_ID, LEG_REGION_NOTES) values ((SELECT region_id from ccd_regions where region_code = 'PRIA'), (SELECT cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 6'), '');</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Cruise_Leg_DDL_DML_generator.xlsx
+++ b/docs/Cruise_Leg_DDL_DML_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="32" activeTab="35"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vessels" sheetId="10" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4818" uniqueCount="2018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4953" uniqueCount="2026">
   <si>
     <t>Cruise Name</t>
   </si>
@@ -6192,6 +6192,30 @@
   </si>
   <si>
     <t>RL-17-05 Leg 6</t>
+  </si>
+  <si>
+    <t>SE-19-06</t>
+  </si>
+  <si>
+    <t>Created MOUSS cruise so it can be referenced by the MOUSS database</t>
+  </si>
+  <si>
+    <t>9/11/2019</t>
+  </si>
+  <si>
+    <t>9/29/2019</t>
+  </si>
+  <si>
+    <t>Leg dates retrieved from project report</t>
+  </si>
+  <si>
+    <t>SE1906</t>
+  </si>
+  <si>
+    <t>UTC_TZ_OFFSET</t>
+  </si>
+  <si>
+    <t>-10:00</t>
   </si>
 </sst>
 </file>
@@ -25706,8 +25730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView topLeftCell="B67" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82:L102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25833,7 +25857,7 @@
         <v>1868</v>
       </c>
       <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L51" si="0">CONCATENATE("insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('", A3, "', '", SUBSTITUTE(C3, "'", "''"), "', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = '", SUBSTITUTE(E3, "'", "''"),"'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D3, "'", "''"), "'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = '", SUBSTITUTE(F3, "'", "''"), "'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D3, "'", "''"), "') IS NULL THEN '", SUBSTITUTE(D3, "'", "''"), "' ELSE NULL END), '", SUBSTITUTE(G3, "'", "''"), "', '", SUBSTITUTE(H3, "'", "''"), "', (SELECT svy_type_id from ccd_svy_types where svy_type_name = '", SUBSTITUTE(I3, "'", "''"), "'), '", SUBSTITUTE(J3, "'", "''"), "', '", SUBSTITUTE(K3, "'", "''"), "');")</f>
+        <f t="shared" ref="L3:L52" si="0">CONCATENATE("insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('", A3, "', '", SUBSTITUTE(C3, "'", "''"), "', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = '", SUBSTITUTE(E3, "'", "''"),"'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D3, "'", "''"), "'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = '", SUBSTITUTE(F3, "'", "''"), "'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = '", SUBSTITUTE(D3, "'", "''"), "') IS NULL THEN '", SUBSTITUTE(D3, "'", "''"), "' ELSE NULL END), '", SUBSTITUTE(G3, "'", "''"), "', '", SUBSTITUTE(H3, "'", "''"), "', (SELECT svy_type_id from ccd_svy_types where svy_type_name = '", SUBSTITUTE(I3, "'", "''"), "'), '", SUBSTITUTE(J3, "'", "''"), "', '", SUBSTITUTE(K3, "'", "''"), "');")</f>
         <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('HA1008', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'ESD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Coral Reef Ecosystem Research') IS NULL THEN 'Coral Reef Ecosystem Research' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
       </c>
     </row>
@@ -27638,6 +27662,45 @@
       <c r="L51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-18-03', 'Retrieved this information manually from FINSS on 1/16/20 for testing purposes', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'PSD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Mariana Archipelago Cetacean Survey (MACS)'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Mariana Archipelago Cetacean Survey (MACS)') IS NULL THEN 'Mariana Archipelago Cetacean Survey (MACS)' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>1763</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>1762</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1715</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1867</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1868</v>
+      </c>
+      <c r="L52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruises (cruise_name, cruise_notes, sci_center_div_id, std_svy_name_id, svy_freq_id, std_svy_name_oth, CRUISE_URL, CRUISE_CONT_EMAIL, svy_type_id, CRUISE_DESC, OBJ_BASED_METRICS) values ('SE-19-06', 'Created MOUSS cruise so it can be referenced by the MOUSS database', (select sci_center_div_id from ccd_sci_center_divs where sci_center_div_code = 'FRMD'), (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Archipelago Insular Bottomfish Survey'), (select SVY_FREQ_ID from ccd_svy_freq where SVY_FREQ_name = 'ANNUAL'), (CASE WHEN (select STD_SVY_NAME_ID from ccd_std_svy_names where std_svy_name = 'Hawaiian Archipelago Insular Bottomfish Survey') IS NULL THEN 'Hawaiian Archipelago Insular Bottomfish Survey' ELSE NULL END), 'http://www.noaa.gov/testURL', 'test@test.com', (SELECT svy_type_id from ccd_svy_types where svy_type_name = 'NMFS Survey'), 'Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.', 'test content');</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -28843,9 +28906,11 @@
     <hyperlink ref="H102" r:id="rId40"/>
     <hyperlink ref="G101" r:id="rId41"/>
     <hyperlink ref="G102" r:id="rId42"/>
+    <hyperlink ref="G52" r:id="rId43"/>
+    <hyperlink ref="H52" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId43"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId45"/>
 </worksheet>
 </file>
 
@@ -43178,11 +43243,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I69" sqref="I2:I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43190,10 +43255,10 @@
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="65.5703125" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" customWidth="1"/>
+    <col min="6" max="8" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1717</v>
       </c>
@@ -43216,10 +43281,13 @@
         <v>1725</v>
       </c>
       <c r="H1" t="s">
+        <v>2024</v>
+      </c>
+      <c r="I1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -43238,12 +43306,15 @@
       <c r="G2" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H2" s="5" t="str">
-        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B2, "'", "''"), "', TO_DATE('", C2, "', 'MM/DD/YYYY'), TO_DATE('", D2, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E2, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F2, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A2, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G2, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-17-07', TO_DATE('10/20/2017', 'MM/DD/YYYY'), TO_DATE('11/03/2017', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="5" t="str">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B2, "'", "''"), "', TO_DATE('", C2, "', 'MM/DD/YYYY'), TO_DATE('", D2, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E2, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F2, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A2, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G2, "'", "''"), "'), '", H2, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-17-07', TO_DATE('10/20/2017', 'MM/DD/YYYY'), TO_DATE('11/03/2017', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -43262,12 +43333,15 @@
       <c r="G3" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H3" s="5" t="str">
-        <f t="shared" ref="H3:H66" si="0">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B3, "'", "''"), "', TO_DATE('", C3, "', 'MM/DD/YYYY'), TO_DATE('", D3, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E3, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F3, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A3, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G3, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-18-06', TO_DATE('10/17/2018', 'MM/DD/YYYY'), TO_DATE('10/31/2018', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-18-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f t="shared" ref="I3:I66" si="0">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B3, "'", "''"), "', TO_DATE('", C3, "', 'MM/DD/YYYY'), TO_DATE('", D3, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E3, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F3, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A3, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G3, "'", "''"), "'), '", H3, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-18-06', TO_DATE('10/17/2018', 'MM/DD/YYYY'), TO_DATE('10/31/2018', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-18-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -43286,12 +43360,15 @@
       <c r="G4" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-17-02', TO_DATE('3/1/2017', 'MM/DD/YYYY'), TO_DATE('3/15/2017', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-17-02', TO_DATE('3/1/2017', 'MM/DD/YYYY'), TO_DATE('3/15/2017', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -43310,12 +43387,15 @@
       <c r="G5" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-15-01', TO_DATE('4/3/2015', 'MM/DD/YYYY'), TO_DATE('4/14/2015', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-15-01', TO_DATE('4/3/2015', 'MM/DD/YYYY'), TO_DATE('4/14/2015', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -43334,12 +43414,15 @@
       <c r="G6" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HA1201_LEG_I', TO_DATE('2/27/2012', 'MM/DD/YYYY'), TO_DATE('3/25/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1201_LEG_I', TO_DATE('2/27/2012', 'MM/DD/YYYY'), TO_DATE('3/25/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -43358,12 +43441,15 @@
       <c r="G7" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HA1201_LEG_II&amp;III', TO_DATE('4/1/2012', 'MM/DD/YYYY'), TO_DATE('4/27/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1201_LEG_II&amp;III', TO_DATE('4/1/2012', 'MM/DD/YYYY'), TO_DATE('4/27/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -43382,12 +43468,15 @@
       <c r="G8" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HA1201_LEG_IV', TO_DATE('4/27/2012', 'MM/DD/YYYY'), TO_DATE('5/24/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1201_LEG_IV', TO_DATE('4/27/2012', 'MM/DD/YYYY'), TO_DATE('5/24/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -43406,12 +43495,15 @@
       <c r="G9" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HA1101_LEG_I', TO_DATE('3/10/2011', 'MM/DD/YYYY'), TO_DATE('4/5/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1101_LEG_I', TO_DATE('3/10/2011', 'MM/DD/YYYY'), TO_DATE('4/5/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -43430,12 +43522,15 @@
       <c r="G10" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HA1101_LEG_II', TO_DATE('4/7/2011', 'MM/DD/YYYY'), TO_DATE('5/9/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1101_LEG_II', TO_DATE('4/7/2011', 'MM/DD/YYYY'), TO_DATE('5/9/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -43454,12 +43549,15 @@
       <c r="G11" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HA1101_LEG_III', TO_DATE('5/12/2011', 'MM/DD/YYYY'), TO_DATE('5/24/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1101_LEG_III', TO_DATE('5/12/2011', 'MM/DD/YYYY'), TO_DATE('5/24/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -43478,12 +43576,15 @@
       <c r="G12" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HA1007', TO_DATE('9/4/2010', 'MM/DD/YYYY'), TO_DATE('9/29/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1007'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1007', TO_DATE('9/4/2010', 'MM/DD/YYYY'), TO_DATE('9/29/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1007'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -43502,12 +43603,15 @@
       <c r="G13" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HA1008', TO_DATE('10/7/2010', 'MM/DD/YYYY'), TO_DATE('11/5/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1008'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1008', TO_DATE('10/7/2010', 'MM/DD/YYYY'), TO_DATE('11/5/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1008'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -43526,12 +43630,15 @@
       <c r="G14" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI0401', TO_DATE('9/13/2004', 'MM/DD/YYYY'), TO_DATE('10/17/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0401'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0401', TO_DATE('9/13/2004', 'MM/DD/YYYY'), TO_DATE('10/17/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0401'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -43550,12 +43657,15 @@
       <c r="G15" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI0602', TO_DATE('2/9/2006', 'MM/DD/YYYY'), TO_DATE('3/10/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0602'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0602', TO_DATE('2/9/2006', 'MM/DD/YYYY'), TO_DATE('3/10/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0602'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -43574,12 +43684,15 @@
       <c r="G16" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI0604', TO_DATE('3/15/2006', 'MM/DD/YYYY'), TO_DATE('4/8/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0604'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0604', TO_DATE('3/15/2006', 'MM/DD/YYYY'), TO_DATE('4/8/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0604'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -43598,12 +43711,15 @@
       <c r="G17" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI0609', TO_DATE('6/23/2006', 'MM/DD/YYYY'), TO_DATE('7/20/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0609'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0609', TO_DATE('6/23/2006', 'MM/DD/YYYY'), TO_DATE('7/20/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0609'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -43622,12 +43738,15 @@
       <c r="G18" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI0610', TO_DATE('7/27/2006', 'MM/DD/YYYY'), TO_DATE('8/20/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0610'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0610', TO_DATE('7/27/2006', 'MM/DD/YYYY'), TO_DATE('8/20/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0610'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -43646,12 +43765,15 @@
       <c r="G19" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI0611', TO_DATE('9/1/2006', 'MM/DD/YYYY'), TO_DATE('10/4/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0611'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0611', TO_DATE('9/1/2006', 'MM/DD/YYYY'), TO_DATE('10/4/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0611'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -43670,12 +43792,15 @@
       <c r="G20" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI0701', TO_DATE('4/19/2007', 'MM/DD/YYYY'), TO_DATE('5/9/2007', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0701'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0701', TO_DATE('4/19/2007', 'MM/DD/YYYY'), TO_DATE('5/9/2007', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0701'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -43694,12 +43819,15 @@
       <c r="G21" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI1001_LEGI', TO_DATE('1/21/2010', 'MM/DD/YYYY'), TO_DATE('2/14/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI1001_LEGI', TO_DATE('1/21/2010', 'MM/DD/YYYY'), TO_DATE('2/14/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -43718,12 +43846,15 @@
       <c r="G22" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI1001_LEGII', TO_DATE('2/17/2010', 'MM/DD/YYYY'), TO_DATE('3/23/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI1001_LEGII', TO_DATE('2/17/2010', 'MM/DD/YYYY'), TO_DATE('3/23/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -43742,12 +43873,15 @@
       <c r="G23" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI1001_LEGIII', TO_DATE('3/27/2010', 'MM/DD/YYYY'), TO_DATE('4/24/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI1001_LEGIII', TO_DATE('3/27/2010', 'MM/DD/YYYY'), TO_DATE('4/24/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -43766,12 +43900,15 @@
       <c r="G24" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0304', TO_DATE('5/13/2003', 'MM/DD/YYYY'), TO_DATE('5/28/2003', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0304'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0304', TO_DATE('5/13/2003', 'MM/DD/YYYY'), TO_DATE('5/28/2003', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0304'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -43790,12 +43927,15 @@
       <c r="G25" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0306', TO_DATE('7/12/2003', 'MM/DD/YYYY'), TO_DATE('8/17/2003', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0306'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0306', TO_DATE('7/12/2003', 'MM/DD/YYYY'), TO_DATE('8/17/2003', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0306'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -43814,12 +43954,15 @@
       <c r="G26" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0407', TO_DATE('5/30/2004', 'MM/DD/YYYY'), TO_DATE('6/14/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0407'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0407', TO_DATE('5/30/2004', 'MM/DD/YYYY'), TO_DATE('6/14/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0407'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -43838,12 +43981,15 @@
       <c r="G27" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0410', TO_DATE('7/30/2004', 'MM/DD/YYYY'), TO_DATE('8/16/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0410'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0410', TO_DATE('7/30/2004', 'MM/DD/YYYY'), TO_DATE('8/16/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0410'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -43862,12 +44008,15 @@
       <c r="G28" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0411_LEGI', TO_DATE('8/7/2004', 'MM/DD/YYYY'), TO_DATE('9/7/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0411_LEGI', TO_DATE('8/7/2004', 'MM/DD/YYYY'), TO_DATE('9/7/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -43886,12 +44035,15 @@
       <c r="G29" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0411_LEGII', TO_DATE('9/8/2004', 'MM/DD/YYYY'), TO_DATE('9/13/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0411_LEGII', TO_DATE('9/8/2004', 'MM/DD/YYYY'), TO_DATE('9/13/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -43910,12 +44062,15 @@
       <c r="G30" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0504', TO_DATE('3/21/2005', 'MM/DD/YYYY'), TO_DATE('4/3/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0504'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0504', TO_DATE('3/21/2005', 'MM/DD/YYYY'), TO_DATE('4/3/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0504'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -43934,12 +44089,15 @@
       <c r="G31" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0506', TO_DATE('5/5/2005', 'MM/DD/YYYY'), TO_DATE('5/20/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0506'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0506', TO_DATE('5/5/2005', 'MM/DD/YYYY'), TO_DATE('5/20/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0506'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -43958,12 +44116,15 @@
       <c r="G32" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0509', TO_DATE('7/19/2005', 'MM/DD/YYYY'), TO_DATE('8/5/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0509'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0509', TO_DATE('7/19/2005', 'MM/DD/YYYY'), TO_DATE('8/5/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0509'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -43982,12 +44143,15 @@
       <c r="G33" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0512', TO_DATE('10/3/2005', 'MM/DD/YYYY'), TO_DATE('10/9/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0512'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0512', TO_DATE('10/3/2005', 'MM/DD/YYYY'), TO_DATE('10/9/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0512'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -44006,12 +44170,15 @@
       <c r="G34" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0604', TO_DATE('4/6/2006', 'MM/DD/YYYY'), TO_DATE('4/17/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0604'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0604', TO_DATE('4/6/2006', 'MM/DD/YYYY'), TO_DATE('4/17/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0604'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -44030,12 +44197,15 @@
       <c r="G35" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0606', TO_DATE('5/8/2006', 'MM/DD/YYYY'), TO_DATE('5/23/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0606'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0606', TO_DATE('5/8/2006', 'MM/DD/YYYY'), TO_DATE('5/23/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0606'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -44054,12 +44224,15 @@
       <c r="G36" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H36" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0607', TO_DATE('6/5/2006', 'MM/DD/YYYY'), TO_DATE('7/3/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0607'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0607', TO_DATE('6/5/2006', 'MM/DD/YYYY'), TO_DATE('7/3/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0607'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -44078,12 +44251,15 @@
       <c r="G37" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0608', TO_DATE('7/17/2006', 'MM/DD/YYYY'), TO_DATE('8/3/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0608'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0608', TO_DATE('7/17/2006', 'MM/DD/YYYY'), TO_DATE('8/3/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0608'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -44102,12 +44278,15 @@
       <c r="G38" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H38" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0706', TO_DATE('7/18/2007', 'MM/DD/YYYY'), TO_DATE('8/14/2007', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0706'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0706', TO_DATE('7/18/2007', 'MM/DD/YYYY'), TO_DATE('8/14/2007', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0706'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
@@ -44126,12 +44305,15 @@
       <c r="G39" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H39" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0908_LEGI', TO_DATE('9/1/2009', 'MM/DD/YYYY'), TO_DATE('9/30/2009', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0908'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0908_LEGI', TO_DATE('9/1/2009', 'MM/DD/YYYY'), TO_DATE('9/30/2009', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0908'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -44150,12 +44332,15 @@
       <c r="G40" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H40" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('OES0908_LEGII', TO_DATE('10/6/2009', 'MM/DD/YYYY'), TO_DATE('10/30/2009', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0908'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0908_LEGII', TO_DATE('10/6/2009', 'MM/DD/YYYY'), TO_DATE('10/30/2009', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0908'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -44174,12 +44359,15 @@
       <c r="G41" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H41" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC0009', TO_DATE('7/19/2000', 'MM/DD/YYYY'), TO_DATE('8/4/2000', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0009'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H41" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0009', TO_DATE('7/19/2000', 'MM/DD/YYYY'), TO_DATE('8/4/2000', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0009'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -44198,12 +44386,15 @@
       <c r="G42" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H42" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC0011', TO_DATE('9/8/2000', 'MM/DD/YYYY'), TO_DATE('10/6/2000', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0011'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H42" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0011', TO_DATE('9/8/2000', 'MM/DD/YYYY'), TO_DATE('10/6/2000', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0011'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -44222,12 +44413,15 @@
       <c r="G43" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC0012', TO_DATE('10/9/2000', 'MM/DD/YYYY'), TO_DATE('11/5/2000', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0012'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H43" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0012', TO_DATE('10/9/2000', 'MM/DD/YYYY'), TO_DATE('11/5/2000', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0012'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -44246,12 +44440,15 @@
       <c r="G44" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H44" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC0108', TO_DATE('7/16/2001', 'MM/DD/YYYY'), TO_DATE('8/2/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0108'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H44" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0108', TO_DATE('7/16/2001', 'MM/DD/YYYY'), TO_DATE('8/2/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0108'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -44270,12 +44467,15 @@
       <c r="G45" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H45" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC0109_LEGI', TO_DATE('8/7/2001', 'MM/DD/YYYY'), TO_DATE('8/11/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0109'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H45" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0109_LEGI', TO_DATE('8/7/2001', 'MM/DD/YYYY'), TO_DATE('8/11/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0109'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -44294,12 +44494,15 @@
       <c r="G46" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H46" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC0109_LEGII', TO_DATE('8/12/2001', 'MM/DD/YYYY'), TO_DATE('8/27/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0109'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H46" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0109_LEGII', TO_DATE('8/12/2001', 'MM/DD/YYYY'), TO_DATE('8/27/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0109'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -44318,12 +44521,15 @@
       <c r="G47" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H47" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC0110', TO_DATE('9/10/2001', 'MM/DD/YYYY'), TO_DATE('10/1/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0110'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H47" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0110', TO_DATE('9/10/2001', 'MM/DD/YYYY'), TO_DATE('10/1/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0110'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -44342,12 +44548,15 @@
       <c r="G48" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H48" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC0111', TO_DATE('10/22/2001', 'MM/DD/YYYY'), TO_DATE('11/20/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0111'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0111', TO_DATE('10/22/2001', 'MM/DD/YYYY'), TO_DATE('11/20/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0111'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -44366,12 +44575,15 @@
       <c r="G49" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H49" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC0201_LEGI', TO_DATE('1/21/2002', 'MM/DD/YYYY'), TO_DATE('3/25/2002', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H49" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0201_LEGI', TO_DATE('1/21/2002', 'MM/DD/YYYY'), TO_DATE('3/25/2002', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -44390,12 +44602,15 @@
       <c r="G50" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H50" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC0201_LEGII', TO_DATE('1/21/2002', 'MM/DD/YYYY'), TO_DATE('3/25/2002', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0201_LEGII', TO_DATE('1/21/2002', 'MM/DD/YYYY'), TO_DATE('3/25/2002', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -44414,12 +44629,15 @@
       <c r="G51" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H51" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC0207', TO_DATE('9/8/2002', 'MM/DD/YYYY'), TO_DATE('10/7/2002', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0207'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H51" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0207', TO_DATE('9/8/2002', 'MM/DD/YYYY'), TO_DATE('10/7/2002', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0207'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
@@ -44438,12 +44656,15 @@
       <c r="G52" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H52" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC9905', TO_DATE('4/26/1999', 'MM/DD/YYYY'), TO_DATE('5/9/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9905'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC9905', TO_DATE('4/26/1999', 'MM/DD/YYYY'), TO_DATE('5/9/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9905'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -44462,12 +44683,15 @@
       <c r="G53" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H53" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC9906', TO_DATE('5/15/1999', 'MM/DD/YYYY'), TO_DATE('5/31/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9906'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC9906', TO_DATE('5/15/1999', 'MM/DD/YYYY'), TO_DATE('5/31/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9906'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>79</v>
       </c>
@@ -44486,12 +44710,15 @@
       <c r="G54" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H54" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC9908', TO_DATE('7/15/1999', 'MM/DD/YYYY'), TO_DATE('8/2/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9908'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H54" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC9908', TO_DATE('7/15/1999', 'MM/DD/YYYY'), TO_DATE('8/2/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9908'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>79</v>
       </c>
@@ -44510,12 +44737,15 @@
       <c r="G55" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H55" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC9909_LEGI', TO_DATE('8/13/1999', 'MM/DD/YYYY'), TO_DATE('8/29/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9909'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H55" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC9909_LEGI', TO_DATE('8/13/1999', 'MM/DD/YYYY'), TO_DATE('8/29/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9909'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>79</v>
       </c>
@@ -44534,12 +44764,15 @@
       <c r="G56" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H56" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC9909_LEGII', TO_DATE('8/30/1999', 'MM/DD/YYYY'), TO_DATE('9/7/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9909'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC9909_LEGII', TO_DATE('8/30/1999', 'MM/DD/YYYY'), TO_DATE('9/7/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9909'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -44558,12 +44791,15 @@
       <c r="G57" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H57" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC9910', TO_DATE('10/6/1999', 'MM/DD/YYYY'), TO_DATE('11/4/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9910'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H57" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC9910', TO_DATE('10/6/1999', 'MM/DD/YYYY'), TO_DATE('11/4/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9910'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>79</v>
       </c>
@@ -44585,12 +44821,15 @@
       <c r="G58" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H58" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('TC0005', TO_DATE('5/8/2000', 'MM/DD/YYYY'), TO_DATE('5/17/2000', 'MM/DD/YYYY'), 'Leg dates were made up for testing purposes based on the dates in the cast files', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0005'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H58" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0005', TO_DATE('5/8/2000', 'MM/DD/YYYY'), TO_DATE('5/17/2000', 'MM/DD/YYYY'), 'Leg dates were made up for testing purposes based on the dates in the cast files', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0005'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>341</v>
       </c>
@@ -44612,12 +44851,15 @@
       <c r="G59" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H59" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('RL-17-05 Leg 1', TO_DATE('8/17/2017', 'MM/DD/YYYY'), TO_DATE('9/5/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H59" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('RL-17-05 Leg 1', TO_DATE('8/17/2017', 'MM/DD/YYYY'), TO_DATE('9/5/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>341</v>
       </c>
@@ -44639,12 +44881,15 @@
       <c r="G60" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H60" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('RL-17-05 Leg 2', TO_DATE('9/11/2017', 'MM/DD/YYYY'), TO_DATE('9/30/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H60" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('RL-17-05 Leg 2', TO_DATE('9/11/2017', 'MM/DD/YYYY'), TO_DATE('9/30/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>341</v>
       </c>
@@ -44666,12 +44911,15 @@
       <c r="G61" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H61" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('RL-17-05 Leg 3', TO_DATE('10/1/2017', 'MM/DD/YYYY'), TO_DATE('10/10/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H61" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('RL-17-05 Leg 3', TO_DATE('10/1/2017', 'MM/DD/YYYY'), TO_DATE('10/10/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>341</v>
       </c>
@@ -44693,12 +44941,15 @@
       <c r="G62" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H62" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('RL-17-05 Leg 4', TO_DATE('10/16/2017', 'MM/DD/YYYY'), TO_DATE('11/9/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H62" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('RL-17-05 Leg 4', TO_DATE('10/16/2017', 'MM/DD/YYYY'), TO_DATE('11/9/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>341</v>
       </c>
@@ -44720,12 +44971,15 @@
       <c r="G63" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H63" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('RL-17-05 Leg 5', TO_DATE('11/15/2017', 'MM/DD/YYYY'), TO_DATE('12/9/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H63" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('RL-17-05 Leg 5', TO_DATE('11/15/2017', 'MM/DD/YYYY'), TO_DATE('12/9/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>33</v>
       </c>
@@ -44747,12 +45001,15 @@
       <c r="G64" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H64" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-17-06 Leg 1', TO_DATE('7/6/2017', 'MM/DD/YYYY'), TO_DATE('8/2/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H64" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-17-06 Leg 1', TO_DATE('7/6/2017', 'MM/DD/YYYY'), TO_DATE('8/2/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>33</v>
       </c>
@@ -44774,12 +45031,15 @@
       <c r="G65" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H65" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-17-06 Leg 2', TO_DATE('8/8/2017', 'MM/DD/YYYY'), TO_DATE('9/5/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H65" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-17-06 Leg 2', TO_DATE('8/8/2017', 'MM/DD/YYYY'), TO_DATE('9/5/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -44801,12 +45061,15 @@
       <c r="G66" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H66" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-17-06 Leg 3', TO_DATE('9/11/2017', 'MM/DD/YYYY'), TO_DATE('10/10/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-17-06 Leg 3', TO_DATE('9/11/2017', 'MM/DD/YYYY'), TO_DATE('10/10/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>33</v>
       </c>
@@ -44828,12 +45091,15 @@
       <c r="G67" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H67" s="5" t="str">
-        <f t="shared" ref="H67:H68" si="1">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B67, "'", "''"), "', TO_DATE('", C67, "', 'MM/DD/YYYY'), TO_DATE('", D67, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E67, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F67, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A67, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G67, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-19-01', TO_DATE('4/3/2019', 'MM/DD/YYYY'), TO_DATE('4/12/2019', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H67" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I67" s="5" t="str">
+        <f t="shared" ref="I67:I69" si="1">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B67, "'", "''"), "', TO_DATE('", C67, "', 'MM/DD/YYYY'), TO_DATE('", D67, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E67, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F67, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A67, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G67, "'", "''"), "'), '", H67, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-19-01', TO_DATE('4/3/2019', 'MM/DD/YYYY'), TO_DATE('4/12/2019', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -44855,109 +45121,125 @@
       <c r="G68" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H68" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-18-03', TO_DATE('7/8/2018', 'MM/DD/YYYY'), TO_DATE('7/31/2018', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-18-03'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="H68" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-18-03', TO_DATE('7/8/2018', 'MM/DD/YYYY'), TO_DATE('7/31/2018', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-18-03'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I69" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-19-06', TO_DATE('9/11/2019', 'MM/DD/YYYY'), TO_DATE('9/29/2019', 'MM/DD/YYYY'), 'Leg dates retrieved from project report', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>33</v>
-      </c>
-      <c r="B71" t="s">
-        <v>400</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="E71" t="s">
-        <v>415</v>
-      </c>
-      <c r="F71" t="s">
-        <v>400</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H71" s="5" t="str">
-        <f t="shared" ref="H71:H77" si="2">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B71, "'", "''"), "', TO_DATE('", C71, "', 'MM/DD/YYYY'), TO_DATE('", D71, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E71, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F71, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A71, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G71, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-14-01', TO_DATE('3/18/2014', 'MM/DD/YYYY'), TO_DATE('3/27/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E72" t="s">
         <v>415</v>
       </c>
       <c r="F72" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H72" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-14-02', TO_DATE('4/6/2014', 'MM/DD/YYYY'), TO_DATE('4/18/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H72" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I72" s="5" t="str">
+        <f t="shared" ref="I72:I78" si="2">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B72, "'", "''"), "', TO_DATE('", C72, "', 'MM/DD/YYYY'), TO_DATE('", D72, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E72, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F72, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A72, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G72, "'", "''"), "'), '", H72, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-01', TO_DATE('3/18/2014', 'MM/DD/YYYY'), TO_DATE('3/27/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E73" t="s">
         <v>415</v>
       </c>
       <c r="F73" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H73" s="5" t="str">
+      <c r="H73" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I73" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-14-04 Leg 1', TO_DATE('6/21/2014', 'MM/DD/YYYY'), TO_DATE('7/1/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-02', TO_DATE('4/6/2014', 'MM/DD/YYYY'), TO_DATE('4/18/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E74" t="s">
         <v>415</v>
@@ -44968,217 +45250,241 @@
       <c r="G74" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H74" s="5" t="str">
+      <c r="H74" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I74" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-14-04 Leg 2', TO_DATE('7/8/2014', 'MM/DD/YYYY'), TO_DATE('7/19/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-04 Leg 1', TO_DATE('6/21/2014', 'MM/DD/YYYY'), TO_DATE('7/1/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E75" t="s">
         <v>415</v>
       </c>
       <c r="F75" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H75" s="5" t="str">
+      <c r="H75" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I75" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-14-05', TO_DATE('7/25/2014', 'MM/DD/YYYY'), TO_DATE('8/23/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-05'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-04 Leg 2', TO_DATE('7/8/2014', 'MM/DD/YYYY'), TO_DATE('7/19/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>33</v>
       </c>
       <c r="B76" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E76" t="s">
         <v>415</v>
       </c>
       <c r="F76" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H76" s="5" t="str">
+      <c r="H76" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I76" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-14-06', TO_DATE('8/31/2014', 'MM/DD/YYYY'), TO_DATE('9/18/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-05', TO_DATE('7/25/2014', 'MM/DD/YYYY'), TO_DATE('8/23/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-05'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E77" t="s">
         <v>415</v>
       </c>
       <c r="F77" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H77" s="5" t="str">
+      <c r="H77" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I77" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-14-07', TO_DATE('10/2/2014', 'MM/DD/YYYY'), TO_DATE('10/27/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-06', TO_DATE('8/31/2014', 'MM/DD/YYYY'), TO_DATE('9/18/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>33</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B78" t="s">
+        <v>412</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="E78" t="s">
+        <v>415</v>
+      </c>
+      <c r="F78" t="s">
+        <v>412</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I78" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-07', TO_DATE('10/2/2014', 'MM/DD/YYYY'), TO_DATE('10/27/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C81" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="D80" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E81" t="s">
         <v>415</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>75</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H80" s="5" t="str">
-        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B80, "'", "''"), "', TO_DATE('", C80, "', 'MM/DD/YYYY'), TO_DATE('", D80, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E80, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F80, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A80, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G80, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-15-01', TO_DATE('4/3/2015', 'MM/DD/YYYY'), TO_DATE('4/14/2015', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="H81" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I81" s="5" t="str">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B81, "'", "''"), "', TO_DATE('", C81, "', 'MM/DD/YYYY'), TO_DATE('", D81, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E81, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F81, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A81, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G81, "'", "''"), "'), '", H81, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-15-01', TO_DATE('4/3/2015', 'MM/DD/YYYY'), TO_DATE('4/14/2015', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>1884</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>33</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B87" s="9" t="s">
         <v>1885</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C87" s="8" t="s">
         <v>1915</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D87" s="8" t="s">
         <v>1927</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>1881</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="H86" s="5" t="str">
-        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B86, "'", "''"), "', TO_DATE('", C86, "', 'MM/DD/YYYY'), TO_DATE('", D86, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E86, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F86, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A86, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G86, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-20-04 Leg 1', TO_DATE('3/20/2020', 'MM/DD/YYYY'), TO_DATE('4/15/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-20-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>1903</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>1916</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>1928</v>
       </c>
       <c r="E87" t="s">
         <v>1904</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H87" s="5" t="str">
-        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B87, "'", "''"), "', TO_DATE('", C87, "', 'MM/DD/YYYY'), TO_DATE('", D87, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E87, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F87, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A87, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G87, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-20-05 Leg 1', TO_DATE('4/10/2020', 'MM/DD/YYYY'), TO_DATE('4/25/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-20-05'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="H87" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I87" s="5" t="str">
+        <f t="shared" ref="I87:I122" si="3">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B87, "'", "''"), "', TO_DATE('", C87, "', 'MM/DD/YYYY'), TO_DATE('", D87, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E87, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F87, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A87, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G87, "'", "''"), "'), '", H87, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-20-04 Leg 1', TO_DATE('3/20/2020', 'MM/DD/YYYY'), TO_DATE('4/15/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-20-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B88" t="s">
-        <v>1887</v>
+      <c r="B88" s="16" t="s">
+        <v>1903</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>1905</v>
+        <v>1916</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>1917</v>
+        <v>1928</v>
       </c>
       <c r="E88" t="s">
-        <v>1929</v>
+        <v>1904</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>1896</v>
+        <v>1882</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H88" s="5" t="str">
-        <f t="shared" ref="H88:H92" si="3">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B88, "'", "''"), "', TO_DATE('", C88, "', 'MM/DD/YYYY'), TO_DATE('", D88, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E88, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F88, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A88, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G88, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-21-01 Leg 1', TO_DATE('10/15/2020', 'MM/DD/YYYY'), TO_DATE('10/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I88" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-20-05 Leg 1', TO_DATE('4/10/2020', 'MM/DD/YYYY'), TO_DATE('4/25/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-20-05'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E89" t="s">
         <v>1929</v>
@@ -45189,77 +45495,86 @@
       <c r="G89" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H89" s="5" t="str">
+      <c r="H89" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I89" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-21-01 Leg 2', TO_DATE('11/5/2020', 'MM/DD/YYYY'), TO_DATE('11/20/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="s">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-01 Leg 1', TO_DATE('10/15/2020', 'MM/DD/YYYY'), TO_DATE('10/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>33</v>
       </c>
-      <c r="B90" s="16" t="s">
-        <v>1889</v>
+      <c r="B90" t="s">
+        <v>1888</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1919</v>
+        <v>1918</v>
       </c>
       <c r="E90" t="s">
         <v>1929</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>1889</v>
+        <v>1896</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H90" s="5" t="str">
+      <c r="H90" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I90" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-21-03', TO_DATE('11/15/2020', 'MM/DD/YYYY'), TO_DATE('12/1/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-03'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-01 Leg 2', TO_DATE('11/5/2020', 'MM/DD/YYYY'), TO_DATE('11/20/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B91" t="s">
-        <v>1890</v>
+      <c r="B91" s="16" t="s">
+        <v>1889</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="E91" t="s">
         <v>1929</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1897</v>
+        <v>1889</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H91" s="5" t="str">
+      <c r="H91" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I91" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-21-04 Leg 1', TO_DATE('11/22/2020', 'MM/DD/YYYY'), TO_DATE('11/28/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-03', TO_DATE('11/15/2020', 'MM/DD/YYYY'), TO_DATE('12/1/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-03'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>1891</v>
+        <v>1890</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="E92" t="s">
         <v>1929</v>
@@ -45270,77 +45585,86 @@
       <c r="G92" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H92" s="5" t="str">
+      <c r="H92" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I92" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-21-04 Leg 2', TO_DATE('11/30/2020', 'MM/DD/YYYY'), TO_DATE('12/10/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-04 Leg 1', TO_DATE('11/22/2020', 'MM/DD/YYYY'), TO_DATE('11/28/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>4</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>1892</v>
+        <v>33</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1891</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="E93" t="s">
-        <v>1899</v>
+        <v>1929</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H93" s="5" t="str">
-        <f t="shared" ref="H93:H97" si="4">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B93, "'", "''"), "', TO_DATE('", C93, "', 'MM/DD/YYYY'), TO_DATE('", D93, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E93, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F93, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A93, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G93, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-21-06', TO_DATE('3/15/2021', 'MM/DD/YYYY'), TO_DATE('3/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H93" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I93" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-04 Leg 2', TO_DATE('11/30/2020', 'MM/DD/YYYY'), TO_DATE('12/10/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="E94" t="s">
         <v>1899</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>1898</v>
+        <v>1892</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H94" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-21-07 Leg 1', TO_DATE('3/27/2021', 'MM/DD/YYYY'), TO_DATE('4/15/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H94" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I94" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-21-06', TO_DATE('3/15/2021', 'MM/DD/YYYY'), TO_DATE('3/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>1894</v>
+        <v>1893</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="E95" t="s">
         <v>1899</v>
@@ -45351,50 +45675,56 @@
       <c r="G95" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H95" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-21-07 Leg 2', TO_DATE('4/18/2021', 'MM/DD/YYYY'), TO_DATE('4/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="s">
+      <c r="H95" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I95" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-21-07 Leg 1', TO_DATE('3/27/2021', 'MM/DD/YYYY'), TO_DATE('4/15/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="16" t="s">
-        <v>1900</v>
+      <c r="B96" s="9" t="s">
+        <v>1894</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="E96" t="s">
         <v>1899</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H96" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-21-08 Leg 1', TO_DATE('4/28/2021', 'MM/DD/YYYY'), TO_DATE('5/23/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="H96" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I96" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-21-07 Leg 2', TO_DATE('4/18/2021', 'MM/DD/YYYY'), TO_DATE('4/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>1901</v>
+      <c r="B97" s="16" t="s">
+        <v>1900</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="E97" t="s">
         <v>1899</v>
@@ -45405,50 +45735,56 @@
       <c r="G97" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H97" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-21-08 Leg 2', TO_DATE('5/25/2021', 'MM/DD/YYYY'), TO_DATE('6/17/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H97" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I97" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-21-08 Leg 1', TO_DATE('4/28/2021', 'MM/DD/YYYY'), TO_DATE('5/23/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>1930</v>
+        <v>1901</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>1935</v>
+        <v>1914</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1936</v>
+        <v>1926</v>
       </c>
       <c r="E98" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1886</v>
+        <v>1895</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H98" s="5" t="str">
-        <f t="shared" ref="H98:H102" si="5">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B98, "'", "''"), "', TO_DATE('", C98, "', 'MM/DD/YYYY'), TO_DATE('", D98, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E98, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F98, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A98, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G98, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-20-08 Leg 1', TO_DATE('6/10/2020', 'MM/DD/YYYY'), TO_DATE('6/29/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H98" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I98" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-21-08 Leg 2', TO_DATE('5/25/2021', 'MM/DD/YYYY'), TO_DATE('6/17/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="E99" t="s">
         <v>1902</v>
@@ -45459,50 +45795,56 @@
       <c r="G99" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H99" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-20-08 Leg 2', TO_DATE('7/2/2020', 'MM/DD/YYYY'), TO_DATE('7/26/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H99" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I99" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-20-08 Leg 1', TO_DATE('6/10/2020', 'MM/DD/YYYY'), TO_DATE('6/29/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>1932</v>
+        <v>1931</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="E100" t="s">
         <v>1902</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>1945</v>
+        <v>1886</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H100" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-20-09 Leg 1', TO_DATE('7/20/2020', 'MM/DD/YYYY'), TO_DATE('8/12/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-09'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H100" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I100" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-20-08 Leg 2', TO_DATE('7/2/2020', 'MM/DD/YYYY'), TO_DATE('7/26/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>1942</v>
+        <v>1940</v>
       </c>
       <c r="E101" t="s">
         <v>1902</v>
@@ -45513,77 +45855,86 @@
       <c r="G101" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H101" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-20-09 Leg 2', TO_DATE('8/16/2020', 'MM/DD/YYYY'), TO_DATE('9/2/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-09'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="16" t="s">
+      <c r="H101" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I101" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-20-09 Leg 1', TO_DATE('7/20/2020', 'MM/DD/YYYY'), TO_DATE('8/12/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-09'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="16" t="s">
-        <v>1934</v>
+      <c r="B102" s="9" t="s">
+        <v>1933</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="E102" t="s">
         <v>1902</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H102" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-20-10 Leg 1', TO_DATE('6/14/2020', 'MM/DD/YYYY'), TO_DATE('7/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-10'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>33</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>1948</v>
+      <c r="H102" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I102" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-20-09 Leg 2', TO_DATE('8/16/2020', 'MM/DD/YYYY'), TO_DATE('9/2/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-09'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="16" t="s">
+        <v>1934</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>1958</v>
+        <v>1944</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>1959</v>
+        <v>1943</v>
       </c>
       <c r="E103" t="s">
-        <v>1953</v>
+        <v>1902</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H103" s="5" t="str">
-        <f t="shared" ref="H103:H107" si="6">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B103, "'", "''"), "', TO_DATE('", C103, "', 'MM/DD/YYYY'), TO_DATE('", D103, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E103, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F103, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A103, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G103, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-21-06 Leg 1', TO_DATE('1/12/2021', 'MM/DD/YYYY'), TO_DATE('1/31/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H103" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I103" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-20-10 Leg 1', TO_DATE('6/14/2020', 'MM/DD/YYYY'), TO_DATE('7/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-10'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>33</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="E104" t="s">
         <v>1953</v>
@@ -45594,77 +45945,86 @@
       <c r="G104" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H104" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-21-06 Leg 2', TO_DATE('2/3/2021', 'MM/DD/YYYY'), TO_DATE('2/25/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="18" t="s">
+      <c r="H104" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I104" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-06 Leg 1', TO_DATE('1/12/2021', 'MM/DD/YYYY'), TO_DATE('1/31/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>33</v>
       </c>
-      <c r="B105" s="18" t="s">
-        <v>1950</v>
+      <c r="B105" s="9" t="s">
+        <v>1949</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>1966</v>
+        <v>1960</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>1967</v>
+        <v>1961</v>
       </c>
       <c r="E105" t="s">
         <v>1953</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H105" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-21-07', TO_DATE('1/30/2021', 'MM/DD/YYYY'), TO_DATE('3/6/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="H105" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I105" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-06 Leg 2', TO_DATE('2/3/2021', 'MM/DD/YYYY'), TO_DATE('2/25/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B106" s="9" t="s">
-        <v>1951</v>
+      <c r="B106" s="18" t="s">
+        <v>1950</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>1963</v>
+        <v>1967</v>
       </c>
       <c r="E106" t="s">
         <v>1953</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H106" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-21-08 Leg 1', TO_DATE('3/2/2021', 'MM/DD/YYYY'), TO_DATE('3/23/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H106" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I106" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-07', TO_DATE('1/30/2021', 'MM/DD/YYYY'), TO_DATE('3/6/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>33</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="E107" t="s">
         <v>1953</v>
@@ -45675,50 +46035,56 @@
       <c r="G107" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H107" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-21-08 Leg 2', TO_DATE('3/26/2021', 'MM/DD/YYYY'), TO_DATE('4/12/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H107" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I107" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-08 Leg 1', TO_DATE('3/2/2021', 'MM/DD/YYYY'), TO_DATE('3/23/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>33</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="E108" t="s">
         <v>1953</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H108" s="5" t="str">
-        <f t="shared" ref="H108" si="7">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B108, "'", "''"), "', TO_DATE('", C108, "', 'MM/DD/YYYY'), TO_DATE('", D108, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E108, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F108, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A108, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G108, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-21-09 Leg 1', TO_DATE('5/11/2021', 'MM/DD/YYYY'), TO_DATE('5/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-09'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H108" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I108" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-08 Leg 2', TO_DATE('3/26/2021', 'MM/DD/YYYY'), TO_DATE('4/12/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>33</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>1957</v>
+        <v>1955</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="E109" t="s">
         <v>1953</v>
@@ -45729,50 +46095,56 @@
       <c r="G109" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H109" s="5" t="str">
-        <f t="shared" ref="H109" si="8">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B109, "'", "''"), "', TO_DATE('", C109, "', 'MM/DD/YYYY'), TO_DATE('", D109, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E109, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F109, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A109, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G109, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-21-09 Leg 2', TO_DATE('6/2/2021', 'MM/DD/YYYY'), TO_DATE('6/19/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-09'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H109" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I109" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-09 Leg 1', TO_DATE('5/11/2021', 'MM/DD/YYYY'), TO_DATE('5/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-09'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>1988</v>
+        <v>1957</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>1992</v>
+        <v>1970</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>1993</v>
+        <v>1971</v>
       </c>
       <c r="E110" t="s">
-        <v>1985</v>
+        <v>1953</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>2000</v>
+        <v>1956</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H110" s="5" t="str">
-        <f t="shared" ref="H110:H113" si="9">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B110, "'", "''"), "', TO_DATE('", C110, "', 'MM/DD/YYYY'), TO_DATE('", D110, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E110, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F110, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A110, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G110, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-19-04 Leg 1', TO_DATE('6/1/2019', 'MM/DD/YYYY'), TO_DATE('6/15/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H110" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I110" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-09 Leg 2', TO_DATE('6/2/2021', 'MM/DD/YYYY'), TO_DATE('6/19/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-09'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>4</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E111" t="s">
         <v>1985</v>
@@ -45783,50 +46155,56 @@
       <c r="G111" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H111" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-19-04 Leg 2', TO_DATE('6/19/2019', 'MM/DD/YYYY'), TO_DATE('7/12/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
+      <c r="H111" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I111" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-19-04 Leg 1', TO_DATE('6/1/2019', 'MM/DD/YYYY'), TO_DATE('6/15/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="17" t="s">
-        <v>1990</v>
+      <c r="B112" s="9" t="s">
+        <v>1989</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E112" t="s">
         <v>1985</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H112" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-19-05 Leg 1', TO_DATE('7/14/2019', 'MM/DD/YYYY'), TO_DATE('7/31/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="H112" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I112" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-19-04 Leg 2', TO_DATE('6/19/2019', 'MM/DD/YYYY'), TO_DATE('7/12/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="9" t="s">
-        <v>1991</v>
+      <c r="B113" s="17" t="s">
+        <v>1990</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="E113" t="s">
         <v>1985</v>
@@ -45837,50 +46215,56 @@
       <c r="G113" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H113" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-19-05 Leg 2', TO_DATE('8/2/2019', 'MM/DD/YYYY'), TO_DATE('8/15/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H113" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I113" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-19-05 Leg 1', TO_DATE('7/14/2019', 'MM/DD/YYYY'), TO_DATE('7/31/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>4</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>1973</v>
+        <v>1991</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>1976</v>
+        <v>1998</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>1977</v>
+        <v>1999</v>
       </c>
       <c r="E114" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1972</v>
+        <v>2001</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H114" s="5" t="str">
-        <f t="shared" ref="H114:H117" si="10">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B114, "'", "''"), "', TO_DATE('", C114, "', 'MM/DD/YYYY'), TO_DATE('", D114, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E114, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F114, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A114, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G114, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-19-01 Leg 1', TO_DATE('10/15/2018', 'MM/DD/YYYY'), TO_DATE('11/2/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H114" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I114" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-19-05 Leg 2', TO_DATE('8/2/2019', 'MM/DD/YYYY'), TO_DATE('8/15/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>1984</v>
+        <v>1973</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="E115" t="s">
         <v>1987</v>
@@ -45891,50 +46275,56 @@
       <c r="G115" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H115" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-19-01 Leg 2', TO_DATE('11/5/2018', 'MM/DD/YYYY'), TO_DATE('11/29/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="18" t="s">
+      <c r="H115" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I115" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-19-01 Leg 1', TO_DATE('10/15/2018', 'MM/DD/YYYY'), TO_DATE('11/2/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="18" t="s">
-        <v>1974</v>
+      <c r="B116" s="9" t="s">
+        <v>1984</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="E116" t="s">
         <v>1987</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1986</v>
+        <v>1972</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H116" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-19-02 Leg 1', TO_DATE('11/20/2018', 'MM/DD/YYYY'), TO_DATE('12/10/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="H116" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I116" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-19-01 Leg 2', TO_DATE('11/5/2018', 'MM/DD/YYYY'), TO_DATE('11/29/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>1975</v>
+      <c r="B117" s="18" t="s">
+        <v>1974</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="E117" t="s">
         <v>1987</v>
@@ -45945,50 +46335,56 @@
       <c r="G117" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H117" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('HI-19-02 Leg 2', TO_DATE('12/12/2018', 'MM/DD/YYYY'), TO_DATE('12/30/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H117" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I117" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-19-02 Leg 1', TO_DATE('11/20/2018', 'MM/DD/YYYY'), TO_DATE('12/10/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>2015</v>
+        <v>1975</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>2006</v>
+        <v>1982</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>2007</v>
+        <v>1983</v>
       </c>
       <c r="E118" t="s">
-        <v>2002</v>
+        <v>1987</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>2014</v>
+        <v>1986</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H118" s="5" t="str">
-        <f t="shared" ref="H118:H121" si="11">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ") values ('", SUBSTITUTE(B118, "'", "''"), "', TO_DATE('", C118, "', 'MM/DD/YYYY'), TO_DATE('", D118, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E118, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F118, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A118, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G118, "'", "''"), "'));")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-22-01 Leg 1', TO_DATE('10/21/2021', 'MM/DD/YYYY'), TO_DATE('11/13/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H118" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I118" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-19-02 Leg 2', TO_DATE('12/12/2018', 'MM/DD/YYYY'), TO_DATE('12/30/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E119" t="s">
         <v>2002</v>
@@ -45999,50 +46395,56 @@
       <c r="G119" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H119" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-22-01 Leg 2', TO_DATE('11/15/2021', 'MM/DD/YYYY'), TO_DATE('12/4/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="16" t="s">
+      <c r="H119" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I119" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-22-01 Leg 1', TO_DATE('10/21/2021', 'MM/DD/YYYY'), TO_DATE('11/13/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>33</v>
       </c>
-      <c r="B120" s="16" t="s">
-        <v>2004</v>
+      <c r="B120" s="9" t="s">
+        <v>2016</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E120" t="s">
         <v>2002</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>2005</v>
+        <v>2014</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H120" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-22-02 Leg 1', TO_DATE('11/30/2021', 'MM/DD/YYYY'), TO_DATE('12/15/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="H120" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I120" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-22-01 Leg 2', TO_DATE('11/15/2021', 'MM/DD/YYYY'), TO_DATE('12/4/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B121" s="9" t="s">
-        <v>2003</v>
+      <c r="B121" s="16" t="s">
+        <v>2004</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E121" t="s">
         <v>2002</v>
@@ -46053,9 +46455,42 @@
       <c r="G121" s="5" t="s">
         <v>1049</v>
       </c>
-      <c r="H121" s="5" t="str">
-        <f t="shared" si="11"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID) values ('SE-22-02 Leg 2', TO_DATE('12/17/2021', 'MM/DD/YYYY'), TO_DATE('1/12/2022', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'));</v>
+      <c r="H121" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I121" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-22-02 Leg 1', TO_DATE('11/30/2021', 'MM/DD/YYYY'), TO_DATE('12/15/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E122" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>2005</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="I122" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-22-02 Leg 2', TO_DATE('12/17/2021', 'MM/DD/YYYY'), TO_DATE('1/12/2022', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
   </sheetData>
@@ -49024,7 +49459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D44" sqref="D43:D44"/>
     </sheetView>
   </sheetViews>
@@ -50043,9 +50478,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43:C45"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51684,6 +52119,30 @@
       <c r="C136" s="5" t="str">
         <f t="shared" si="1"/>
         <v>insert into ccd_leg_aliases (cruise_leg_id, LEG_ALIAS_NAME) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-18-03'), 'SE1803');</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B137" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C137" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_aliases (cruise_leg_id, LEG_ALIAS_NAME) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-19-06'), 'SE1906');</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B138" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C138" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_aliases (cruise_leg_id, LEG_ALIAS_NAME) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-19-06'), 'SE-19-06');</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">

--- a/docs/Cruise_Leg_DDL_DML_generator.xlsx
+++ b/docs/Cruise_Leg_DDL_DML_generator.xlsx
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4953" uniqueCount="2026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4953" uniqueCount="2027">
   <si>
     <t>Cruise Name</t>
   </si>
@@ -6212,10 +6212,13 @@
     <t>SE1906</t>
   </si>
   <si>
-    <t>UTC_TZ_OFFSET</t>
-  </si>
-  <si>
     <t>-10:00</t>
+  </si>
+  <si>
+    <t>TZ_NAME</t>
+  </si>
+  <si>
+    <t>US/Hawaii</t>
   </si>
 </sst>
 </file>
@@ -43246,8 +43249,8 @@
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I69" sqref="I2:I69"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H87" sqref="H87:H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43281,7 +43284,7 @@
         <v>1725</v>
       </c>
       <c r="H1" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="I1" t="s">
         <v>109</v>
@@ -43307,11 +43310,11 @@
         <v>1049</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B2, "'", "''"), "', TO_DATE('", C2, "', 'MM/DD/YYYY'), TO_DATE('", D2, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E2, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F2, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A2, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G2, "'", "''"), "'), '", H2, "');")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-17-07', TO_DATE('10/20/2017', 'MM/DD/YYYY'), TO_DATE('11/03/2017', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-17-07', TO_DATE('10/20/2017', 'MM/DD/YYYY'), TO_DATE('11/03/2017', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43334,11 +43337,11 @@
         <v>1049</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I3" s="5" t="str">
         <f t="shared" ref="I3:I66" si="0">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B3, "'", "''"), "', TO_DATE('", C3, "', 'MM/DD/YYYY'), TO_DATE('", D3, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E3, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F3, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A3, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G3, "'", "''"), "'), '", H3, "');")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-18-06', TO_DATE('10/17/2018', 'MM/DD/YYYY'), TO_DATE('10/31/2018', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-18-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-18-06', TO_DATE('10/17/2018', 'MM/DD/YYYY'), TO_DATE('10/31/2018', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-18-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43361,11 +43364,11 @@
         <v>1049</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-17-02', TO_DATE('3/1/2017', 'MM/DD/YYYY'), TO_DATE('3/15/2017', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-17-02', TO_DATE('3/1/2017', 'MM/DD/YYYY'), TO_DATE('3/15/2017', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43388,11 +43391,11 @@
         <v>1049</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-15-01', TO_DATE('4/3/2015', 'MM/DD/YYYY'), TO_DATE('4/14/2015', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-15-01', TO_DATE('4/3/2015', 'MM/DD/YYYY'), TO_DATE('4/14/2015', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43415,11 +43418,11 @@
         <v>1049</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1201_LEG_I', TO_DATE('2/27/2012', 'MM/DD/YYYY'), TO_DATE('3/25/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1201_LEG_I', TO_DATE('2/27/2012', 'MM/DD/YYYY'), TO_DATE('3/25/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43442,11 +43445,11 @@
         <v>1049</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1201_LEG_II&amp;III', TO_DATE('4/1/2012', 'MM/DD/YYYY'), TO_DATE('4/27/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1201_LEG_II&amp;III', TO_DATE('4/1/2012', 'MM/DD/YYYY'), TO_DATE('4/27/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43469,11 +43472,11 @@
         <v>1049</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1201_LEG_IV', TO_DATE('4/27/2012', 'MM/DD/YYYY'), TO_DATE('5/24/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1201_LEG_IV', TO_DATE('4/27/2012', 'MM/DD/YYYY'), TO_DATE('5/24/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43496,11 +43499,11 @@
         <v>1049</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1101_LEG_I', TO_DATE('3/10/2011', 'MM/DD/YYYY'), TO_DATE('4/5/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_I', TO_DATE('3/10/2011', 'MM/DD/YYYY'), TO_DATE('4/5/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43523,11 +43526,11 @@
         <v>1049</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1101_LEG_II', TO_DATE('4/7/2011', 'MM/DD/YYYY'), TO_DATE('5/9/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_II', TO_DATE('4/7/2011', 'MM/DD/YYYY'), TO_DATE('5/9/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43550,11 +43553,11 @@
         <v>1049</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1101_LEG_III', TO_DATE('5/12/2011', 'MM/DD/YYYY'), TO_DATE('5/24/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_III', TO_DATE('5/12/2011', 'MM/DD/YYYY'), TO_DATE('5/24/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43577,11 +43580,11 @@
         <v>1049</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1007', TO_DATE('9/4/2010', 'MM/DD/YYYY'), TO_DATE('9/29/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1007'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1007', TO_DATE('9/4/2010', 'MM/DD/YYYY'), TO_DATE('9/29/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1007'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43604,11 +43607,11 @@
         <v>1049</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HA1008', TO_DATE('10/7/2010', 'MM/DD/YYYY'), TO_DATE('11/5/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1008'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1008', TO_DATE('10/7/2010', 'MM/DD/YYYY'), TO_DATE('11/5/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1008'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43631,11 +43634,11 @@
         <v>1049</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0401', TO_DATE('9/13/2004', 'MM/DD/YYYY'), TO_DATE('10/17/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0401'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0401', TO_DATE('9/13/2004', 'MM/DD/YYYY'), TO_DATE('10/17/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0401'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43658,11 +43661,11 @@
         <v>1049</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0602', TO_DATE('2/9/2006', 'MM/DD/YYYY'), TO_DATE('3/10/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0602'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0602', TO_DATE('2/9/2006', 'MM/DD/YYYY'), TO_DATE('3/10/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0602'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43685,11 +43688,11 @@
         <v>1049</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0604', TO_DATE('3/15/2006', 'MM/DD/YYYY'), TO_DATE('4/8/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0604'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0604', TO_DATE('3/15/2006', 'MM/DD/YYYY'), TO_DATE('4/8/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0604'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43712,11 +43715,11 @@
         <v>1049</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0609', TO_DATE('6/23/2006', 'MM/DD/YYYY'), TO_DATE('7/20/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0609'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0609', TO_DATE('6/23/2006', 'MM/DD/YYYY'), TO_DATE('7/20/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0609'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43739,11 +43742,11 @@
         <v>1049</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0610', TO_DATE('7/27/2006', 'MM/DD/YYYY'), TO_DATE('8/20/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0610'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0610', TO_DATE('7/27/2006', 'MM/DD/YYYY'), TO_DATE('8/20/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0610'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43766,11 +43769,11 @@
         <v>1049</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0611', TO_DATE('9/1/2006', 'MM/DD/YYYY'), TO_DATE('10/4/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0611'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0611', TO_DATE('9/1/2006', 'MM/DD/YYYY'), TO_DATE('10/4/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0611'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43793,11 +43796,11 @@
         <v>1049</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI0701', TO_DATE('4/19/2007', 'MM/DD/YYYY'), TO_DATE('5/9/2007', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0701'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0701', TO_DATE('4/19/2007', 'MM/DD/YYYY'), TO_DATE('5/9/2007', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0701'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43820,11 +43823,11 @@
         <v>1049</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI1001_LEGI', TO_DATE('1/21/2010', 'MM/DD/YYYY'), TO_DATE('2/14/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGI', TO_DATE('1/21/2010', 'MM/DD/YYYY'), TO_DATE('2/14/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43847,11 +43850,11 @@
         <v>1049</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI1001_LEGII', TO_DATE('2/17/2010', 'MM/DD/YYYY'), TO_DATE('3/23/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGII', TO_DATE('2/17/2010', 'MM/DD/YYYY'), TO_DATE('3/23/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43874,11 +43877,11 @@
         <v>1049</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI1001_LEGIII', TO_DATE('3/27/2010', 'MM/DD/YYYY'), TO_DATE('4/24/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGIII', TO_DATE('3/27/2010', 'MM/DD/YYYY'), TO_DATE('4/24/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43901,11 +43904,11 @@
         <v>1049</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0304', TO_DATE('5/13/2003', 'MM/DD/YYYY'), TO_DATE('5/28/2003', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0304'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0304', TO_DATE('5/13/2003', 'MM/DD/YYYY'), TO_DATE('5/28/2003', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0304'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43928,11 +43931,11 @@
         <v>1049</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0306', TO_DATE('7/12/2003', 'MM/DD/YYYY'), TO_DATE('8/17/2003', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0306'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0306', TO_DATE('7/12/2003', 'MM/DD/YYYY'), TO_DATE('8/17/2003', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0306'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43955,11 +43958,11 @@
         <v>1049</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0407', TO_DATE('5/30/2004', 'MM/DD/YYYY'), TO_DATE('6/14/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0407'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0407', TO_DATE('5/30/2004', 'MM/DD/YYYY'), TO_DATE('6/14/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0407'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43982,11 +43985,11 @@
         <v>1049</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0410', TO_DATE('7/30/2004', 'MM/DD/YYYY'), TO_DATE('8/16/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0410'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0410', TO_DATE('7/30/2004', 'MM/DD/YYYY'), TO_DATE('8/16/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0410'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44009,11 +44012,11 @@
         <v>1049</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0411_LEGI', TO_DATE('8/7/2004', 'MM/DD/YYYY'), TO_DATE('9/7/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGI', TO_DATE('8/7/2004', 'MM/DD/YYYY'), TO_DATE('9/7/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44036,11 +44039,11 @@
         <v>1049</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0411_LEGII', TO_DATE('9/8/2004', 'MM/DD/YYYY'), TO_DATE('9/13/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGII', TO_DATE('9/8/2004', 'MM/DD/YYYY'), TO_DATE('9/13/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44063,11 +44066,11 @@
         <v>1049</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0504', TO_DATE('3/21/2005', 'MM/DD/YYYY'), TO_DATE('4/3/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0504'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0504', TO_DATE('3/21/2005', 'MM/DD/YYYY'), TO_DATE('4/3/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0504'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44090,11 +44093,11 @@
         <v>1049</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0506', TO_DATE('5/5/2005', 'MM/DD/YYYY'), TO_DATE('5/20/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0506'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0506', TO_DATE('5/5/2005', 'MM/DD/YYYY'), TO_DATE('5/20/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0506'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44117,11 +44120,11 @@
         <v>1049</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0509', TO_DATE('7/19/2005', 'MM/DD/YYYY'), TO_DATE('8/5/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0509'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0509', TO_DATE('7/19/2005', 'MM/DD/YYYY'), TO_DATE('8/5/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0509'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44144,11 +44147,11 @@
         <v>1049</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0512', TO_DATE('10/3/2005', 'MM/DD/YYYY'), TO_DATE('10/9/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0512'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0512', TO_DATE('10/3/2005', 'MM/DD/YYYY'), TO_DATE('10/9/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0512'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44171,11 +44174,11 @@
         <v>1049</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="I34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0604', TO_DATE('4/6/2006', 'MM/DD/YYYY'), TO_DATE('4/17/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0604'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0604', TO_DATE('4/6/2006', 'MM/DD/YYYY'), TO_DATE('4/17/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0604'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44198,11 +44201,11 @@
         <v>1049</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0606', TO_DATE('5/8/2006', 'MM/DD/YYYY'), TO_DATE('5/23/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0606'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0606', TO_DATE('5/8/2006', 'MM/DD/YYYY'), TO_DATE('5/23/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0606'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44225,11 +44228,11 @@
         <v>1049</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0607', TO_DATE('6/5/2006', 'MM/DD/YYYY'), TO_DATE('7/3/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0607'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0607', TO_DATE('6/5/2006', 'MM/DD/YYYY'), TO_DATE('7/3/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0607'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44252,11 +44255,11 @@
         <v>1049</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0608', TO_DATE('7/17/2006', 'MM/DD/YYYY'), TO_DATE('8/3/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0608'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0608', TO_DATE('7/17/2006', 'MM/DD/YYYY'), TO_DATE('8/3/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0608'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44279,11 +44282,11 @@
         <v>1049</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0706', TO_DATE('7/18/2007', 'MM/DD/YYYY'), TO_DATE('8/14/2007', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0706'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0706', TO_DATE('7/18/2007', 'MM/DD/YYYY'), TO_DATE('8/14/2007', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0706'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44306,11 +44309,11 @@
         <v>1049</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0908_LEGI', TO_DATE('9/1/2009', 'MM/DD/YYYY'), TO_DATE('9/30/2009', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0908'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0908_LEGI', TO_DATE('9/1/2009', 'MM/DD/YYYY'), TO_DATE('9/30/2009', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0908'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44333,11 +44336,11 @@
         <v>1049</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I40" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('OES0908_LEGII', TO_DATE('10/6/2009', 'MM/DD/YYYY'), TO_DATE('10/30/2009', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0908'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0908_LEGII', TO_DATE('10/6/2009', 'MM/DD/YYYY'), TO_DATE('10/30/2009', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0908'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44360,11 +44363,11 @@
         <v>1049</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I41" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0009', TO_DATE('7/19/2000', 'MM/DD/YYYY'), TO_DATE('8/4/2000', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0009'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0009', TO_DATE('7/19/2000', 'MM/DD/YYYY'), TO_DATE('8/4/2000', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0009'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44387,11 +44390,11 @@
         <v>1049</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I42" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0011', TO_DATE('9/8/2000', 'MM/DD/YYYY'), TO_DATE('10/6/2000', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0011'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0011', TO_DATE('9/8/2000', 'MM/DD/YYYY'), TO_DATE('10/6/2000', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0011'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44414,11 +44417,11 @@
         <v>1049</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I43" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0012', TO_DATE('10/9/2000', 'MM/DD/YYYY'), TO_DATE('11/5/2000', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0012'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0012', TO_DATE('10/9/2000', 'MM/DD/YYYY'), TO_DATE('11/5/2000', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0012'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44441,11 +44444,11 @@
         <v>1049</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I44" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0108', TO_DATE('7/16/2001', 'MM/DD/YYYY'), TO_DATE('8/2/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0108'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0108', TO_DATE('7/16/2001', 'MM/DD/YYYY'), TO_DATE('8/2/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0108'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44468,11 +44471,11 @@
         <v>1049</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I45" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0109_LEGI', TO_DATE('8/7/2001', 'MM/DD/YYYY'), TO_DATE('8/11/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0109'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0109_LEGI', TO_DATE('8/7/2001', 'MM/DD/YYYY'), TO_DATE('8/11/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0109'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44495,11 +44498,11 @@
         <v>1049</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I46" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0109_LEGII', TO_DATE('8/12/2001', 'MM/DD/YYYY'), TO_DATE('8/27/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0109'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0109_LEGII', TO_DATE('8/12/2001', 'MM/DD/YYYY'), TO_DATE('8/27/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0109'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44522,11 +44525,11 @@
         <v>1049</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I47" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0110', TO_DATE('9/10/2001', 'MM/DD/YYYY'), TO_DATE('10/1/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0110'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0110', TO_DATE('9/10/2001', 'MM/DD/YYYY'), TO_DATE('10/1/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0110'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44549,11 +44552,11 @@
         <v>1049</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I48" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0111', TO_DATE('10/22/2001', 'MM/DD/YYYY'), TO_DATE('11/20/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0111'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0111', TO_DATE('10/22/2001', 'MM/DD/YYYY'), TO_DATE('11/20/2001', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0111'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44576,11 +44579,11 @@
         <v>1049</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I49" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0201_LEGI', TO_DATE('1/21/2002', 'MM/DD/YYYY'), TO_DATE('3/25/2002', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0201_LEGI', TO_DATE('1/21/2002', 'MM/DD/YYYY'), TO_DATE('3/25/2002', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44603,11 +44606,11 @@
         <v>1049</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I50" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0201_LEGII', TO_DATE('1/21/2002', 'MM/DD/YYYY'), TO_DATE('3/25/2002', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0201_LEGII', TO_DATE('1/21/2002', 'MM/DD/YYYY'), TO_DATE('3/25/2002', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44630,11 +44633,11 @@
         <v>1049</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I51" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0207', TO_DATE('9/8/2002', 'MM/DD/YYYY'), TO_DATE('10/7/2002', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0207'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0207', TO_DATE('9/8/2002', 'MM/DD/YYYY'), TO_DATE('10/7/2002', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0207'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44657,11 +44660,11 @@
         <v>1049</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I52" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC9905', TO_DATE('4/26/1999', 'MM/DD/YYYY'), TO_DATE('5/9/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9905'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC9905', TO_DATE('4/26/1999', 'MM/DD/YYYY'), TO_DATE('5/9/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9905'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44684,11 +44687,11 @@
         <v>1049</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I53" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC9906', TO_DATE('5/15/1999', 'MM/DD/YYYY'), TO_DATE('5/31/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9906'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC9906', TO_DATE('5/15/1999', 'MM/DD/YYYY'), TO_DATE('5/31/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9906'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44711,11 +44714,11 @@
         <v>1049</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I54" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC9908', TO_DATE('7/15/1999', 'MM/DD/YYYY'), TO_DATE('8/2/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9908'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC9908', TO_DATE('7/15/1999', 'MM/DD/YYYY'), TO_DATE('8/2/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9908'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44738,11 +44741,11 @@
         <v>1049</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I55" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC9909_LEGI', TO_DATE('8/13/1999', 'MM/DD/YYYY'), TO_DATE('8/29/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9909'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC9909_LEGI', TO_DATE('8/13/1999', 'MM/DD/YYYY'), TO_DATE('8/29/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9909'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44765,11 +44768,11 @@
         <v>1049</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I56" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC9909_LEGII', TO_DATE('8/30/1999', 'MM/DD/YYYY'), TO_DATE('9/7/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9909'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC9909_LEGII', TO_DATE('8/30/1999', 'MM/DD/YYYY'), TO_DATE('9/7/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9909'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44792,11 +44795,11 @@
         <v>1049</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I57" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC9910', TO_DATE('10/6/1999', 'MM/DD/YYYY'), TO_DATE('11/4/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9910'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC9910', TO_DATE('10/6/1999', 'MM/DD/YYYY'), TO_DATE('11/4/1999', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC9910'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44822,11 +44825,11 @@
         <v>1049</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I58" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('TC0005', TO_DATE('5/8/2000', 'MM/DD/YYYY'), TO_DATE('5/17/2000', 'MM/DD/YYYY'), 'Leg dates were made up for testing purposes based on the dates in the cast files', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0005'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0005', TO_DATE('5/8/2000', 'MM/DD/YYYY'), TO_DATE('5/17/2000', 'MM/DD/YYYY'), 'Leg dates were made up for testing purposes based on the dates in the cast files', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0005'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -44852,11 +44855,11 @@
         <v>1049</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I59" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('RL-17-05 Leg 1', TO_DATE('8/17/2017', 'MM/DD/YYYY'), TO_DATE('9/5/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 1', TO_DATE('8/17/2017', 'MM/DD/YYYY'), TO_DATE('9/5/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -44882,11 +44885,11 @@
         <v>1049</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I60" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('RL-17-05 Leg 2', TO_DATE('9/11/2017', 'MM/DD/YYYY'), TO_DATE('9/30/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 2', TO_DATE('9/11/2017', 'MM/DD/YYYY'), TO_DATE('9/30/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -44912,11 +44915,11 @@
         <v>1049</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I61" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('RL-17-05 Leg 3', TO_DATE('10/1/2017', 'MM/DD/YYYY'), TO_DATE('10/10/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 3', TO_DATE('10/1/2017', 'MM/DD/YYYY'), TO_DATE('10/10/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -44942,11 +44945,11 @@
         <v>1049</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I62" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('RL-17-05 Leg 4', TO_DATE('10/16/2017', 'MM/DD/YYYY'), TO_DATE('11/9/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 4', TO_DATE('10/16/2017', 'MM/DD/YYYY'), TO_DATE('11/9/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -44972,11 +44975,11 @@
         <v>1049</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I63" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('RL-17-05 Leg 5', TO_DATE('11/15/2017', 'MM/DD/YYYY'), TO_DATE('12/9/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 5', TO_DATE('11/15/2017', 'MM/DD/YYYY'), TO_DATE('12/9/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via online Ship Schedule (https://sdat.noaa.gov/Account/Login?ReturnUrl=%2FHome%2FSchedule)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -45002,11 +45005,11 @@
         <v>1049</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I64" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-17-06 Leg 1', TO_DATE('7/6/2017', 'MM/DD/YYYY'), TO_DATE('8/2/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-17-06 Leg 1', TO_DATE('7/6/2017', 'MM/DD/YYYY'), TO_DATE('8/2/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -45032,11 +45035,11 @@
         <v>1049</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I65" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-17-06 Leg 2', TO_DATE('8/8/2017', 'MM/DD/YYYY'), TO_DATE('9/5/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-17-06 Leg 2', TO_DATE('8/8/2017', 'MM/DD/YYYY'), TO_DATE('9/5/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -45062,11 +45065,11 @@
         <v>1049</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I66" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-17-06 Leg 3', TO_DATE('9/11/2017', 'MM/DD/YYYY'), TO_DATE('10/10/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-17-06 Leg 3', TO_DATE('9/11/2017', 'MM/DD/YYYY'), TO_DATE('10/10/2017', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -45092,11 +45095,11 @@
         <v>1049</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I67" s="5" t="str">
         <f t="shared" ref="I67:I69" si="1">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B67, "'", "''"), "', TO_DATE('", C67, "', 'MM/DD/YYYY'), TO_DATE('", D67, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E67, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F67, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A67, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G67, "'", "''"), "'), '", H67, "');")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-19-01', TO_DATE('4/3/2019', 'MM/DD/YYYY'), TO_DATE('4/12/2019', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-01', TO_DATE('4/3/2019', 'MM/DD/YYYY'), TO_DATE('4/12/2019', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -45122,11 +45125,11 @@
         <v>1049</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I68" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-18-03', TO_DATE('7/8/2018', 'MM/DD/YYYY'), TO_DATE('7/31/2018', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-18-03'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-18-03', TO_DATE('7/8/2018', 'MM/DD/YYYY'), TO_DATE('7/31/2018', 'MM/DD/YYYY'), 'Leg dates were retrieved via SciOps Who''s Where calendar', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-18-03'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -45152,11 +45155,11 @@
         <v>1049</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I69" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-19-06', TO_DATE('9/11/2019', 'MM/DD/YYYY'), TO_DATE('9/29/2019', 'MM/DD/YYYY'), 'Leg dates retrieved from project report', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-06', TO_DATE('9/11/2019', 'MM/DD/YYYY'), TO_DATE('9/29/2019', 'MM/DD/YYYY'), 'Leg dates retrieved from project report', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -45191,11 +45194,11 @@
         <v>1049</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I72" s="5" t="str">
         <f t="shared" ref="I72:I78" si="2">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B72, "'", "''"), "', TO_DATE('", C72, "', 'MM/DD/YYYY'), TO_DATE('", D72, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E72, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F72, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A72, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G72, "'", "''"), "'), '", H72, "');")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-01', TO_DATE('3/18/2014', 'MM/DD/YYYY'), TO_DATE('3/27/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-14-01', TO_DATE('3/18/2014', 'MM/DD/YYYY'), TO_DATE('3/27/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -45221,11 +45224,11 @@
         <v>1049</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I73" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-02', TO_DATE('4/6/2014', 'MM/DD/YYYY'), TO_DATE('4/18/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-14-02', TO_DATE('4/6/2014', 'MM/DD/YYYY'), TO_DATE('4/18/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -45251,11 +45254,11 @@
         <v>1049</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I74" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-04 Leg 1', TO_DATE('6/21/2014', 'MM/DD/YYYY'), TO_DATE('7/1/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-14-04 Leg 1', TO_DATE('6/21/2014', 'MM/DD/YYYY'), TO_DATE('7/1/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -45281,11 +45284,11 @@
         <v>1049</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I75" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-04 Leg 2', TO_DATE('7/8/2014', 'MM/DD/YYYY'), TO_DATE('7/19/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-14-04 Leg 2', TO_DATE('7/8/2014', 'MM/DD/YYYY'), TO_DATE('7/19/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -45311,11 +45314,11 @@
         <v>1049</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I76" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-05', TO_DATE('7/25/2014', 'MM/DD/YYYY'), TO_DATE('8/23/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-05'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-14-05', TO_DATE('7/25/2014', 'MM/DD/YYYY'), TO_DATE('8/23/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-05'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -45341,11 +45344,11 @@
         <v>1049</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I77" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-06', TO_DATE('8/31/2014', 'MM/DD/YYYY'), TO_DATE('9/18/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-14-06', TO_DATE('8/31/2014', 'MM/DD/YYYY'), TO_DATE('9/18/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -45371,11 +45374,11 @@
         <v>1049</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I78" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-14-07', TO_DATE('10/2/2014', 'MM/DD/YYYY'), TO_DATE('10/27/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-14-07', TO_DATE('10/2/2014', 'MM/DD/YYYY'), TO_DATE('10/27/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -45401,11 +45404,11 @@
         <v>1049</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I81" s="5" t="str">
         <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B81, "'", "''"), "', TO_DATE('", C81, "', 'MM/DD/YYYY'), TO_DATE('", D81, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E81, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F81, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A81, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G81, "'", "''"), "'), '", H81, "');")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-15-01', TO_DATE('4/3/2015', 'MM/DD/YYYY'), TO_DATE('4/14/2015', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-15-01', TO_DATE('4/3/2015', 'MM/DD/YYYY'), TO_DATE('4/14/2015', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -45436,11 +45439,11 @@
         <v>1049</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I87" s="5" t="str">
         <f t="shared" ref="I87:I122" si="3">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B87, "'", "''"), "', TO_DATE('", C87, "', 'MM/DD/YYYY'), TO_DATE('", D87, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E87, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F87, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A87, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G87, "'", "''"), "'), '", H87, "');")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-20-04 Leg 1', TO_DATE('3/20/2020', 'MM/DD/YYYY'), TO_DATE('4/15/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-20-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-20-04 Leg 1', TO_DATE('3/20/2020', 'MM/DD/YYYY'), TO_DATE('4/15/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-20-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -45466,11 +45469,11 @@
         <v>1049</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I88" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-20-05 Leg 1', TO_DATE('4/10/2020', 'MM/DD/YYYY'), TO_DATE('4/25/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-20-05'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-20-05 Leg 1', TO_DATE('4/10/2020', 'MM/DD/YYYY'), TO_DATE('4/25/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-20-05'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -45496,11 +45499,11 @@
         <v>1049</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I89" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-01 Leg 1', TO_DATE('10/15/2020', 'MM/DD/YYYY'), TO_DATE('10/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-01 Leg 1', TO_DATE('10/15/2020', 'MM/DD/YYYY'), TO_DATE('10/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -45526,11 +45529,11 @@
         <v>1049</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I90" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-01 Leg 2', TO_DATE('11/5/2020', 'MM/DD/YYYY'), TO_DATE('11/20/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-01 Leg 2', TO_DATE('11/5/2020', 'MM/DD/YYYY'), TO_DATE('11/20/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -45556,11 +45559,11 @@
         <v>1049</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I91" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-03', TO_DATE('11/15/2020', 'MM/DD/YYYY'), TO_DATE('12/1/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-03'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-03', TO_DATE('11/15/2020', 'MM/DD/YYYY'), TO_DATE('12/1/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-03'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -45586,11 +45589,11 @@
         <v>1049</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I92" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-04 Leg 1', TO_DATE('11/22/2020', 'MM/DD/YYYY'), TO_DATE('11/28/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-04 Leg 1', TO_DATE('11/22/2020', 'MM/DD/YYYY'), TO_DATE('11/28/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -45616,11 +45619,11 @@
         <v>1049</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I93" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-04 Leg 2', TO_DATE('11/30/2020', 'MM/DD/YYYY'), TO_DATE('12/10/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-04 Leg 2', TO_DATE('11/30/2020', 'MM/DD/YYYY'), TO_DATE('12/10/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -45646,11 +45649,11 @@
         <v>1049</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I94" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-21-06', TO_DATE('3/15/2021', 'MM/DD/YYYY'), TO_DATE('3/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-06', TO_DATE('3/15/2021', 'MM/DD/YYYY'), TO_DATE('3/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -45676,11 +45679,11 @@
         <v>1049</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I95" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-21-07 Leg 1', TO_DATE('3/27/2021', 'MM/DD/YYYY'), TO_DATE('4/15/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-07 Leg 1', TO_DATE('3/27/2021', 'MM/DD/YYYY'), TO_DATE('4/15/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -45706,11 +45709,11 @@
         <v>1049</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I96" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-21-07 Leg 2', TO_DATE('4/18/2021', 'MM/DD/YYYY'), TO_DATE('4/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-07 Leg 2', TO_DATE('4/18/2021', 'MM/DD/YYYY'), TO_DATE('4/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -45736,11 +45739,11 @@
         <v>1049</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I97" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-21-08 Leg 1', TO_DATE('4/28/2021', 'MM/DD/YYYY'), TO_DATE('5/23/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-08 Leg 1', TO_DATE('4/28/2021', 'MM/DD/YYYY'), TO_DATE('5/23/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -45766,11 +45769,11 @@
         <v>1049</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I98" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-21-08 Leg 2', TO_DATE('5/25/2021', 'MM/DD/YYYY'), TO_DATE('6/17/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-08 Leg 2', TO_DATE('5/25/2021', 'MM/DD/YYYY'), TO_DATE('6/17/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -45796,11 +45799,11 @@
         <v>1049</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I99" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-20-08 Leg 1', TO_DATE('6/10/2020', 'MM/DD/YYYY'), TO_DATE('6/29/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-08 Leg 1', TO_DATE('6/10/2020', 'MM/DD/YYYY'), TO_DATE('6/29/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -45826,11 +45829,11 @@
         <v>1049</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I100" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-20-08 Leg 2', TO_DATE('7/2/2020', 'MM/DD/YYYY'), TO_DATE('7/26/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-08 Leg 2', TO_DATE('7/2/2020', 'MM/DD/YYYY'), TO_DATE('7/26/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -45856,11 +45859,11 @@
         <v>1049</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I101" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-20-09 Leg 1', TO_DATE('7/20/2020', 'MM/DD/YYYY'), TO_DATE('8/12/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-09'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-09 Leg 1', TO_DATE('7/20/2020', 'MM/DD/YYYY'), TO_DATE('8/12/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-09'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -45886,11 +45889,11 @@
         <v>1049</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I102" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-20-09 Leg 2', TO_DATE('8/16/2020', 'MM/DD/YYYY'), TO_DATE('9/2/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-09'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-09 Leg 2', TO_DATE('8/16/2020', 'MM/DD/YYYY'), TO_DATE('9/2/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-09'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -45916,11 +45919,11 @@
         <v>1049</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I103" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-20-10 Leg 1', TO_DATE('6/14/2020', 'MM/DD/YYYY'), TO_DATE('7/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-10'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-10 Leg 1', TO_DATE('6/14/2020', 'MM/DD/YYYY'), TO_DATE('7/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-10'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -45946,11 +45949,11 @@
         <v>1049</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I104" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-06 Leg 1', TO_DATE('1/12/2021', 'MM/DD/YYYY'), TO_DATE('1/31/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-06 Leg 1', TO_DATE('1/12/2021', 'MM/DD/YYYY'), TO_DATE('1/31/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -45976,11 +45979,11 @@
         <v>1049</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I105" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-06 Leg 2', TO_DATE('2/3/2021', 'MM/DD/YYYY'), TO_DATE('2/25/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-06 Leg 2', TO_DATE('2/3/2021', 'MM/DD/YYYY'), TO_DATE('2/25/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -46006,11 +46009,11 @@
         <v>1049</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I106" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-07', TO_DATE('1/30/2021', 'MM/DD/YYYY'), TO_DATE('3/6/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-07', TO_DATE('1/30/2021', 'MM/DD/YYYY'), TO_DATE('3/6/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -46036,11 +46039,11 @@
         <v>1049</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I107" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-08 Leg 1', TO_DATE('3/2/2021', 'MM/DD/YYYY'), TO_DATE('3/23/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-08 Leg 1', TO_DATE('3/2/2021', 'MM/DD/YYYY'), TO_DATE('3/23/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -46066,11 +46069,11 @@
         <v>1049</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I108" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-08 Leg 2', TO_DATE('3/26/2021', 'MM/DD/YYYY'), TO_DATE('4/12/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-08 Leg 2', TO_DATE('3/26/2021', 'MM/DD/YYYY'), TO_DATE('4/12/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -46096,11 +46099,11 @@
         <v>1049</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I109" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-09 Leg 1', TO_DATE('5/11/2021', 'MM/DD/YYYY'), TO_DATE('5/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-09'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-09 Leg 1', TO_DATE('5/11/2021', 'MM/DD/YYYY'), TO_DATE('5/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-09'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -46126,11 +46129,11 @@
         <v>1049</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I110" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-21-09 Leg 2', TO_DATE('6/2/2021', 'MM/DD/YYYY'), TO_DATE('6/19/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-09'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-09 Leg 2', TO_DATE('6/2/2021', 'MM/DD/YYYY'), TO_DATE('6/19/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-09'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -46156,11 +46159,11 @@
         <v>1049</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I111" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-19-04 Leg 1', TO_DATE('6/1/2019', 'MM/DD/YYYY'), TO_DATE('6/15/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-04 Leg 1', TO_DATE('6/1/2019', 'MM/DD/YYYY'), TO_DATE('6/15/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -46186,11 +46189,11 @@
         <v>1049</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I112" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-19-04 Leg 2', TO_DATE('6/19/2019', 'MM/DD/YYYY'), TO_DATE('7/12/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-04 Leg 2', TO_DATE('6/19/2019', 'MM/DD/YYYY'), TO_DATE('7/12/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -46216,11 +46219,11 @@
         <v>1049</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I113" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-19-05 Leg 1', TO_DATE('7/14/2019', 'MM/DD/YYYY'), TO_DATE('7/31/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-05 Leg 1', TO_DATE('7/14/2019', 'MM/DD/YYYY'), TO_DATE('7/31/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -46246,11 +46249,11 @@
         <v>1049</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I114" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-19-05 Leg 2', TO_DATE('8/2/2019', 'MM/DD/YYYY'), TO_DATE('8/15/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-05 Leg 2', TO_DATE('8/2/2019', 'MM/DD/YYYY'), TO_DATE('8/15/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -46276,11 +46279,11 @@
         <v>1049</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I115" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-19-01 Leg 1', TO_DATE('10/15/2018', 'MM/DD/YYYY'), TO_DATE('11/2/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-01 Leg 1', TO_DATE('10/15/2018', 'MM/DD/YYYY'), TO_DATE('11/2/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -46306,11 +46309,11 @@
         <v>1049</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I116" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-19-01 Leg 2', TO_DATE('11/5/2018', 'MM/DD/YYYY'), TO_DATE('11/29/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-01 Leg 2', TO_DATE('11/5/2018', 'MM/DD/YYYY'), TO_DATE('11/29/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -46336,11 +46339,11 @@
         <v>1049</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I117" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-19-02 Leg 1', TO_DATE('11/20/2018', 'MM/DD/YYYY'), TO_DATE('12/10/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-02 Leg 1', TO_DATE('11/20/2018', 'MM/DD/YYYY'), TO_DATE('12/10/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -46366,11 +46369,11 @@
         <v>1049</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I118" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('HI-19-02 Leg 2', TO_DATE('12/12/2018', 'MM/DD/YYYY'), TO_DATE('12/30/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-02 Leg 2', TO_DATE('12/12/2018', 'MM/DD/YYYY'), TO_DATE('12/30/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -46396,11 +46399,11 @@
         <v>1049</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I119" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-22-01 Leg 1', TO_DATE('10/21/2021', 'MM/DD/YYYY'), TO_DATE('11/13/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-01 Leg 1', TO_DATE('10/21/2021', 'MM/DD/YYYY'), TO_DATE('11/13/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -46426,11 +46429,11 @@
         <v>1049</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I120" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-22-01 Leg 2', TO_DATE('11/15/2021', 'MM/DD/YYYY'), TO_DATE('12/4/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-01 Leg 2', TO_DATE('11/15/2021', 'MM/DD/YYYY'), TO_DATE('12/4/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -46456,11 +46459,11 @@
         <v>1049</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I121" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-22-02 Leg 1', TO_DATE('11/30/2021', 'MM/DD/YYYY'), TO_DATE('12/15/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-02 Leg 1', TO_DATE('11/30/2021', 'MM/DD/YYYY'), TO_DATE('12/15/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -46486,11 +46489,11 @@
         <v>1049</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="I122" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, UTC_TZ_OFFSET) values ('SE-22-02 Leg 2', TO_DATE('12/17/2021', 'MM/DD/YYYY'), TO_DATE('1/12/2022', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-02 Leg 2', TO_DATE('12/17/2021', 'MM/DD/YYYY'), TO_DATE('1/12/2022', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Cruise_Leg_DDL_DML_generator.xlsx
+++ b/docs/Cruise_Leg_DDL_DML_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Vessels" sheetId="10" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4953" uniqueCount="2027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4958" uniqueCount="2029">
   <si>
     <t>Cruise Name</t>
   </si>
@@ -6219,6 +6219,12 @@
   </si>
   <si>
     <t>US/Hawaii</t>
+  </si>
+  <si>
+    <t>2019 MOUSS Data Set</t>
+  </si>
+  <si>
+    <t>https://inport.nmfs.noaa.gov/inport/item/99999</t>
   </si>
 </sst>
 </file>
@@ -25733,8 +25739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43248,9 +43254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H87" sqref="H87:H122"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54920,8 +54926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55097,9 +55103,24 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2018</v>
+      </c>
+      <c r="H9" t="s">
+        <v>179</v>
+      </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_data_sets (DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_DOI, DATA_SET_INPORT_URL, DATA_SET_ACCESS_URL, DATA_SET_ARCHIVE_URL, CRUISE_LEG_ID, DATA_SET_STATUS_ID) values ('', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = ''), '', '', '', '', (SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS where leg_name = ''), (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = ''));</v>
+        <v>insert into ccd_data_sets (DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_DOI, DATA_SET_INPORT_URL, DATA_SET_ACCESS_URL, DATA_SET_ARCHIVE_URL, CRUISE_LEG_ID, DATA_SET_STATUS_ID) values ('2019 MOUSS Data Set', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'MOUSS Video'), '', 'https://inport.nmfs.noaa.gov/inport/item/99999', '', '', (SELECT CRUISE_LEG_ID FROM CCD_CRUISE_LEGS where leg_name = 'SE-19-06'), (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'QC'));</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">

--- a/docs/Cruise_Leg_DDL_DML_generator.xlsx
+++ b/docs/Cruise_Leg_DDL_DML_generator.xlsx
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5089" uniqueCount="2033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5499" uniqueCount="2125">
   <si>
     <t>Cruise Name</t>
   </si>
@@ -5766,9 +5766,6 @@
     <t>Fabricated for testing purposes</t>
   </si>
   <si>
-    <t>Test Data:</t>
-  </si>
-  <si>
     <t>SE-20-04 Leg 1</t>
   </si>
   <si>
@@ -6238,13 +6235,293 @@
   </si>
   <si>
     <t>Data Set</t>
+  </si>
+  <si>
+    <t>2016 CTD Data</t>
+  </si>
+  <si>
+    <t>2017 CTD Data</t>
+  </si>
+  <si>
+    <t>2018 CTD Data</t>
+  </si>
+  <si>
+    <t>2019 CTD Data</t>
+  </si>
+  <si>
+    <t>2020 CTD Data</t>
+  </si>
+  <si>
+    <t>2021 CTD Data</t>
+  </si>
+  <si>
+    <t>2022 CTD Data</t>
+  </si>
+  <si>
+    <t>2019 Water Samples Data</t>
+  </si>
+  <si>
+    <t>2019 Midwater Trawling Data</t>
+  </si>
+  <si>
+    <t>2020 Water Samples Data</t>
+  </si>
+  <si>
+    <t>2020 Midwater Trawling Data</t>
+  </si>
+  <si>
+    <t>2021 Water Samples Data</t>
+  </si>
+  <si>
+    <t>2021 Midwater Trawling Data</t>
+  </si>
+  <si>
+    <t>2022 Water Samples Data</t>
+  </si>
+  <si>
+    <t>2022 Midwater Trawling Data</t>
+  </si>
+  <si>
+    <t>2019 Coral Belt Data</t>
+  </si>
+  <si>
+    <t>2019 Fish REA Data</t>
+  </si>
+  <si>
+    <t>2022 Coral Belt Data</t>
+  </si>
+  <si>
+    <t>2022 Fish REA Data</t>
+  </si>
+  <si>
+    <t>2021 Coral Belt Data</t>
+  </si>
+  <si>
+    <t>2021 Fish REA Data</t>
+  </si>
+  <si>
+    <t>2020 Coral Belt Data</t>
+  </si>
+  <si>
+    <t>2020 Fish REA Data</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Missing Leg Data Set</t>
+  </si>
+  <si>
+    <t>HI0610 (copy)</t>
+  </si>
+  <si>
+    <t>DVM Category 5 Test Data:</t>
+  </si>
+  <si>
+    <t>DVM Category 1 Test Data:</t>
+  </si>
+  <si>
+    <t>Legs were fabricated for testing purposes</t>
+  </si>
+  <si>
+    <t>HI1102</t>
+  </si>
+  <si>
+    <t>01/21/2002</t>
+  </si>
+  <si>
+    <t>05/15/2002</t>
+  </si>
+  <si>
+    <t>09/08/2002</t>
+  </si>
+  <si>
+    <t>08/07/2004</t>
+  </si>
+  <si>
+    <t>09/13/2004</t>
+  </si>
+  <si>
+    <t>07/19/2005</t>
+  </si>
+  <si>
+    <t>09/08/2005</t>
+  </si>
+  <si>
+    <t>07/27/2006</t>
+  </si>
+  <si>
+    <t>01/21/2010</t>
+  </si>
+  <si>
+    <t>07/05/2010</t>
+  </si>
+  <si>
+    <t>09/04/2010</t>
+  </si>
+  <si>
+    <t>06/05/2006</t>
+  </si>
+  <si>
+    <t>07/18/2007</t>
+  </si>
+  <si>
+    <t>03/21/2010</t>
+  </si>
+  <si>
+    <t>11/05/2010</t>
+  </si>
+  <si>
+    <t>04/07/2011</t>
+  </si>
+  <si>
+    <t>05/12/2011</t>
+  </si>
+  <si>
+    <t>07/23/2011</t>
+  </si>
+  <si>
+    <t>08/15/2011</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>04/13/2015</t>
+  </si>
+  <si>
+    <t>08/17/2017</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>12/20/2017</t>
+  </si>
+  <si>
+    <t>02/14/2002</t>
+  </si>
+  <si>
+    <t>07/24/2002</t>
+  </si>
+  <si>
+    <t>10/07/2002</t>
+  </si>
+  <si>
+    <t>09/07/2004</t>
+  </si>
+  <si>
+    <t>09/05/2004</t>
+  </si>
+  <si>
+    <t>08/05/2005</t>
+  </si>
+  <si>
+    <t>09/13/2005</t>
+  </si>
+  <si>
+    <t>08/20/2006</t>
+  </si>
+  <si>
+    <t>08/14/2007</t>
+  </si>
+  <si>
+    <t>03/20/2010</t>
+  </si>
+  <si>
+    <t>06/30/2010</t>
+  </si>
+  <si>
+    <t>07/21/2010</t>
+  </si>
+  <si>
+    <t>09/29/2010</t>
+  </si>
+  <si>
+    <t>04/05/2011</t>
+  </si>
+  <si>
+    <t>05/03/2011</t>
+  </si>
+  <si>
+    <t>07/24/2011</t>
+  </si>
+  <si>
+    <t>08/11/2011</t>
+  </si>
+  <si>
+    <t>08/30/2011</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>09/05/2017</t>
+  </si>
+  <si>
+    <t>09/30/2017</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>2010 CTD Data</t>
+  </si>
+  <si>
+    <t>2011 CTD Data</t>
+  </si>
+  <si>
+    <t>2004 CTD Data</t>
+  </si>
+  <si>
+    <t>2006 CTD Data</t>
+  </si>
+  <si>
+    <t>2005 CTD Data</t>
+  </si>
+  <si>
+    <t>2007 CTD Data</t>
+  </si>
+  <si>
+    <t>2002 CTD Data</t>
+  </si>
+  <si>
+    <t>2003 CTD Data</t>
+  </si>
+  <si>
+    <t>2011 Fish REA Data</t>
+  </si>
+  <si>
+    <t>2011 Coral Belt Data</t>
+  </si>
+  <si>
+    <t>2011 Water Samples Data</t>
+  </si>
+  <si>
+    <t>Delete leg overlap</t>
+  </si>
+  <si>
+    <t>Missing Leg Data Set
+Used in Category 5 too</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6287,8 +6564,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6337,6 +6621,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -6347,11 +6643,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6375,10 +6672,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -21796,13 +22101,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>1198</v>
@@ -22175,7 +22480,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>33</v>
@@ -22214,7 +22519,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>33</v>
@@ -22253,7 +22558,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>33</v>
@@ -22292,7 +22597,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
@@ -22331,7 +22636,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -22370,7 +22675,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
@@ -22487,7 +22792,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
@@ -22526,7 +22831,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
@@ -22565,7 +22870,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B92" t="s">
         <v>4</v>
@@ -22604,7 +22909,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>33</v>
@@ -22643,7 +22948,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>33</v>
@@ -22682,7 +22987,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>33</v>
@@ -22721,7 +23026,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>33</v>
@@ -22760,7 +23065,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B97" t="s">
         <v>4</v>
@@ -22799,7 +23104,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
@@ -22838,7 +23143,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>33</v>
@@ -22877,7 +23182,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>33</v>
@@ -22916,7 +23221,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>33</v>
@@ -22955,7 +23260,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>33</v>
@@ -42719,7 +43024,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="B47" t="s">
         <v>1028</v>
@@ -42734,7 +43039,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B48" t="s">
         <v>1030</v>
@@ -42749,7 +43054,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="B49" t="s">
         <v>1032</v>
@@ -42764,7 +43069,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B50" t="s">
         <v>1024</v>
@@ -42779,7 +43084,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="B51" t="s">
         <v>1030</v>
@@ -42794,7 +43099,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="B52" t="s">
         <v>1032</v>
@@ -42839,7 +43144,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B55" t="s">
         <v>1032</v>
@@ -42854,7 +43159,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B56" t="s">
         <v>1030</v>
@@ -42869,7 +43174,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B57" t="s">
         <v>1032</v>
@@ -42884,7 +43189,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B58" t="s">
         <v>1024</v>
@@ -42899,7 +43204,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B59" t="s">
         <v>1030</v>
@@ -42914,7 +43219,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B60" t="s">
         <v>1024</v>
@@ -42929,7 +43234,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B61" t="s">
         <v>1030</v>
@@ -42944,7 +43249,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="B62" t="s">
         <v>1024</v>
@@ -42959,7 +43264,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B63" t="s">
         <v>1024</v>
@@ -42974,7 +43279,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B64" t="s">
         <v>1028</v>
@@ -42989,7 +43294,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B65" t="s">
         <v>1032</v>
@@ -43004,7 +43309,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B66" t="s">
         <v>1028</v>
@@ -43019,7 +43324,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B67" t="s">
         <v>1030</v>
@@ -43040,11 +43345,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87:B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43078,7 +43383,7 @@
         <v>1716</v>
       </c>
       <c r="H1" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I1" t="s">
         <v>109</v>
@@ -43104,7 +43409,7 @@
         <v>1040</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B2, "'", "''"), "', TO_DATE('", C2, "', 'MM/DD/YYYY'), TO_DATE('", D2, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E2, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F2, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A2, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G2, "'", "''"), "'), '", H2, "');")</f>
@@ -43131,7 +43436,7 @@
         <v>1040</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I3" s="5" t="str">
         <f t="shared" ref="I3:I66" si="0">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B3, "'", "''"), "', TO_DATE('", C3, "', 'MM/DD/YYYY'), TO_DATE('", D3, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E3, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F3, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A3, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G3, "'", "''"), "'), '", H3, "');")</f>
@@ -43158,7 +43463,7 @@
         <v>1040</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43185,7 +43490,7 @@
         <v>1040</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43212,7 +43517,7 @@
         <v>1040</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43239,7 +43544,7 @@
         <v>1040</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43266,7 +43571,7 @@
         <v>1040</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43293,7 +43598,7 @@
         <v>1040</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43320,7 +43625,7 @@
         <v>1040</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43347,7 +43652,7 @@
         <v>1040</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43374,7 +43679,7 @@
         <v>1040</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43401,7 +43706,7 @@
         <v>1040</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43428,7 +43733,7 @@
         <v>1040</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43455,7 +43760,7 @@
         <v>1040</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43482,7 +43787,7 @@
         <v>1040</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43509,7 +43814,7 @@
         <v>1040</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43536,7 +43841,7 @@
         <v>1040</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43563,7 +43868,7 @@
         <v>1040</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43590,7 +43895,7 @@
         <v>1040</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43617,7 +43922,7 @@
         <v>1040</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43644,7 +43949,7 @@
         <v>1040</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I22" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43671,7 +43976,7 @@
         <v>1040</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I23" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43698,7 +44003,7 @@
         <v>1040</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I24" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43725,7 +44030,7 @@
         <v>1040</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I25" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43752,7 +44057,7 @@
         <v>1040</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I26" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43779,7 +44084,7 @@
         <v>1040</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I27" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43806,7 +44111,7 @@
         <v>1040</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I28" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43833,7 +44138,7 @@
         <v>1040</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I29" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43860,7 +44165,7 @@
         <v>1040</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I30" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43887,7 +44192,7 @@
         <v>1040</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I31" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43914,7 +44219,7 @@
         <v>1040</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I32" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43941,7 +44246,7 @@
         <v>1040</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I33" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43968,7 +44273,7 @@
         <v>1040</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I34" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43995,7 +44300,7 @@
         <v>1040</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I35" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44022,7 +44327,7 @@
         <v>1040</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I36" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44049,7 +44354,7 @@
         <v>1040</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I37" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44076,7 +44381,7 @@
         <v>1040</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I38" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44103,7 +44408,7 @@
         <v>1040</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I39" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44130,7 +44435,7 @@
         <v>1040</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I40" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44157,7 +44462,7 @@
         <v>1040</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I41" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44184,7 +44489,7 @@
         <v>1040</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I42" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44211,7 +44516,7 @@
         <v>1040</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I43" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44238,7 +44543,7 @@
         <v>1040</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I44" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44265,7 +44570,7 @@
         <v>1040</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I45" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44292,7 +44597,7 @@
         <v>1040</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I46" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44319,7 +44624,7 @@
         <v>1040</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I47" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44346,7 +44651,7 @@
         <v>1040</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I48" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44373,7 +44678,7 @@
         <v>1040</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I49" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44400,7 +44705,7 @@
         <v>1040</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I50" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44427,7 +44732,7 @@
         <v>1040</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I51" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44454,7 +44759,7 @@
         <v>1040</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I52" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44481,7 +44786,7 @@
         <v>1040</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I53" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44508,7 +44813,7 @@
         <v>1040</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I54" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44535,7 +44840,7 @@
         <v>1040</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I55" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44562,7 +44867,7 @@
         <v>1040</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I56" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44589,7 +44894,7 @@
         <v>1040</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I57" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44619,7 +44924,7 @@
         <v>1040</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I58" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44649,7 +44954,7 @@
         <v>1040</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I59" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44679,7 +44984,7 @@
         <v>1040</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I60" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44709,7 +45014,7 @@
         <v>1040</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I61" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44739,7 +45044,7 @@
         <v>1040</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I62" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44769,7 +45074,7 @@
         <v>1040</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I63" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44799,7 +45104,7 @@
         <v>1040</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I64" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44829,7 +45134,7 @@
         <v>1040</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I65" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44859,7 +45164,7 @@
         <v>1040</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I66" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44889,7 +45194,7 @@
         <v>1040</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I67" s="5" t="str">
         <f t="shared" ref="I67:I69" si="1">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B67, "'", "''"), "', TO_DATE('", C67, "', 'MM/DD/YYYY'), TO_DATE('", D67, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E67, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F67, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A67, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G67, "'", "''"), "'), '", H67, "');")</f>
@@ -44919,7 +45224,7 @@
         <v>1040</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I68" s="5" t="str">
         <f t="shared" si="1"/>
@@ -44931,25 +45236,25 @@
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C69" s="8" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>2011</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="E69" t="s">
         <v>2012</v>
       </c>
-      <c r="E69" t="s">
-        <v>2013</v>
-      </c>
       <c r="F69" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I69" s="5" t="str">
         <f t="shared" si="1"/>
@@ -44988,7 +45293,7 @@
         <v>1040</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I72" s="5" t="str">
         <f t="shared" ref="I72:I78" si="2">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B72, "'", "''"), "', TO_DATE('", C72, "', 'MM/DD/YYYY'), TO_DATE('", D72, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E72, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F72, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A72, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G72, "'", "''"), "'), '", H72, "');")</f>
@@ -45018,7 +45323,7 @@
         <v>1040</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I73" s="5" t="str">
         <f t="shared" si="2"/>
@@ -45048,7 +45353,7 @@
         <v>1040</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I74" s="5" t="str">
         <f t="shared" si="2"/>
@@ -45078,7 +45383,7 @@
         <v>1040</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I75" s="5" t="str">
         <f t="shared" si="2"/>
@@ -45108,7 +45413,7 @@
         <v>1040</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I76" s="5" t="str">
         <f t="shared" si="2"/>
@@ -45138,7 +45443,7 @@
         <v>1040</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I77" s="5" t="str">
         <f t="shared" si="2"/>
@@ -45168,7 +45473,7 @@
         <v>1040</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I78" s="5" t="str">
         <f t="shared" si="2"/>
@@ -45198,7 +45503,7 @@
         <v>1040</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I81" s="5" t="str">
         <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B81, "'", "''"), "', TO_DATE('", C81, "', 'MM/DD/YYYY'), TO_DATE('", D81, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E81, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F81, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A81, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G81, "'", "''"), "'), '", H81, "');")</f>
@@ -45207,24 +45512,24 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>1875</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>33</v>
       </c>
-      <c r="B87" s="9" t="s">
-        <v>1876</v>
+      <c r="B87" s="21" t="s">
+        <v>1875</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>1906</v>
+        <v>1905</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="E87" t="s">
-        <v>1895</v>
+        <v>1894</v>
       </c>
       <c r="F87" s="9" t="s">
         <v>1872</v>
@@ -45233,7 +45538,7 @@
         <v>1040</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I87" s="5" t="str">
         <f t="shared" ref="I87:I122" si="3">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B87, "'", "''"), "', TO_DATE('", C87, "', 'MM/DD/YYYY'), TO_DATE('", D87, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E87, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F87, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A87, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G87, "'", "''"), "'), '", H87, "');")</f>
@@ -45244,17 +45549,17 @@
       <c r="A88" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="21" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>1918</v>
+      </c>
+      <c r="E88" t="s">
         <v>1894</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>1919</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1895</v>
       </c>
       <c r="F88" s="9" t="s">
         <v>1873</v>
@@ -45263,7 +45568,7 @@
         <v>1040</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I88" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45274,26 +45579,26 @@
       <c r="A89" t="s">
         <v>33</v>
       </c>
-      <c r="B89" t="s">
-        <v>1878</v>
+      <c r="B89" s="21" t="s">
+        <v>1877</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>1896</v>
+        <v>1895</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>1908</v>
+        <v>1907</v>
       </c>
       <c r="E89" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I89" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45304,26 +45609,26 @@
       <c r="A90" t="s">
         <v>33</v>
       </c>
-      <c r="B90" t="s">
-        <v>1879</v>
+      <c r="B90" s="21" t="s">
+        <v>1878</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>1897</v>
+        <v>1896</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="E90" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>1887</v>
+        <v>1886</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I90" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45334,26 +45639,26 @@
       <c r="A91" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B91" s="16" t="s">
-        <v>1880</v>
+      <c r="B91" s="21" t="s">
+        <v>1879</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="E91" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I91" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45364,26 +45669,26 @@
       <c r="A92" t="s">
         <v>33</v>
       </c>
-      <c r="B92" t="s">
-        <v>1881</v>
+      <c r="B92" s="21" t="s">
+        <v>1880</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>1899</v>
+        <v>1898</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="E92" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I92" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45394,26 +45699,26 @@
       <c r="A93" t="s">
         <v>33</v>
       </c>
-      <c r="B93" t="s">
-        <v>1882</v>
+      <c r="B93" s="21" t="s">
+        <v>1881</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>1900</v>
+        <v>1899</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="E93" t="s">
-        <v>1920</v>
+        <v>1919</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>1888</v>
+        <v>1887</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I93" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45424,26 +45729,26 @@
       <c r="A94" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>1883</v>
+      <c r="B94" s="21" t="s">
+        <v>1882</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>1901</v>
+        <v>1900</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>1913</v>
+        <v>1912</v>
       </c>
       <c r="E94" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I94" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45454,26 +45759,26 @@
       <c r="A95" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>1884</v>
+      <c r="B95" s="21" t="s">
+        <v>1883</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>1914</v>
+        <v>1913</v>
       </c>
       <c r="E95" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I95" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45484,26 +45789,26 @@
       <c r="A96" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>1885</v>
+      <c r="B96" s="21" t="s">
+        <v>1884</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>1915</v>
+        <v>1914</v>
       </c>
       <c r="E96" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>1889</v>
+        <v>1888</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I96" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45514,26 +45819,26 @@
       <c r="A97" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="16" t="s">
-        <v>1891</v>
+      <c r="B97" s="21" t="s">
+        <v>1890</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E97" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I97" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45544,26 +45849,26 @@
       <c r="A98" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="9" t="s">
-        <v>1892</v>
+      <c r="B98" s="21" t="s">
+        <v>1891</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>1905</v>
+        <v>1904</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="E98" t="s">
-        <v>1890</v>
+        <v>1889</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>1886</v>
+        <v>1885</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I98" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45574,26 +45879,26 @@
       <c r="A99" t="s">
         <v>4</v>
       </c>
-      <c r="B99" s="9" t="s">
-        <v>1921</v>
+      <c r="B99" s="21" t="s">
+        <v>1920</v>
       </c>
       <c r="C99" s="8" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D99" s="8" t="s">
         <v>1926</v>
       </c>
-      <c r="D99" s="8" t="s">
-        <v>1927</v>
-      </c>
       <c r="E99" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I99" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45604,26 +45909,26 @@
       <c r="A100" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="9" t="s">
-        <v>1922</v>
+      <c r="B100" s="21" t="s">
+        <v>1921</v>
       </c>
       <c r="C100" s="8" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D100" s="8" t="s">
         <v>1928</v>
       </c>
-      <c r="D100" s="8" t="s">
-        <v>1929</v>
-      </c>
       <c r="E100" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I100" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45634,26 +45939,26 @@
       <c r="A101" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="9" t="s">
-        <v>1923</v>
+      <c r="B101" s="21" t="s">
+        <v>1922</v>
       </c>
       <c r="C101" s="8" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>1930</v>
       </c>
-      <c r="D101" s="8" t="s">
-        <v>1931</v>
-      </c>
       <c r="E101" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I101" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45664,26 +45969,26 @@
       <c r="A102" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="9" t="s">
-        <v>1924</v>
+      <c r="B102" s="21" t="s">
+        <v>1923</v>
       </c>
       <c r="C102" s="8" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D102" s="8" t="s">
         <v>1932</v>
       </c>
-      <c r="D102" s="8" t="s">
-        <v>1933</v>
-      </c>
       <c r="E102" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I102" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45694,26 +45999,26 @@
       <c r="A103" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="16" t="s">
-        <v>1925</v>
+      <c r="B103" s="21" t="s">
+        <v>1924</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>1935</v>
+        <v>1934</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>1934</v>
+        <v>1933</v>
       </c>
       <c r="E103" t="s">
-        <v>1893</v>
+        <v>1892</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I103" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45724,26 +46029,26 @@
       <c r="A104" t="s">
         <v>33</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>1939</v>
+      <c r="B104" s="21" t="s">
+        <v>1938</v>
       </c>
       <c r="C104" s="8" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D104" s="8" t="s">
         <v>1949</v>
       </c>
-      <c r="D104" s="8" t="s">
-        <v>1950</v>
-      </c>
       <c r="E104" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I104" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45754,26 +46059,26 @@
       <c r="A105" t="s">
         <v>33</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>1940</v>
+      <c r="B105" s="21" t="s">
+        <v>1939</v>
       </c>
       <c r="C105" s="8" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D105" s="8" t="s">
         <v>1951</v>
       </c>
-      <c r="D105" s="8" t="s">
-        <v>1952</v>
-      </c>
       <c r="E105" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I105" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45784,26 +46089,26 @@
       <c r="A106" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B106" s="18" t="s">
-        <v>1941</v>
+      <c r="B106" s="21" t="s">
+        <v>1940</v>
       </c>
       <c r="C106" s="8" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D106" s="8" t="s">
         <v>1957</v>
       </c>
-      <c r="D106" s="8" t="s">
-        <v>1958</v>
-      </c>
       <c r="E106" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I106" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45814,26 +46119,26 @@
       <c r="A107" t="s">
         <v>33</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>1942</v>
+      <c r="B107" s="21" t="s">
+        <v>1941</v>
       </c>
       <c r="C107" s="8" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D107" s="8" t="s">
         <v>1953</v>
       </c>
-      <c r="D107" s="8" t="s">
-        <v>1954</v>
-      </c>
       <c r="E107" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F107" s="9" t="s">
         <v>1944</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>1945</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I107" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45844,26 +46149,26 @@
       <c r="A108" t="s">
         <v>33</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="21" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E108" t="s">
         <v>1943</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>1955</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>1956</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="F108" s="9" t="s">
         <v>1944</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>1945</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I108" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45874,26 +46179,26 @@
       <c r="A109" t="s">
         <v>33</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="21" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1943</v>
+      </c>
+      <c r="F109" s="9" t="s">
         <v>1946</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>1960</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1944</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>1947</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I109" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45904,26 +46209,26 @@
       <c r="A110" t="s">
         <v>33</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>1948</v>
+      <c r="B110" s="21" t="s">
+        <v>1947</v>
       </c>
       <c r="C110" s="8" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D110" s="8" t="s">
         <v>1961</v>
       </c>
-      <c r="D110" s="8" t="s">
-        <v>1962</v>
-      </c>
       <c r="E110" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I110" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45934,26 +46239,26 @@
       <c r="A111" t="s">
         <v>4</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>1979</v>
+      <c r="B111" s="21" t="s">
+        <v>1978</v>
       </c>
       <c r="C111" s="8" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D111" s="8" t="s">
         <v>1983</v>
       </c>
-      <c r="D111" s="8" t="s">
-        <v>1984</v>
-      </c>
       <c r="E111" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I111" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45964,331 +46269,1232 @@
       <c r="A112" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="9" t="s">
-        <v>1980</v>
+      <c r="B112" s="21" t="s">
+        <v>1979</v>
       </c>
       <c r="C112" s="8" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D112" s="8" t="s">
         <v>1985</v>
       </c>
-      <c r="D112" s="8" t="s">
-        <v>1986</v>
-      </c>
       <c r="E112" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I112" s="5" t="str">
         <f t="shared" si="3"/>
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-04 Leg 2', TO_DATE('6/19/2019', 'MM/DD/YYYY'), TO_DATE('7/12/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="17" t="s">
-        <v>1981</v>
+      <c r="B113" s="21" t="s">
+        <v>1980</v>
       </c>
       <c r="C113" s="8" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D113" s="8" t="s">
         <v>1987</v>
       </c>
-      <c r="D113" s="8" t="s">
-        <v>1988</v>
-      </c>
       <c r="E113" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G113" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I113" s="5" t="str">
         <f t="shared" si="3"/>
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-05 Leg 1', TO_DATE('7/14/2019', 'MM/DD/YYYY'), TO_DATE('7/31/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="9" t="s">
-        <v>1982</v>
+      <c r="B114" s="21" t="s">
+        <v>1981</v>
       </c>
       <c r="C114" s="8" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>1989</v>
       </c>
-      <c r="D114" s="8" t="s">
-        <v>1990</v>
-      </c>
       <c r="E114" t="s">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I114" s="5" t="str">
         <f t="shared" si="3"/>
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-05 Leg 2', TO_DATE('8/2/2019', 'MM/DD/YYYY'), TO_DATE('8/15/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>1964</v>
+      <c r="B115" s="21" t="s">
+        <v>1963</v>
       </c>
       <c r="C115" s="8" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D115" s="8" t="s">
         <v>1967</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>1968</v>
-      </c>
       <c r="E115" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I115" s="5" t="str">
         <f t="shared" si="3"/>
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-01 Leg 1', TO_DATE('10/15/2018', 'MM/DD/YYYY'), TO_DATE('11/2/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="9" t="s">
-        <v>1975</v>
+      <c r="B116" s="21" t="s">
+        <v>1974</v>
       </c>
       <c r="C116" s="8" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D116" s="8" t="s">
         <v>1969</v>
       </c>
-      <c r="D116" s="8" t="s">
-        <v>1970</v>
-      </c>
       <c r="E116" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I116" s="5" t="str">
         <f t="shared" si="3"/>
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-01 Leg 2', TO_DATE('11/5/2018', 'MM/DD/YYYY'), TO_DATE('11/29/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="18" t="s">
-        <v>1965</v>
+      <c r="B117" s="21" t="s">
+        <v>1964</v>
       </c>
       <c r="C117" s="8" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D117" s="8" t="s">
         <v>1971</v>
       </c>
-      <c r="D117" s="8" t="s">
-        <v>1972</v>
-      </c>
       <c r="E117" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I117" s="5" t="str">
         <f t="shared" si="3"/>
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-02 Leg 1', TO_DATE('11/20/2018', 'MM/DD/YYYY'), TO_DATE('12/10/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>4</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>1966</v>
+      <c r="B118" s="21" t="s">
+        <v>1965</v>
       </c>
       <c r="C118" s="8" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D118" s="8" t="s">
         <v>1973</v>
       </c>
-      <c r="D118" s="8" t="s">
-        <v>1974</v>
-      </c>
       <c r="E118" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I118" s="5" t="str">
         <f t="shared" si="3"/>
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-02 Leg 2', TO_DATE('12/12/2018', 'MM/DD/YYYY'), TO_DATE('12/30/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>33</v>
       </c>
-      <c r="B119" s="9" t="s">
-        <v>2006</v>
+      <c r="B119" s="21" t="s">
+        <v>2005</v>
       </c>
       <c r="C119" s="8" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D119" s="8" t="s">
         <v>1997</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>1998</v>
-      </c>
       <c r="E119" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I119" s="5" t="str">
         <f t="shared" si="3"/>
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-01 Leg 1', TO_DATE('10/21/2021', 'MM/DD/YYYY'), TO_DATE('11/13/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>2007</v>
+      <c r="B120" s="21" t="s">
+        <v>2006</v>
       </c>
       <c r="C120" s="8" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D120" s="8" t="s">
         <v>1999</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>2000</v>
-      </c>
       <c r="E120" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H120" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I120" s="5" t="str">
         <f t="shared" si="3"/>
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-01 Leg 2', TO_DATE('11/15/2021', 'MM/DD/YYYY'), TO_DATE('12/4/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="21" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>1995</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>2001</v>
-      </c>
-      <c r="D121" s="8" t="s">
-        <v>2002</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1993</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>1996</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I121" s="5" t="str">
         <f t="shared" si="3"/>
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-02 Leg 1', TO_DATE('11/30/2021', 'MM/DD/YYYY'), TO_DATE('12/15/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>33</v>
       </c>
-      <c r="B122" s="9" t="s">
-        <v>1994</v>
+      <c r="B122" s="21" t="s">
+        <v>1993</v>
       </c>
       <c r="C122" s="8" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D122" s="8" t="s">
         <v>2003</v>
       </c>
-      <c r="D122" s="8" t="s">
-        <v>2004</v>
-      </c>
       <c r="E122" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I122" s="5" t="str">
         <f t="shared" si="3"/>
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-02 Leg 2', TO_DATE('12/17/2021', 'MM/DD/YYYY'), TO_DATE('1/12/2022', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>79</v>
+      </c>
+      <c r="B126" t="s">
+        <v>327</v>
+      </c>
+      <c r="C126" s="20" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E126" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F126" t="s">
+        <v>94</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I126" s="5" t="str">
+        <f t="shared" ref="I126:I153" si="4">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B126, "'", "''"), "', TO_DATE('", C126, "', 'MM/DD/YYYY'), TO_DATE('", D126, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E126, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F126, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A126, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G126, "'", "''"), "'), '", H126, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0201_LEGI', TO_DATE('01/21/2002', 'MM/DD/YYYY'), TO_DATE('02/14/2002', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>79</v>
+      </c>
+      <c r="B127" t="s">
+        <v>95</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E127" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F127" t="s">
+        <v>94</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I127" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0201_LEGII', TO_DATE('05/15/2002', 'MM/DD/YYYY'), TO_DATE('07/24/2002', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>79</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C128" s="20" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D128" s="20" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E128" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I128" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC-03-07', TO_DATE('09/08/2002', 'MM/DD/YYYY'), TO_DATE('10/07/2002', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC-03-07'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129" t="s">
+        <v>260</v>
+      </c>
+      <c r="C129" s="20" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D129" s="20" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E129" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F129" t="s">
+        <v>40</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I129" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGI', TO_DATE('08/07/2004', 'MM/DD/YYYY'), TO_DATE('09/07/2004', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D130" s="20" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E130" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F130" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I130" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0401', TO_DATE('09/13/2004', 'MM/DD/YYYY'), TO_DATE('09/05/2004', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0401'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>33</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C131" s="20" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D131" s="20" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E131" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F131" t="s">
+        <v>47</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I131" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0509', TO_DATE('07/19/2005', 'MM/DD/YYYY'), TO_DATE('08/05/2005', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0509'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" t="s">
+        <v>261</v>
+      </c>
+      <c r="C132" s="20" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D132" s="20" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E132" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F132" t="s">
+        <v>40</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I132" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGII', TO_DATE('09/08/2005', 'MM/DD/YYYY'), TO_DATE('09/13/2005', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" t="s">
+        <v>59</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D133" s="20" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E133" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F133" t="s">
+        <v>59</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I133" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0607', TO_DATE('06/05/2006', 'MM/DD/YYYY'), TO_DATE('06/05/2006', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0607'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C134" s="20" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D134" s="20" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F134" t="s">
+        <v>15</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I134" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0610 (copy)', TO_DATE('07/27/2006', 'MM/DD/YYYY'), TO_DATE('08/20/2006', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0610'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>33</v>
+      </c>
+      <c r="B135" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135" s="20" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D135" s="20" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F135" t="s">
+        <v>65</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I135" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0706', TO_DATE('07/18/2007', 'MM/DD/YYYY'), TO_DATE('08/14/2007', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0706'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>2096</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F136" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I136" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGI', TO_DATE('01/21/2010', 'MM/DD/YYYY'), TO_DATE('03/20/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>20</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F137" t="s">
+        <v>18</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I137" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGII', TO_DATE('03/21/2010', 'MM/DD/YYYY'), TO_DATE('06/30/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>21</v>
+      </c>
+      <c r="C138" s="20" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D138" s="20" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E138" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F138" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I138" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGIII', TO_DATE('07/05/2010', 'MM/DD/YYYY'), TO_DATE('07/21/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="20" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D139" s="20" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E139" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F139" t="s">
+        <v>3</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I139" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1007', TO_DATE('09/04/2010', 'MM/DD/YYYY'), TO_DATE('09/29/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1007'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C140" s="20" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D140" s="20" t="s">
+        <v>2099</v>
+      </c>
+      <c r="E140" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I140" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1007 (copy)', TO_DATE('09/04/2010', 'MM/DD/YYYY'), TO_DATE('09/29/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1007 (copy)'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C141" s="20" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D141" s="20" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F141" t="s">
+        <v>23</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I141" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_I', TO_DATE('11/05/2010', 'MM/DD/YYYY'), TO_DATE('04/05/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C142" s="20" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D142" s="20" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F142" t="s">
+        <v>23</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I142" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_II', TO_DATE('04/07/2011', 'MM/DD/YYYY'), TO_DATE('05/03/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J142" s="19"/>
+      <c r="K142" s="19"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C143" s="20" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>2102</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F143" t="s">
+        <v>23</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I143" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_III', TO_DATE('05/12/2011', 'MM/DD/YYYY'), TO_DATE('07/24/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F144" t="s">
+        <v>2061</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I144" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1102_LEG_I', TO_DATE('07/23/2011', 'MM/DD/YYYY'), TO_DATE('08/11/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1102'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J144" s="19"/>
+      <c r="K144" s="19"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>2104</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F145" t="s">
+        <v>2061</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I145" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1102_LEG_II', TO_DATE('08/15/2011', 'MM/DD/YYYY'), TO_DATE('08/30/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1102'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J145" s="19"/>
+      <c r="K145" s="19"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>33</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F146" t="s">
+        <v>75</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I146" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-15-01 Leg 1', TO_DATE('04/03/2015', 'MM/DD/YYYY'), TO_DATE('04/14/2015', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F147" t="s">
+        <v>75</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I147" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-15-01 Leg 2', TO_DATE('04/13/2015', 'MM/DD/YYYY'), TO_DATE('05/20/2015', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>332</v>
+      </c>
+      <c r="B148" t="s">
+        <v>337</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>2107</v>
+      </c>
+      <c r="E148" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F148" t="s">
+        <v>333</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I148" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 1', TO_DATE('08/17/2017', 'MM/DD/YYYY'), TO_DATE('09/05/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>332</v>
+      </c>
+      <c r="B149" t="s">
+        <v>338</v>
+      </c>
+      <c r="C149" s="20" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D149" s="20" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F149" t="s">
+        <v>333</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I149" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 2', TO_DATE('09/11/2017', 'MM/DD/YYYY'), TO_DATE('09/30/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>332</v>
+      </c>
+      <c r="B150" t="s">
+        <v>339</v>
+      </c>
+      <c r="C150" s="20" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F150" t="s">
+        <v>333</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I150" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 3', TO_DATE('10/01/2017', 'MM/DD/YYYY'), TO_DATE('10/10/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J150" s="19"/>
+      <c r="K150" s="19"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>332</v>
+      </c>
+      <c r="B151" t="s">
+        <v>340</v>
+      </c>
+      <c r="C151" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D151" s="20" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F151" t="s">
+        <v>333</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I151" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 4', TO_DATE('10/16/2017', 'MM/DD/YYYY'), TO_DATE('11/09/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>332</v>
+      </c>
+      <c r="B152" t="s">
+        <v>341</v>
+      </c>
+      <c r="C152" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D152" s="20" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E152" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F152" t="s">
+        <v>333</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I152" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 5', TO_DATE('11/15/2017', 'MM/DD/YYYY'), TO_DATE('12/09/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>332</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C153" s="20" t="s">
+        <v>2086</v>
+      </c>
+      <c r="D153" s="20" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E153" t="s">
+        <v>2060</v>
+      </c>
+      <c r="F153" t="s">
+        <v>333</v>
+      </c>
+      <c r="G153" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I153" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 6', TO_DATE('12/20/2017', 'MM/DD/YYYY'), TO_DATE('01/10/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48402,7 +49608,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B38" t="s">
         <v>1016</v>
@@ -49091,7 +50297,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B73" t="s">
         <v>764</v>
@@ -49103,7 +50309,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B74" t="s">
         <v>765</v>
@@ -49115,7 +50321,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B75" t="s">
         <v>766</v>
@@ -49127,7 +50333,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B76" t="s">
         <v>795</v>
@@ -49139,7 +50345,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B77" t="s">
         <v>802</v>
@@ -49151,7 +50357,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="B78" t="s">
         <v>810</v>
@@ -49163,7 +50369,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="B79" t="s">
         <v>802</v>
@@ -49175,7 +50381,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="B80" t="s">
         <v>810</v>
@@ -49187,7 +50393,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>1892</v>
+        <v>1891</v>
       </c>
       <c r="B81" t="s">
         <v>766</v>
@@ -49199,7 +50405,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>1921</v>
+        <v>1920</v>
       </c>
       <c r="B82" t="s">
         <v>795</v>
@@ -49211,7 +50417,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="B83" t="s">
         <v>802</v>
@@ -49223,7 +50429,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="B84" t="s">
         <v>810</v>
@@ -49235,7 +50441,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="B85" t="s">
         <v>802</v>
@@ -49247,7 +50453,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B86" t="s">
         <v>764</v>
@@ -49259,7 +50465,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B87" t="s">
         <v>765</v>
@@ -49271,7 +50477,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B88" t="s">
         <v>766</v>
@@ -49283,7 +50489,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B89" t="s">
         <v>795</v>
@@ -49295,7 +50501,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B90" t="s">
         <v>802</v>
@@ -49307,7 +50513,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B91" t="s">
         <v>766</v>
@@ -49319,7 +50525,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B92" t="s">
         <v>816</v>
@@ -49331,7 +50537,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B93" t="s">
         <v>795</v>
@@ -49343,7 +50549,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B94" t="s">
         <v>802</v>
@@ -49355,7 +50561,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B95" t="s">
         <v>810</v>
@@ -49367,7 +50573,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>1966</v>
+        <v>1965</v>
       </c>
       <c r="B96" t="s">
         <v>802</v>
@@ -49379,7 +50585,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="B97" t="s">
         <v>765</v>
@@ -49391,7 +50597,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B98" t="s">
         <v>766</v>
@@ -49403,7 +50609,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B99" t="s">
         <v>767</v>
@@ -49415,7 +50621,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B100" t="s">
         <v>768</v>
@@ -49427,7 +50633,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B101" t="s">
         <v>795</v>
@@ -49439,7 +50645,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B102" t="s">
         <v>802</v>
@@ -49451,7 +50657,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B103" t="s">
         <v>766</v>
@@ -49463,7 +50669,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B104" t="s">
         <v>816</v>
@@ -49583,7 +50789,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B117" t="s">
         <v>735</v>
@@ -49595,7 +50801,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B118" t="s">
         <v>750</v>
@@ -49607,7 +50813,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B119" t="s">
         <v>111</v>
@@ -50012,7 +51218,7 @@
         <v>215</v>
       </c>
       <c r="B43" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
@@ -50024,7 +51230,7 @@
         <v>212</v>
       </c>
       <c r="B44" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="1"/>
@@ -52250,10 +53456,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B137" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C137" s="5" t="str">
         <f t="shared" si="1"/>
@@ -52262,10 +53468,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B138" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C138" s="5" t="str">
         <f t="shared" si="1"/>
@@ -54436,10 +55642,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54447,6 +55653,7 @@
     <col min="1" max="1" width="41.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="157.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -54454,1353 +55661,1145 @@
         <v>323</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2027</v>
+      </c>
       <c r="C2" s="5" t="str">
-        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A2, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B2, "'));")</f>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1007'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
+        <f t="shared" ref="C2" si="0">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A2, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B2, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2015 CTD Data'));</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2028</v>
+      </c>
       <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C66" si="0">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A3, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B3, "'));")</f>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1008'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
+        <f t="shared" ref="C3:C10" si="1">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A3, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B3, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2015 Water Samples Data'));</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B4" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2029</v>
+      </c>
       <c r="C4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_I'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2015 Midwater Trawling Data'));</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B5" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2030</v>
+      </c>
       <c r="C5" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_II&amp;III'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2015 Active Acoustics Data'));</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B6" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>2020</v>
+      </c>
       <c r="C6" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_IV'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-07'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2017 Fall MOUSS Data Set'));</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2033</v>
+      </c>
       <c r="C7" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_I'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-07'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2017 CTD Data'));</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2034</v>
+      </c>
       <c r="C8" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_II&amp;III'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-18-06'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2018 CTD Data'));</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>2021</v>
+      </c>
       <c r="C9" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1201_LEG_IV'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-18-06'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2018 MOUSS Data Set'));</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-02'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2017 Spring MOUSS Data Set'));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f t="shared" ref="C11:C12" si="2">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A11, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B11, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-19-06'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2019 MOUSS Data Set'));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-19-06'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2019 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C25" s="5" t="str">
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A25, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B25, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1007'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2010 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C26" s="5" t="str">
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A26, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B26, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1007 (copy)'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2010 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C27" s="5" t="str">
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A27, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B27, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_I'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2011 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C28" s="5" t="str">
+        <f t="shared" ref="C28:C29" si="3">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A28, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B28, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_I'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2011 Fish REA Data'));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C29" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_I'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2011 Coral Belt Data'));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C30" s="5" t="str">
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A30, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B30, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_II'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2011 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="23" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C32" s="5" t="str">
+        <f t="shared" ref="C32:C44" si="4">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A32, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B32, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1102_LEG_I'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2011 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C33" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1102_LEG_I'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2011 Fish REA Data'));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C34" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1102_LEG_I'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2011 Coral Belt Data'));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C35" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1102_LEG_II'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2011 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C36" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1102_LEG_II'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2011 Fish REA Data'));</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C37" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1102_LEG_II'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2011 Water Samples Data'));</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI0401'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI0401'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI0602'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI0604'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI0609'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI0610'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI0611'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI0701'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B38" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C38" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI0401'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2004 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C39" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI0610 (copy)'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2006 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI1001_LEGI'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B40" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C40" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI1001_LEGI'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2010 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI1001_LEGII'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B41" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C41" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI1001_LEGII'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2010 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI1001_LEGIII'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_I'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_II'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_III'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_I'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_II'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HA1101_LEG_III'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0304'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0304'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0306'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0306'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0407'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0407'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0410'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0410'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="B42" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C42" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI1001_LEGIII'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2010 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>260</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0411_LEGI'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="B43" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C43" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0411_LEGI'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2004 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>261</v>
       </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0411_LEGII'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0504'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0504'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0504'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0506'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0506'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0506'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="B44" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C44" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0411_LEGII'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2004 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0509'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0509'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0509'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="5"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2115</v>
+      </c>
       <c r="C46" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0512'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="5"/>
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A46, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B46, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0607'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2006 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2117</v>
+      </c>
       <c r="C47" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0512'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="5"/>
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A47, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B47, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0706'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2007 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>337</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2037</v>
+      </c>
       <c r="C48" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0512'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="5"/>
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A48, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B48, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>338</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2037</v>
+      </c>
       <c r="C49" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0604'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0604'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="5"/>
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A49, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B49, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>340</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2037</v>
+      </c>
       <c r="C51" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0604'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="5"/>
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A51, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B51, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 4'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>341</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2037</v>
+      </c>
       <c r="C52" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0606'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="5"/>
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A52, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B52, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 5'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2037</v>
+      </c>
       <c r="C53" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0606'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="5"/>
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A53, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B53, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 6'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2027</v>
+      </c>
       <c r="C54" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0606'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="5"/>
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A54, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B54, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2015 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2029</v>
+      </c>
       <c r="C55" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0607'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="5"/>
+        <f t="shared" ref="C55:C59" si="5">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A55, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B55, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2015 Midwater Trawling Data'));</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2028</v>
+      </c>
       <c r="C56" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0607'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="5"/>
+        <f t="shared" si="5"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2015 Water Samples Data'));</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2027</v>
+      </c>
       <c r="C57" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0607'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="5"/>
+        <f t="shared" si="5"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2015 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2029</v>
+      </c>
       <c r="C58" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0608'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="5"/>
+        <f t="shared" si="5"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2015 Midwater Trawling Data'));</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2028</v>
+      </c>
       <c r="C59" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0608'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0608'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="5"/>
+        <f t="shared" si="5"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2015 Water Samples Data'));</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2118</v>
+      </c>
       <c r="C61" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0706'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="5"/>
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A61, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B61, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0201_LEGII'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2002 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2119</v>
+      </c>
       <c r="C62" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0706'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0706'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0908_LEGI'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'OES0908_LEGII'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5" t="str">
-        <f t="shared" ref="C67:C130" si="1">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A67, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B67, "'));")</f>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-15-01'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0005'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0005'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0009'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0009'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0011'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0011'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0012'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0012'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0108'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0108'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0109_LEGI'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0109_LEGII'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0110'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B83" s="5"/>
+        <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A62, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B62, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC-03-07'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2003 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C69" s="9" t="str">
+        <f t="shared" ref="C67:C112" si="6">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A69, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B69, "'));")</f>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-01 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C70" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-01 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Water Samples Data'));</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C71" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-01 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C72" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-01 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Water Samples Data'));</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B73" s="17" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C74" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-04 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C75" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-04 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C76" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-21-06'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Midwater Trawling Data'));</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C77" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-21-06'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Water Samples Data'));</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C78" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-21-06'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C79" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-21-07 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Midwater Trawling Data'));</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C80" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-21-07 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C82" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-21-08 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2036</v>
+      </c>
       <c r="C83" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0110'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B84" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-20-08 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2020 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2053</v>
+      </c>
       <c r="C84" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0111'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-20-08 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2020 Coral Belt Data'));</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2054</v>
+      </c>
       <c r="C85" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0111'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B86" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-20-08 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2020 Fish REA Data'));</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2036</v>
+      </c>
       <c r="C86" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0201_LEGI'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B87" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-20-08 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2020 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2053</v>
+      </c>
       <c r="C87" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0201_LEGII'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B88" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-20-08 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2020 Coral Belt Data'));</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2041</v>
+      </c>
       <c r="C88" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0207'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B89" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-20-08 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2020 Water Samples Data'));</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2036</v>
+      </c>
       <c r="C89" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC0207'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B90" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-20-09 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2020 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2036</v>
+      </c>
       <c r="C90" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC9905'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC9905'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B92" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-20-09 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2020 CTD Data'));</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="17" t="s">
+        <v>1924</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2052</v>
+      </c>
       <c r="C92" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC9906'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-06 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Fish REA Data'));</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2052</v>
+      </c>
       <c r="C93" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC9906'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-06 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Fish REA Data'));</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2051</v>
+      </c>
       <c r="C94" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC9908'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-07'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Coral Belt Data'));</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2043</v>
+      </c>
       <c r="C95" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC9908'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B96" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-07'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Water Samples Data'));</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2051</v>
+      </c>
       <c r="C96" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC9909_LEGI'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B97" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-08 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Coral Belt Data'));</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2051</v>
+      </c>
       <c r="C97" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC9909_LEGII'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B98" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-08 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Coral Belt Data'));</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2043</v>
+      </c>
       <c r="C98" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC9910'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B99" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-08 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Water Samples Data'));</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2051</v>
+      </c>
       <c r="C99" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'TC9910'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B100" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-09 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Coral Belt Data'));</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2051</v>
+      </c>
       <c r="C100" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-07'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B101" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-09 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 Coral Belt Data'));</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2047</v>
+      </c>
       <c r="C101" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-07'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B102" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-19-04 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2019 Coral Belt Data'));</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2047</v>
+      </c>
       <c r="C102" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-07'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B103" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-19-04 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2019 Coral Belt Data'));</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2047</v>
+      </c>
       <c r="C103" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-18-06'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B104" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-19-05 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2019 Coral Belt Data'));</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2047</v>
+      </c>
       <c r="C104" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-18-06'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B105" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-19-05 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2019 Coral Belt Data'));</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2048</v>
+      </c>
       <c r="C105" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-18-06'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B106" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-19-01 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2019 Fish REA Data'));</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2048</v>
+      </c>
       <c r="C106" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-02'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B107" s="5"/>
-      <c r="C107" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-02'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B108" s="5"/>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-19-01 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2019 Fish REA Data'));</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="22" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2048</v>
+      </c>
       <c r="C108" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-02'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>337</v>
-      </c>
-      <c r="C109" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>338</v>
-      </c>
-      <c r="C110" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>339</v>
-      </c>
-      <c r="C111" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 3'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>340</v>
-      </c>
-      <c r="C112" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 4'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>341</v>
-      </c>
-      <c r="C113" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 5'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>337</v>
-      </c>
-      <c r="C114" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>338</v>
-      </c>
-      <c r="C115" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>339</v>
-      </c>
-      <c r="C116" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 3'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>340</v>
-      </c>
-      <c r="C117" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 4'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>341</v>
-      </c>
-      <c r="C118" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 5'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>337</v>
-      </c>
-      <c r="C119" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>338</v>
-      </c>
-      <c r="C120" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>339</v>
-      </c>
-      <c r="C121" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 3'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>340</v>
-      </c>
-      <c r="C122" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 4'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>341</v>
-      </c>
-      <c r="C123" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'RL-17-05 Leg 5'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>342</v>
-      </c>
-      <c r="C124" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-06 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>343</v>
-      </c>
-      <c r="C125" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-06 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>344</v>
-      </c>
-      <c r="C126" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-06 Leg 3'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>342</v>
-      </c>
-      <c r="C127" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-06 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>343</v>
-      </c>
-      <c r="C128" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-06 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>344</v>
-      </c>
-      <c r="C129" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-06 Leg 3'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>342</v>
-      </c>
-      <c r="C130" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-06 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>343</v>
-      </c>
-      <c r="C131" s="5" t="str">
-        <f t="shared" ref="C131:C138" si="2">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A131, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B131, "'));")</f>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-06 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>344</v>
-      </c>
-      <c r="C132" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-17-06 Leg 3'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>334</v>
-      </c>
-      <c r="C133" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-19-01'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>334</v>
-      </c>
-      <c r="C134" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-19-01'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>335</v>
-      </c>
-      <c r="C135" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-18-03'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>335</v>
-      </c>
-      <c r="C136" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-18-03'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>2009</v>
-      </c>
-      <c r="C137" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-19-06'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>2009</v>
-      </c>
-      <c r="C138" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-19-06'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = ''));</v>
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'HI-19-02 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2019 Fish REA Data'));</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C109" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-22-01 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2022 Midwater Trawling Data'));</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C110" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-22-01 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2022 Midwater Trawling Data'));</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="22" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C112" s="9" t="str">
+        <f t="shared" si="6"/>
+        <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-22-02 Leg 2'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2022 CTD Data'));</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A25:D52">
+    <sortCondition ref="A25:A52"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -56258,7 +57257,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56455,10 +57454,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56472,31 +57471,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2023</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" t="s">
-        <v>2018</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C2" t="s">
         <v>110</v>
@@ -56514,10 +57513,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C3" t="s">
         <v>110</v>
@@ -56535,7 +57534,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -56554,7 +57553,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C5" t="s">
         <v>113</v>
@@ -56572,7 +57571,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C6" t="s">
         <v>141</v>
@@ -56587,7 +57586,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C7" t="s">
         <v>143</v>
@@ -56605,10 +57604,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C8" t="s">
         <v>110</v>
@@ -56623,10 +57622,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B9" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C9" t="s">
         <v>110</v>
@@ -56643,33 +57642,78 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = ''), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = ''));</v>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2016 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" t="s">
+        <v>156</v>
+      </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = ''), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = ''));</v>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2017 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = ''), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = ''));</v>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2018 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'PA'));</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s">
+        <v>154</v>
+      </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = ''), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = ''));</v>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2019 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'IA'));</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
+      </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = ''), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = ''));</v>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2020 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'QC'));</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -56684,37 +57728,590 @@
         <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = ''), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = ''));</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = ''), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = ''));</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = ''), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = ''));</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = ''), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = ''));</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F20" t="str">
         <f t="shared" si="0"/>
         <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = ''), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = ''));</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = ''), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = ''));</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" t="str">
+        <f>CONCATENATE("insert into ccd_data_sets (", A$1, ", ", B$1, ", ", C$1, ", ", D$1, ", ",E$1, ") values ('", SUBSTITUTE(A27, "'", "''"), "', '", SUBSTITUTE(B27, "'", "''"), "', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = '", C27, "'), '", D27, "', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = '", E27, "'));")</f>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2019 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" ref="F28:F38" si="1">CONCATENATE("insert into ccd_data_sets (", A$1, ", ", B$1, ", ", C$1, ", ", D$1, ", ",E$1, ") values ('", SUBSTITUTE(A28, "'", "''"), "', '", SUBSTITUTE(B28, "'", "''"), "', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = '", C28, "'), '", D28, "', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = '", E28, "'));")</f>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2020 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2021 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'PA'));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2022 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'IA'));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2019 Water Samples Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Water Samples'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2019 Midwater Trawling Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Midwater Trawling'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2020 Water Samples Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Water Samples'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2020 Midwater Trawling Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Midwater Trawling'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2021 Water Samples Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Water Samples'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'IA'));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2021 Midwater Trawling Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Midwater Trawling'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'IA'));</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>170</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2022 Water Samples Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Water Samples'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'QC'));</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>157</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2022 Midwater Trawling Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Midwater Trawling'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'COL'));</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" ref="F39:F46" si="2">CONCATENATE("insert into ccd_data_sets (", A$1, ", ", B$1, ", ", C$1, ", ", D$1, ", ",E$1, ") values ('", SUBSTITUTE(A39, "'", "''"), "', '", SUBSTITUTE(B39, "'", "''"), "', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = '", C39, "'), '", D39, "', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = '", E39, "'));")</f>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2019 Coral Belt Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Coral Belt'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2019 Fish REA Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Fish REA'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2020 Coral Belt Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Coral Belt'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'PA'));</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2020 Fish REA Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Fish REA'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'IA'));</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2021 Coral Belt Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Coral Belt'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2021 Fish REA Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Fish REA'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2022 Coral Belt Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Coral Belt'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'PA'));</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2022 Fish REA Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Fish REA'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'IA'));</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F52" t="str">
+        <f>CONCATENATE("insert into ccd_data_sets (", A$1, ", ", B$1, ", ", C$1, ", ", D$1, ", ",E$1, ") values ('", SUBSTITUTE(A52, "'", "''"), "', '", SUBSTITUTE(B52, "'", "''"), "', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = '", C52, "'), '", D52, "', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = '", E52, "'));")</f>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2002 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" t="s">
+        <v>156</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" ref="F53:F55" si="3">CONCATENATE("insert into ccd_data_sets (", A$1, ", ", B$1, ", ", C$1, ", ", D$1, ", ",E$1, ") values ('", SUBSTITUTE(A53, "'", "''"), "', '", SUBSTITUTE(B53, "'", "''"), "', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = '", C53, "'), '", D53, "', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = '", E53, "'));")</f>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2003 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2004 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'PA'));</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
+        <v>154</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2005 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'IA'));</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" t="s">
+        <v>156</v>
+      </c>
+      <c r="F56" t="str">
+        <f>CONCATENATE("insert into ccd_data_sets (", A$1, ", ", B$1, ", ", C$1, ", ", D$1, ", ",E$1, ") values ('", SUBSTITUTE(A56, "'", "''"), "', '", SUBSTITUTE(B56, "'", "''"), "', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = '", C56, "'), '", D56, "', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = '", E56, "'));")</f>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2006 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" ref="F57:F59" si="4">CONCATENATE("insert into ccd_data_sets (", A$1, ", ", B$1, ", ", C$1, ", ", D$1, ", ",E$1, ") values ('", SUBSTITUTE(A57, "'", "''"), "', '", SUBSTITUTE(B57, "'", "''"), "', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = '", C57, "'), '", D57, "', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = '", E57, "'));")</f>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2007 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" t="s">
+        <v>155</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2010 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'PA'));</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" t="s">
+        <v>154</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2011 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'IA'));</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" t="str">
+        <f>CONCATENATE("insert into ccd_data_sets (", A$1, ", ", B$1, ", ", C$1, ", ", D$1, ", ",E$1, ") values ('", SUBSTITUTE(A60, "'", "''"), "', '", SUBSTITUTE(B60, "'", "''"), "', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = '", C60, "'), '", D60, "', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = '", E60, "'));")</f>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2015 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C61" t="s">
+        <v>111</v>
+      </c>
+      <c r="E61" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" ref="F61:F67" si="5">CONCATENATE("insert into ccd_data_sets (", A$1, ", ", B$1, ", ", C$1, ", ", D$1, ", ",E$1, ") values ('", SUBSTITUTE(A61, "'", "''"), "', '", SUBSTITUTE(B61, "'", "''"), "', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = '", C61, "'), '", D61, "', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = '", E61, "'));")</f>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2017 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2037</v>
+      </c>
+      <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" t="s">
+        <v>155</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2021 CTD Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'CTD'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'PA'));</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2015 Midwater Trawling Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Midwater Trawling'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C64" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2015 Water Samples Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Water Samples'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" t="s">
+        <v>156</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2011 Fish REA Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Fish REA'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" t="s">
+        <v>155</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2011 Coral Belt Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Coral Belt'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'PA'));</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C67" t="s">
+        <v>113</v>
+      </c>
+      <c r="E67" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="5"/>
+        <v>insert into ccd_data_sets (DATA_SET_NAME, DATA_SET_DESC, DATA_SET_TYPE_ID, DATA_SET_INPORT_CAT_ID, DATA_SET_STATUS_ID) values ('2011 Water Samples Data', '', (SELECT DATA_SET_TYPE_ID FROM CCD_DATA_SET_TYPES WHERE DATA_SET_TYPE_NAME = 'Water Samples'), '', (SELECT DATA_SET_STATUS_ID FROM CCD_DATA_SET_STATUS where status_code = 'ARCH'));</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A52:A62">
+    <sortCondition ref="A52:A62"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/docs/Cruise_Leg_DDL_DML_generator.xlsx
+++ b/docs/Cruise_Leg_DDL_DML_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Vessels" sheetId="10" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5499" uniqueCount="2125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5501" uniqueCount="2126">
   <si>
     <t>Cruise Name</t>
   </si>
@@ -6515,6 +6515,9 @@
   <si>
     <t>Missing Leg Data Set
 Used in Category 5 too</t>
+  </si>
+  <si>
+    <t>Don't include in test category 5 (the cruise is deleted)</t>
   </si>
 </sst>
 </file>
@@ -6648,7 +6651,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6679,6 +6682,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -43347,9 +43351,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K153"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87:B122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43358,9 +43362,10 @@
     <col min="2" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="65.5703125" customWidth="1"/>
     <col min="6" max="8" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1708</v>
       </c>
@@ -43388,8 +43393,11 @@
       <c r="I1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -43416,7 +43424,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-17-07', TO_DATE('10/20/2017', 'MM/DD/YYYY'), TO_DATE('11/03/2017', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -43443,7 +43451,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-18-06', TO_DATE('10/17/2018', 'MM/DD/YYYY'), TO_DATE('10/31/2018', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-18-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -43470,7 +43478,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-17-02', TO_DATE('3/1/2017', 'MM/DD/YYYY'), TO_DATE('3/15/2017', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -43497,7 +43505,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-15-01', TO_DATE('4/3/2015', 'MM/DD/YYYY'), TO_DATE('4/14/2015', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -43524,7 +43532,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1201_LEG_I', TO_DATE('2/27/2012', 'MM/DD/YYYY'), TO_DATE('3/25/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -43551,7 +43559,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1201_LEG_II&amp;III', TO_DATE('4/1/2012', 'MM/DD/YYYY'), TO_DATE('4/27/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -43578,7 +43586,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1201_LEG_IV', TO_DATE('4/27/2012', 'MM/DD/YYYY'), TO_DATE('5/24/2012', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1201'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -43605,7 +43613,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_I', TO_DATE('3/10/2011', 'MM/DD/YYYY'), TO_DATE('4/5/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -43632,7 +43640,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_II', TO_DATE('4/7/2011', 'MM/DD/YYYY'), TO_DATE('5/9/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -43659,7 +43667,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_III', TO_DATE('5/12/2011', 'MM/DD/YYYY'), TO_DATE('5/24/2011', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -43686,7 +43694,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1007', TO_DATE('9/4/2010', 'MM/DD/YYYY'), TO_DATE('9/29/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1007'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -43713,7 +43721,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1008', TO_DATE('10/7/2010', 'MM/DD/YYYY'), TO_DATE('11/5/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1008'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -43740,7 +43748,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0401', TO_DATE('9/13/2004', 'MM/DD/YYYY'), TO_DATE('10/17/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0401'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -43767,7 +43775,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0602', TO_DATE('2/9/2006', 'MM/DD/YYYY'), TO_DATE('3/10/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0602'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -46789,7 +46797,9 @@
         <f t="shared" si="4"/>
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0509', TO_DATE('07/19/2005', 'MM/DD/YYYY'), TO_DATE('08/05/2005', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0509'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
-      <c r="J131" s="19"/>
+      <c r="J131" s="24" t="s">
+        <v>2125</v>
+      </c>
       <c r="K131" s="19"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -55644,7 +55654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -56290,7 +56300,7 @@
         <v>2037</v>
       </c>
       <c r="C69" s="9" t="str">
-        <f t="shared" ref="C67:C112" si="6">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A69, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B69, "'));")</f>
+        <f t="shared" ref="C69:C112" si="6">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A69, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B69, "'));")</f>
         <v>insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = 'SE-21-01 Leg 1'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '2021 CTD Data'));</v>
       </c>
     </row>

--- a/docs/Cruise_Leg_DDL_DML_generator.xlsx
+++ b/docs/Cruise_Leg_DDL_DML_generator.xlsx
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5501" uniqueCount="2126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5501" uniqueCount="2133">
   <si>
     <t>Cruise Name</t>
   </si>
@@ -6181,9 +6181,6 @@
   </si>
   <si>
     <t>SE1906</t>
-  </si>
-  <si>
-    <t>-10:00</t>
   </si>
   <si>
     <t>TZ_NAME</t>
@@ -6518,6 +6515,30 @@
   </si>
   <si>
     <t>Don't include in test category 5 (the cruise is deleted)</t>
+  </si>
+  <si>
+    <t>Etc/GMT+10</t>
+  </si>
+  <si>
+    <t>ASDF JKL;</t>
+  </si>
+  <si>
+    <t>+09:00</t>
+  </si>
+  <si>
+    <t>Hawaii Standard Time</t>
+  </si>
+  <si>
+    <t>Eastern US Time</t>
+  </si>
+  <si>
+    <t>Mountain/Pacific Time</t>
+  </si>
+  <si>
+    <t>Something else</t>
+  </si>
+  <si>
+    <t>IDK What is this field?</t>
   </si>
 </sst>
 </file>
@@ -6651,7 +6672,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6683,6 +6704,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -43352,8 +43374,8 @@
   <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43388,13 +43410,13 @@
         <v>1716</v>
       </c>
       <c r="H1" t="s">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I1" t="s">
         <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43417,7 +43439,7 @@
         <v>1040</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I2" s="5" t="str">
         <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B2, "'", "''"), "', TO_DATE('", C2, "', 'MM/DD/YYYY'), TO_DATE('", D2, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E2, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F2, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A2, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G2, "'", "''"), "'), '", H2, "');")</f>
@@ -43444,11 +43466,11 @@
         <v>1040</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I3" s="5" t="str">
         <f t="shared" ref="I3:I66" si="0">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B3, "'", "''"), "', TO_DATE('", C3, "', 'MM/DD/YYYY'), TO_DATE('", D3, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E3, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F3, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A3, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G3, "'", "''"), "'), '", H3, "');")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-18-06', TO_DATE('10/17/2018', 'MM/DD/YYYY'), TO_DATE('10/31/2018', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-18-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-18-06', TO_DATE('10/17/2018', 'MM/DD/YYYY'), TO_DATE('10/31/2018', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-18-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43471,11 +43493,11 @@
         <v>1040</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-17-02', TO_DATE('3/1/2017', 'MM/DD/YYYY'), TO_DATE('3/15/2017', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-17-02', TO_DATE('3/1/2017', 'MM/DD/YYYY'), TO_DATE('3/15/2017', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-17-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43498,11 +43520,11 @@
         <v>1040</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-15-01', TO_DATE('4/3/2015', 'MM/DD/YYYY'), TO_DATE('4/14/2015', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-15-01', TO_DATE('4/3/2015', 'MM/DD/YYYY'), TO_DATE('4/14/2015', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -43525,7 +43547,7 @@
         <v>1040</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I6" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43552,7 +43574,7 @@
         <v>1040</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I7" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43579,7 +43601,7 @@
         <v>1040</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I8" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43606,7 +43628,7 @@
         <v>1040</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I9" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43633,7 +43655,7 @@
         <v>1040</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I10" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43660,7 +43682,7 @@
         <v>1040</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43687,7 +43709,7 @@
         <v>1040</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I12" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43714,7 +43736,7 @@
         <v>1040</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I13" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43741,7 +43763,7 @@
         <v>1040</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I14" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43768,7 +43790,7 @@
         <v>1040</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I15" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43795,7 +43817,7 @@
         <v>1040</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I16" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43822,7 +43844,7 @@
         <v>1040</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43849,7 +43871,7 @@
         <v>1040</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43876,7 +43898,7 @@
         <v>1040</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43903,7 +43925,7 @@
         <v>1040</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43930,7 +43952,7 @@
         <v>1040</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I21" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43957,7 +43979,7 @@
         <v>1040</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I22" s="5" t="str">
         <f t="shared" si="0"/>
@@ -43984,11 +44006,11 @@
         <v>1040</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGIII', TO_DATE('3/27/2010', 'MM/DD/YYYY'), TO_DATE('4/24/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGIII', TO_DATE('3/27/2010', 'MM/DD/YYYY'), TO_DATE('4/24/2010', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44011,11 +44033,11 @@
         <v>1040</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0304', TO_DATE('5/13/2003', 'MM/DD/YYYY'), TO_DATE('5/28/2003', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0304'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0304', TO_DATE('5/13/2003', 'MM/DD/YYYY'), TO_DATE('5/28/2003', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0304'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44038,11 +44060,11 @@
         <v>1040</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0306', TO_DATE('7/12/2003', 'MM/DD/YYYY'), TO_DATE('8/17/2003', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0306'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0306', TO_DATE('7/12/2003', 'MM/DD/YYYY'), TO_DATE('8/17/2003', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0306'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44065,11 +44087,11 @@
         <v>1040</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0407', TO_DATE('5/30/2004', 'MM/DD/YYYY'), TO_DATE('6/14/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0407'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0407', TO_DATE('5/30/2004', 'MM/DD/YYYY'), TO_DATE('6/14/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0407'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44092,11 +44114,11 @@
         <v>1040</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0410', TO_DATE('7/30/2004', 'MM/DD/YYYY'), TO_DATE('8/16/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0410'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0410', TO_DATE('7/30/2004', 'MM/DD/YYYY'), TO_DATE('8/16/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0410'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44119,11 +44141,11 @@
         <v>1040</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGI', TO_DATE('8/7/2004', 'MM/DD/YYYY'), TO_DATE('9/7/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGI', TO_DATE('8/7/2004', 'MM/DD/YYYY'), TO_DATE('9/7/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44146,11 +44168,11 @@
         <v>1040</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGII', TO_DATE('9/8/2004', 'MM/DD/YYYY'), TO_DATE('9/13/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGII', TO_DATE('9/8/2004', 'MM/DD/YYYY'), TO_DATE('9/13/2004', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44173,11 +44195,11 @@
         <v>1040</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0504', TO_DATE('3/21/2005', 'MM/DD/YYYY'), TO_DATE('4/3/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0504'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0504', TO_DATE('3/21/2005', 'MM/DD/YYYY'), TO_DATE('4/3/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0504'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44200,11 +44222,11 @@
         <v>1040</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0506', TO_DATE('5/5/2005', 'MM/DD/YYYY'), TO_DATE('5/20/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0506'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0506', TO_DATE('5/5/2005', 'MM/DD/YYYY'), TO_DATE('5/20/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0506'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44227,11 +44249,11 @@
         <v>1040</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0509', TO_DATE('7/19/2005', 'MM/DD/YYYY'), TO_DATE('8/5/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0509'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0509', TO_DATE('7/19/2005', 'MM/DD/YYYY'), TO_DATE('8/5/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0509'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44254,11 +44276,11 @@
         <v>1040</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0512', TO_DATE('10/3/2005', 'MM/DD/YYYY'), TO_DATE('10/9/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0512'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0512', TO_DATE('10/3/2005', 'MM/DD/YYYY'), TO_DATE('10/9/2005', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0512'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44281,11 +44303,11 @@
         <v>1040</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>2014</v>
+        <v>2125</v>
       </c>
       <c r="I34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0604', TO_DATE('4/6/2006', 'MM/DD/YYYY'), TO_DATE('4/17/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0604'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '-10:00');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0604', TO_DATE('4/6/2006', 'MM/DD/YYYY'), TO_DATE('4/17/2006', 'MM/DD/YYYY'), '', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0604'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Etc/GMT+10');</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -44308,7 +44330,7 @@
         <v>1040</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I35" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44335,7 +44357,7 @@
         <v>1040</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I36" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44362,7 +44384,7 @@
         <v>1040</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I37" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44389,7 +44411,7 @@
         <v>1040</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I38" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44416,7 +44438,7 @@
         <v>1040</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I39" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44443,7 +44465,7 @@
         <v>1040</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I40" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44470,7 +44492,7 @@
         <v>1040</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I41" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44497,7 +44519,7 @@
         <v>1040</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I42" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44524,7 +44546,7 @@
         <v>1040</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I43" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44551,7 +44573,7 @@
         <v>1040</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I44" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44578,7 +44600,7 @@
         <v>1040</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I45" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44605,7 +44627,7 @@
         <v>1040</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I46" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44632,7 +44654,7 @@
         <v>1040</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I47" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44659,7 +44681,7 @@
         <v>1040</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I48" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44686,7 +44708,7 @@
         <v>1040</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I49" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44713,7 +44735,7 @@
         <v>1040</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I50" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44740,7 +44762,7 @@
         <v>1040</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I51" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44767,7 +44789,7 @@
         <v>1040</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I52" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44794,7 +44816,7 @@
         <v>1040</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I53" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44821,7 +44843,7 @@
         <v>1040</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I54" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44848,7 +44870,7 @@
         <v>1040</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I55" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44875,7 +44897,7 @@
         <v>1040</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I56" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44902,7 +44924,7 @@
         <v>1040</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I57" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44932,7 +44954,7 @@
         <v>1040</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I58" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44962,7 +44984,7 @@
         <v>1040</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I59" s="5" t="str">
         <f t="shared" si="0"/>
@@ -44992,7 +45014,7 @@
         <v>1040</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I60" s="5" t="str">
         <f t="shared" si="0"/>
@@ -45022,7 +45044,7 @@
         <v>1040</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I61" s="5" t="str">
         <f t="shared" si="0"/>
@@ -45052,7 +45074,7 @@
         <v>1040</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I62" s="5" t="str">
         <f t="shared" si="0"/>
@@ -45082,7 +45104,7 @@
         <v>1040</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I63" s="5" t="str">
         <f t="shared" si="0"/>
@@ -45112,7 +45134,7 @@
         <v>1040</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I64" s="5" t="str">
         <f t="shared" si="0"/>
@@ -45142,7 +45164,7 @@
         <v>1040</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I65" s="5" t="str">
         <f t="shared" si="0"/>
@@ -45172,7 +45194,7 @@
         <v>1040</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I66" s="5" t="str">
         <f t="shared" si="0"/>
@@ -45202,7 +45224,7 @@
         <v>1040</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I67" s="5" t="str">
         <f t="shared" ref="I67:I69" si="1">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B67, "'", "''"), "', TO_DATE('", C67, "', 'MM/DD/YYYY'), TO_DATE('", D67, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E67, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F67, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A67, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G67, "'", "''"), "'), '", H67, "');")</f>
@@ -45232,7 +45254,7 @@
         <v>1040</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I68" s="5" t="str">
         <f t="shared" si="1"/>
@@ -45262,7 +45284,7 @@
         <v>1040</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I69" s="5" t="str">
         <f t="shared" si="1"/>
@@ -45301,7 +45323,7 @@
         <v>1040</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I72" s="5" t="str">
         <f t="shared" ref="I72:I78" si="2">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B72, "'", "''"), "', TO_DATE('", C72, "', 'MM/DD/YYYY'), TO_DATE('", D72, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E72, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F72, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A72, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G72, "'", "''"), "'), '", H72, "');")</f>
@@ -45331,7 +45353,7 @@
         <v>1040</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I73" s="5" t="str">
         <f t="shared" si="2"/>
@@ -45361,7 +45383,7 @@
         <v>1040</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I74" s="5" t="str">
         <f t="shared" si="2"/>
@@ -45391,7 +45413,7 @@
         <v>1040</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I75" s="5" t="str">
         <f t="shared" si="2"/>
@@ -45421,7 +45443,7 @@
         <v>1040</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I76" s="5" t="str">
         <f t="shared" si="2"/>
@@ -45451,7 +45473,7 @@
         <v>1040</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I77" s="5" t="str">
         <f t="shared" si="2"/>
@@ -45481,7 +45503,7 @@
         <v>1040</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I78" s="5" t="str">
         <f t="shared" si="2"/>
@@ -45511,7 +45533,7 @@
         <v>1040</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I81" s="5" t="str">
         <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B81, "'", "''"), "', TO_DATE('", C81, "', 'MM/DD/YYYY'), TO_DATE('", D81, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E81, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F81, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A81, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G81, "'", "''"), "'), '", H81, "');")</f>
@@ -45520,7 +45542,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -45546,7 +45568,7 @@
         <v>1040</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I87" s="5" t="str">
         <f t="shared" ref="I87:I122" si="3">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B87, "'", "''"), "', TO_DATE('", C87, "', 'MM/DD/YYYY'), TO_DATE('", D87, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E87, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F87, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A87, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G87, "'", "''"), "'), '", H87, "');")</f>
@@ -45576,7 +45598,7 @@
         <v>1040</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I88" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45605,12 +45627,12 @@
       <c r="G89" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H89" s="6" t="s">
-        <v>2016</v>
+      <c r="H89" s="25" t="s">
+        <v>2132</v>
       </c>
       <c r="I89" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-01 Leg 1', TO_DATE('10/15/2020', 'MM/DD/YYYY'), TO_DATE('10/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-01 Leg 1', TO_DATE('10/15/2020', 'MM/DD/YYYY'), TO_DATE('10/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'IDK What is this field?');</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -45636,7 +45658,7 @@
         <v>1040</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I90" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45666,7 +45688,7 @@
         <v>1040</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I91" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45696,7 +45718,7 @@
         <v>1040</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I92" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45726,7 +45748,7 @@
         <v>1040</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I93" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45756,7 +45778,7 @@
         <v>1040</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I94" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45786,7 +45808,7 @@
         <v>1040</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I95" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45816,7 +45838,7 @@
         <v>1040</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I96" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45846,7 +45868,7 @@
         <v>1040</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I97" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45876,7 +45898,7 @@
         <v>1040</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I98" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45905,12 +45927,12 @@
       <c r="G99" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H99" s="6" t="s">
-        <v>2016</v>
+      <c r="H99" s="25" t="s">
+        <v>2131</v>
       </c>
       <c r="I99" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-08 Leg 1', TO_DATE('6/10/2020', 'MM/DD/YYYY'), TO_DATE('6/29/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-08 Leg 1', TO_DATE('6/10/2020', 'MM/DD/YYYY'), TO_DATE('6/29/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Something else');</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -45936,7 +45958,7 @@
         <v>1040</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I100" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45966,7 +45988,7 @@
         <v>1040</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I101" s="5" t="str">
         <f t="shared" si="3"/>
@@ -45996,7 +46018,7 @@
         <v>1040</v>
       </c>
       <c r="H102" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I102" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46026,7 +46048,7 @@
         <v>1040</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I103" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46056,7 +46078,7 @@
         <v>1040</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I104" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46086,7 +46108,7 @@
         <v>1040</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I105" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46116,7 +46138,7 @@
         <v>1040</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I106" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46146,7 +46168,7 @@
         <v>1040</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I107" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46176,7 +46198,7 @@
         <v>1040</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I108" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46206,7 +46228,7 @@
         <v>1040</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I109" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46236,7 +46258,7 @@
         <v>1040</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I110" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46266,7 +46288,7 @@
         <v>1040</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I111" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46295,12 +46317,12 @@
       <c r="G112" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H112" s="6" t="s">
-        <v>2016</v>
+      <c r="H112" s="25" t="s">
+        <v>2130</v>
       </c>
       <c r="I112" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-04 Leg 2', TO_DATE('6/19/2019', 'MM/DD/YYYY'), TO_DATE('7/12/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-04 Leg 2', TO_DATE('6/19/2019', 'MM/DD/YYYY'), TO_DATE('7/12/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Mountain/Pacific Time');</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -46326,7 +46348,7 @@
         <v>1040</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I113" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46356,7 +46378,7 @@
         <v>1040</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I114" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46386,7 +46408,7 @@
         <v>1040</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I115" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46416,7 +46438,7 @@
         <v>1040</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I116" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46446,7 +46468,7 @@
         <v>1040</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I117" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46476,7 +46498,7 @@
         <v>1040</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I118" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46506,7 +46528,7 @@
         <v>1040</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I119" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46535,12 +46557,12 @@
       <c r="G120" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H120" s="6" t="s">
-        <v>2016</v>
+      <c r="H120" s="25" t="s">
+        <v>2129</v>
       </c>
       <c r="I120" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-01 Leg 2', TO_DATE('11/15/2021', 'MM/DD/YYYY'), TO_DATE('12/4/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-01 Leg 2', TO_DATE('11/15/2021', 'MM/DD/YYYY'), TO_DATE('12/4/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Eastern US Time');</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -46566,7 +46588,7 @@
         <v>1040</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I121" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46596,7 +46618,7 @@
         <v>1040</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I122" s="5" t="str">
         <f t="shared" si="3"/>
@@ -46605,7 +46627,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
@@ -46616,13 +46638,13 @@
         <v>327</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="E126" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F126" t="s">
         <v>94</v>
@@ -46631,7 +46653,7 @@
         <v>1040</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I126" s="5" t="str">
         <f t="shared" ref="I126:I153" si="4">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B126, "'", "''"), "', TO_DATE('", C126, "', 'MM/DD/YYYY'), TO_DATE('", D126, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E126, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F126, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A126, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G126, "'", "''"), "'), '", H126, "');")</f>
@@ -46648,13 +46670,13 @@
         <v>95</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="E127" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F127" t="s">
         <v>94</v>
@@ -46663,7 +46685,7 @@
         <v>1040</v>
       </c>
       <c r="H127" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I127" s="5" t="str">
         <f t="shared" si="4"/>
@@ -46680,13 +46702,13 @@
         <v>1862</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="E128" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F128" t="s">
         <v>1862</v>
@@ -46695,7 +46717,7 @@
         <v>1040</v>
       </c>
       <c r="H128" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I128" s="5" t="str">
         <f t="shared" si="4"/>
@@ -46712,13 +46734,13 @@
         <v>260</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="E129" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F129" t="s">
         <v>40</v>
@@ -46727,7 +46749,7 @@
         <v>1040</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I129" s="5" t="str">
         <f t="shared" si="4"/>
@@ -46744,13 +46766,13 @@
         <v>10</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="E130" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F130" t="s">
         <v>10</v>
@@ -46759,7 +46781,7 @@
         <v>1040</v>
       </c>
       <c r="H130" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I130" s="5" t="str">
         <f t="shared" si="4"/>
@@ -46776,13 +46798,13 @@
         <v>47</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="E131" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F131" t="s">
         <v>47</v>
@@ -46791,14 +46813,14 @@
         <v>1040</v>
       </c>
       <c r="H131" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I131" s="5" t="str">
         <f t="shared" si="4"/>
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0509', TO_DATE('07/19/2005', 'MM/DD/YYYY'), TO_DATE('08/05/2005', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0509'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
       <c r="J131" s="24" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="K131" s="19"/>
     </row>
@@ -46810,13 +46832,13 @@
         <v>261</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="E132" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F132" t="s">
         <v>40</v>
@@ -46824,12 +46846,12 @@
       <c r="G132" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H132" s="6" t="s">
-        <v>2016</v>
+      <c r="H132" s="25" t="s">
+        <v>2128</v>
       </c>
       <c r="I132" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGII', TO_DATE('09/08/2005', 'MM/DD/YYYY'), TO_DATE('09/13/2005', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGII', TO_DATE('09/08/2005', 'MM/DD/YYYY'), TO_DATE('09/13/2005', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Hawaii Standard Time');</v>
       </c>
       <c r="J132" s="19"/>
       <c r="K132" s="19"/>
@@ -46842,13 +46864,13 @@
         <v>59</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="E133" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F133" t="s">
         <v>59</v>
@@ -46857,7 +46879,7 @@
         <v>1040</v>
       </c>
       <c r="H133" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I133" s="5" t="str">
         <f t="shared" si="4"/>
@@ -46871,16 +46893,16 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="E134" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F134" t="s">
         <v>15</v>
@@ -46889,7 +46911,7 @@
         <v>1040</v>
       </c>
       <c r="H134" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I134" s="5" t="str">
         <f t="shared" si="4"/>
@@ -46906,13 +46928,13 @@
         <v>65</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="E135" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F135" t="s">
         <v>65</v>
@@ -46921,7 +46943,7 @@
         <v>1040</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I135" s="5" t="str">
         <f t="shared" si="4"/>
@@ -46938,13 +46960,13 @@
         <v>19</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="E136" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F136" t="s">
         <v>18</v>
@@ -46953,7 +46975,7 @@
         <v>1040</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I136" s="5" t="str">
         <f t="shared" si="4"/>
@@ -46970,13 +46992,13 @@
         <v>20</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="E137" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F137" t="s">
         <v>18</v>
@@ -46984,12 +47006,12 @@
       <c r="G137" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H137" s="6" t="s">
-        <v>2016</v>
+      <c r="H137" s="25" t="s">
+        <v>2126</v>
       </c>
       <c r="I137" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGII', TO_DATE('03/21/2010', 'MM/DD/YYYY'), TO_DATE('06/30/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGII', TO_DATE('03/21/2010', 'MM/DD/YYYY'), TO_DATE('06/30/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'ASDF JKL;');</v>
       </c>
       <c r="J137" s="19"/>
       <c r="K137" s="19"/>
@@ -47002,13 +47024,13 @@
         <v>21</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="E138" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F138" t="s">
         <v>18</v>
@@ -47017,7 +47039,7 @@
         <v>1040</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I138" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47034,13 +47056,13 @@
         <v>3</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E139" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F139" t="s">
         <v>3</v>
@@ -47049,7 +47071,7 @@
         <v>1040</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I139" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47066,13 +47088,13 @@
         <v>1863</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="E140" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F140" t="s">
         <v>1863</v>
@@ -47081,7 +47103,7 @@
         <v>1040</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I140" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47098,13 +47120,13 @@
         <v>187</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="E141" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F141" t="s">
         <v>23</v>
@@ -47113,7 +47135,7 @@
         <v>1040</v>
       </c>
       <c r="H141" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I141" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47130,13 +47152,13 @@
         <v>324</v>
       </c>
       <c r="C142" s="20" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="D142" s="20" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="E142" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F142" t="s">
         <v>23</v>
@@ -47145,7 +47167,7 @@
         <v>1040</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I142" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47162,13 +47184,13 @@
         <v>325</v>
       </c>
       <c r="C143" s="20" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="D143" s="20" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="E143" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F143" t="s">
         <v>23</v>
@@ -47177,7 +47199,7 @@
         <v>1040</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I143" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47194,22 +47216,22 @@
         <v>1869</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="D144" s="20" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="E144" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F144" t="s">
         <v>2060</v>
-      </c>
-      <c r="F144" t="s">
-        <v>2061</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I144" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47226,22 +47248,22 @@
         <v>1870</v>
       </c>
       <c r="C145" s="20" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D145" s="20" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="E145" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F145" t="s">
         <v>2060</v>
-      </c>
-      <c r="F145" t="s">
-        <v>2061</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I145" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47258,13 +47280,13 @@
         <v>1867</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="D146" s="20" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="E146" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F146" t="s">
         <v>75</v>
@@ -47273,7 +47295,7 @@
         <v>1040</v>
       </c>
       <c r="H146" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I146" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47290,13 +47312,13 @@
         <v>1868</v>
       </c>
       <c r="C147" s="20" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="D147" s="20" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="E147" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F147" t="s">
         <v>75</v>
@@ -47305,7 +47327,7 @@
         <v>1040</v>
       </c>
       <c r="H147" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I147" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47322,13 +47344,13 @@
         <v>337</v>
       </c>
       <c r="C148" s="20" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="D148" s="20" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="E148" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F148" t="s">
         <v>333</v>
@@ -47337,7 +47359,7 @@
         <v>1040</v>
       </c>
       <c r="H148" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I148" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47354,13 +47376,13 @@
         <v>338</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="D149" s="20" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="E149" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F149" t="s">
         <v>333</v>
@@ -47368,12 +47390,12 @@
       <c r="G149" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H149" s="6" t="s">
-        <v>2016</v>
+      <c r="H149" s="25" t="s">
+        <v>2127</v>
       </c>
       <c r="I149" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 2', TO_DATE('09/11/2017', 'MM/DD/YYYY'), TO_DATE('09/30/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 2', TO_DATE('09/11/2017', 'MM/DD/YYYY'), TO_DATE('09/30/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '+09:00');</v>
       </c>
       <c r="J149" s="19"/>
       <c r="K149" s="19"/>
@@ -47386,13 +47408,13 @@
         <v>339</v>
       </c>
       <c r="C150" s="20" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="D150" s="20" t="s">
         <v>357</v>
       </c>
       <c r="E150" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F150" t="s">
         <v>333</v>
@@ -47401,7 +47423,7 @@
         <v>1040</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I150" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47421,10 +47443,10 @@
         <v>349</v>
       </c>
       <c r="D151" s="20" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E151" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F151" t="s">
         <v>333</v>
@@ -47433,7 +47455,7 @@
         <v>1040</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I151" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47453,10 +47475,10 @@
         <v>350</v>
       </c>
       <c r="D152" s="20" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="E152" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F152" t="s">
         <v>333</v>
@@ -47465,7 +47487,7 @@
         <v>1040</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I152" s="5" t="str">
         <f t="shared" si="4"/>
@@ -47482,13 +47504,13 @@
         <v>2007</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="D153" s="20" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="E153" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F153" t="s">
         <v>333</v>
@@ -47497,7 +47519,7 @@
         <v>1040</v>
       </c>
       <c r="H153" s="6" t="s">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I153" s="5" t="str">
         <f t="shared" si="4"/>
@@ -55654,7 +55676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D112"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -55671,7 +55693,7 @@
         <v>323</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="C1" t="s">
         <v>109</v>
@@ -55682,7 +55704,7 @@
         <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C2" s="5" t="str">
         <f t="shared" ref="C2" si="0">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A2, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B2, "'));")</f>
@@ -55694,7 +55716,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C10" si="1">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A3, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B3, "'));")</f>
@@ -55706,7 +55728,7 @@
         <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="1"/>
@@ -55718,7 +55740,7 @@
         <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="1"/>
@@ -55730,7 +55752,7 @@
         <v>139</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="1"/>
@@ -55742,7 +55764,7 @@
         <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" si="1"/>
@@ -55754,7 +55776,7 @@
         <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" si="1"/>
@@ -55766,7 +55788,7 @@
         <v>145</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="1"/>
@@ -55778,7 +55800,7 @@
         <v>147</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" si="1"/>
@@ -55790,7 +55812,7 @@
         <v>2008</v>
       </c>
       <c r="B11" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" ref="C11:C12" si="2">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A11, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B11, "'));")</f>
@@ -55802,7 +55824,7 @@
         <v>2008</v>
       </c>
       <c r="B12" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" si="2"/>
@@ -55811,10 +55833,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="D24" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -55822,7 +55844,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A25, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B25, "'));")</f>
@@ -55834,7 +55856,7 @@
         <v>1863</v>
       </c>
       <c r="B26" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C26" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A26, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B26, "'));")</f>
@@ -55846,7 +55868,7 @@
         <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C27" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A27, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B27, "'));")</f>
@@ -55858,7 +55880,7 @@
         <v>187</v>
       </c>
       <c r="B28" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" ref="C28:C29" si="3">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A28, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B28, "'));")</f>
@@ -55870,7 +55892,7 @@
         <v>187</v>
       </c>
       <c r="B29" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" si="3"/>
@@ -55882,7 +55904,7 @@
         <v>324</v>
       </c>
       <c r="B30" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C30" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A30, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B30, "'));")</f>
@@ -55896,7 +55918,7 @@
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="23" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -55904,7 +55926,7 @@
         <v>1869</v>
       </c>
       <c r="B32" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" ref="C32:C44" si="4">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A32, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B32, "'));")</f>
@@ -55916,7 +55938,7 @@
         <v>1869</v>
       </c>
       <c r="B33" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" si="4"/>
@@ -55928,7 +55950,7 @@
         <v>1869</v>
       </c>
       <c r="B34" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" si="4"/>
@@ -55940,7 +55962,7 @@
         <v>1870</v>
       </c>
       <c r="B35" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" si="4"/>
@@ -55952,7 +55974,7 @@
         <v>1870</v>
       </c>
       <c r="B36" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" si="4"/>
@@ -55964,7 +55986,7 @@
         <v>1870</v>
       </c>
       <c r="B37" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" si="4"/>
@@ -55976,7 +55998,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" si="4"/>
@@ -55985,10 +56007,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="B39" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" si="4"/>
@@ -56000,7 +56022,7 @@
         <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" si="4"/>
@@ -56012,7 +56034,7 @@
         <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" si="4"/>
@@ -56024,7 +56046,7 @@
         <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" si="4"/>
@@ -56036,7 +56058,7 @@
         <v>260</v>
       </c>
       <c r="B43" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" si="4"/>
@@ -56048,7 +56070,7 @@
         <v>261</v>
       </c>
       <c r="B44" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" si="4"/>
@@ -56062,7 +56084,7 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -56070,7 +56092,7 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C46" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A46, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B46, "'));")</f>
@@ -56082,7 +56104,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C47" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A47, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B47, "'));")</f>
@@ -56094,7 +56116,7 @@
         <v>337</v>
       </c>
       <c r="B48" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C48" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A48, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B48, "'));")</f>
@@ -56106,7 +56128,7 @@
         <v>338</v>
       </c>
       <c r="B49" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C49" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A49, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B49, "'));")</f>
@@ -56120,7 +56142,7 @@
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -56128,7 +56150,7 @@
         <v>340</v>
       </c>
       <c r="B51" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C51" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A51, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B51, "'));")</f>
@@ -56140,7 +56162,7 @@
         <v>341</v>
       </c>
       <c r="B52" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C52" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A52, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B52, "'));")</f>
@@ -56152,7 +56174,7 @@
         <v>2007</v>
       </c>
       <c r="B53" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C53" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A53, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B53, "'));")</f>
@@ -56164,7 +56186,7 @@
         <v>1867</v>
       </c>
       <c r="B54" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C54" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A54, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B54, "'));")</f>
@@ -56176,7 +56198,7 @@
         <v>1867</v>
       </c>
       <c r="B55" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" ref="C55:C59" si="5">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A55, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B55, "'));")</f>
@@ -56188,7 +56210,7 @@
         <v>1867</v>
       </c>
       <c r="B56" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" si="5"/>
@@ -56200,7 +56222,7 @@
         <v>1868</v>
       </c>
       <c r="B57" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" si="5"/>
@@ -56212,7 +56234,7 @@
         <v>1868</v>
       </c>
       <c r="B58" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" si="5"/>
@@ -56224,7 +56246,7 @@
         <v>1868</v>
       </c>
       <c r="B59" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" si="5"/>
@@ -56238,7 +56260,7 @@
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -56246,7 +56268,7 @@
         <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C61" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A61, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B61, "'));")</f>
@@ -56258,7 +56280,7 @@
         <v>1862</v>
       </c>
       <c r="B62" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C62" s="5" t="str">
         <f>CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A62, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B62, "'));")</f>
@@ -56267,7 +56289,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="67" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -56275,10 +56297,10 @@
         <v>1875</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="17" customFormat="1" x14ac:dyDescent="0.25">
@@ -56286,10 +56308,10 @@
         <v>1893</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -56297,7 +56319,7 @@
         <v>1877</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C69" s="9" t="str">
         <f t="shared" ref="C69:C112" si="6">CONCATENATE("insert into ccd_leg_data_sets (cruise_leg_id, DATA_SET_ID) values ((select cruise_leg_id from ccd_cruise_legs where leg_name = '", A69, "'), (SELECT DATA_SET_ID FROM CCD_DATA_SETS WHERE DATA_SET_NAME = '", B69, "'));")</f>
@@ -56309,7 +56331,7 @@
         <v>1877</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C70" s="9" t="str">
         <f t="shared" si="6"/>
@@ -56321,7 +56343,7 @@
         <v>1878</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C71" s="9" t="str">
         <f t="shared" si="6"/>
@@ -56333,7 +56355,7 @@
         <v>1878</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C72" s="9" t="str">
         <f t="shared" si="6"/>
@@ -56345,10 +56367,10 @@
         <v>1879</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -56356,7 +56378,7 @@
         <v>1880</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C74" s="9" t="str">
         <f t="shared" si="6"/>
@@ -56368,7 +56390,7 @@
         <v>1881</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C75" s="9" t="str">
         <f t="shared" si="6"/>
@@ -56380,7 +56402,7 @@
         <v>1882</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C76" s="9" t="str">
         <f t="shared" si="6"/>
@@ -56392,7 +56414,7 @@
         <v>1882</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C77" s="9" t="str">
         <f t="shared" si="6"/>
@@ -56404,7 +56426,7 @@
         <v>1882</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C78" s="9" t="str">
         <f t="shared" si="6"/>
@@ -56416,7 +56438,7 @@
         <v>1883</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C79" s="9" t="str">
         <f t="shared" si="6"/>
@@ -56428,7 +56450,7 @@
         <v>1884</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C80" s="9" t="str">
         <f t="shared" si="6"/>
@@ -56440,10 +56462,10 @@
         <v>1890</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -56451,7 +56473,7 @@
         <v>1891</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C82" s="9" t="str">
         <f t="shared" si="6"/>
@@ -56463,7 +56485,7 @@
         <v>1920</v>
       </c>
       <c r="B83" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56475,7 +56497,7 @@
         <v>1920</v>
       </c>
       <c r="B84" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56487,7 +56509,7 @@
         <v>1920</v>
       </c>
       <c r="B85" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56499,7 +56521,7 @@
         <v>1921</v>
       </c>
       <c r="B86" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56511,7 +56533,7 @@
         <v>1921</v>
       </c>
       <c r="B87" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56523,7 +56545,7 @@
         <v>1921</v>
       </c>
       <c r="B88" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56535,7 +56557,7 @@
         <v>1922</v>
       </c>
       <c r="B89" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56547,7 +56569,7 @@
         <v>1923</v>
       </c>
       <c r="B90" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56559,7 +56581,7 @@
         <v>1924</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -56567,7 +56589,7 @@
         <v>1938</v>
       </c>
       <c r="B92" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56579,7 +56601,7 @@
         <v>1939</v>
       </c>
       <c r="B93" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56591,7 +56613,7 @@
         <v>1940</v>
       </c>
       <c r="B94" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56603,7 +56625,7 @@
         <v>1940</v>
       </c>
       <c r="B95" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56615,7 +56637,7 @@
         <v>1941</v>
       </c>
       <c r="B96" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56627,7 +56649,7 @@
         <v>1942</v>
       </c>
       <c r="B97" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56639,7 +56661,7 @@
         <v>1942</v>
       </c>
       <c r="B98" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56651,7 +56673,7 @@
         <v>1945</v>
       </c>
       <c r="B99" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56663,7 +56685,7 @@
         <v>1947</v>
       </c>
       <c r="B100" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56675,7 +56697,7 @@
         <v>1978</v>
       </c>
       <c r="B101" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C101" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56687,7 +56709,7 @@
         <v>1979</v>
       </c>
       <c r="B102" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C102" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56699,7 +56721,7 @@
         <v>1980</v>
       </c>
       <c r="B103" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C103" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56711,7 +56733,7 @@
         <v>1981</v>
       </c>
       <c r="B104" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C104" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56723,7 +56745,7 @@
         <v>1963</v>
       </c>
       <c r="B105" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C105" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56735,7 +56757,7 @@
         <v>1974</v>
       </c>
       <c r="B106" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C106" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56747,7 +56769,7 @@
         <v>1964</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -56755,7 +56777,7 @@
         <v>1965</v>
       </c>
       <c r="B108" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C108" s="5" t="str">
         <f t="shared" si="6"/>
@@ -56767,7 +56789,7 @@
         <v>2005</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C109" s="9" t="str">
         <f t="shared" si="6"/>
@@ -56779,7 +56801,7 @@
         <v>2006</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C110" s="9" t="str">
         <f t="shared" si="6"/>
@@ -56791,7 +56813,7 @@
         <v>1994</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -56799,7 +56821,7 @@
         <v>1993</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C112" s="9" t="str">
         <f t="shared" si="6"/>
@@ -57482,7 +57504,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>136</v>
@@ -57491,7 +57513,7 @@
         <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>176</v>
@@ -57502,10 +57524,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C2" t="s">
         <v>110</v>
@@ -57523,10 +57545,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C3" t="s">
         <v>110</v>
@@ -57544,7 +57566,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -57563,7 +57585,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C5" t="s">
         <v>113</v>
@@ -57581,7 +57603,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C6" t="s">
         <v>141</v>
@@ -57596,7 +57618,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="C7" t="s">
         <v>143</v>
@@ -57614,10 +57636,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C8" t="s">
         <v>110</v>
@@ -57632,10 +57654,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B9" t="s">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C9" t="s">
         <v>110</v>
@@ -57653,7 +57675,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="C10" t="s">
         <v>111</v>
@@ -57668,7 +57690,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C11" t="s">
         <v>111</v>
@@ -57683,7 +57705,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="C12" t="s">
         <v>111</v>
@@ -57698,7 +57720,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C13" t="s">
         <v>111</v>
@@ -57713,7 +57735,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
@@ -57770,12 +57792,12 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="C27" t="s">
         <v>111</v>
@@ -57790,7 +57812,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2036</v>
+        <v>2035</v>
       </c>
       <c r="C28" t="s">
         <v>111</v>
@@ -57805,7 +57827,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C29" t="s">
         <v>111</v>
@@ -57820,7 +57842,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2038</v>
+        <v>2037</v>
       </c>
       <c r="C30" t="s">
         <v>111</v>
@@ -57835,7 +57857,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>2039</v>
+        <v>2038</v>
       </c>
       <c r="C31" t="s">
         <v>113</v>
@@ -57850,7 +57872,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="C32" t="s">
         <v>141</v>
@@ -57865,7 +57887,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="C33" t="s">
         <v>113</v>
@@ -57880,7 +57902,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>2042</v>
+        <v>2041</v>
       </c>
       <c r="C34" t="s">
         <v>141</v>
@@ -57895,7 +57917,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>2043</v>
+        <v>2042</v>
       </c>
       <c r="C35" t="s">
         <v>113</v>
@@ -57910,7 +57932,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="C36" t="s">
         <v>141</v>
@@ -57925,7 +57947,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
       <c r="C37" t="s">
         <v>113</v>
@@ -57940,7 +57962,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="C38" t="s">
         <v>141</v>
@@ -57955,7 +57977,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="C39" t="s">
         <v>114</v>
@@ -57970,7 +57992,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="C40" t="s">
         <v>115</v>
@@ -57985,7 +58007,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>2053</v>
+        <v>2052</v>
       </c>
       <c r="C41" t="s">
         <v>114</v>
@@ -58000,7 +58022,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
       <c r="C42" t="s">
         <v>115</v>
@@ -58015,7 +58037,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="C43" t="s">
         <v>114</v>
@@ -58030,7 +58052,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="C44" t="s">
         <v>115</v>
@@ -58045,7 +58067,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="C45" t="s">
         <v>114</v>
@@ -58060,7 +58082,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
       <c r="C46" t="s">
         <v>115</v>
@@ -58075,12 +58097,12 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="C52" t="s">
         <v>111</v>
@@ -58095,7 +58117,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="C53" t="s">
         <v>111</v>
@@ -58110,7 +58132,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="C54" t="s">
         <v>111</v>
@@ -58125,7 +58147,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="C55" t="s">
         <v>111</v>
@@ -58140,7 +58162,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="C56" t="s">
         <v>111</v>
@@ -58155,7 +58177,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="C57" t="s">
         <v>111</v>
@@ -58170,7 +58192,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="C58" t="s">
         <v>111</v>
@@ -58185,7 +58207,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="C59" t="s">
         <v>111</v>
@@ -58200,7 +58222,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="C60" t="s">
         <v>111</v>
@@ -58215,7 +58237,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="C61" t="s">
         <v>111</v>
@@ -58230,7 +58252,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="C62" t="s">
         <v>111</v>
@@ -58245,7 +58267,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="C63" t="s">
         <v>141</v>
@@ -58260,7 +58282,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="C64" t="s">
         <v>113</v>
@@ -58275,7 +58297,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="C65" t="s">
         <v>115</v>
@@ -58290,7 +58312,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="C66" t="s">
         <v>114</v>
@@ -58305,7 +58327,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="C67" t="s">
         <v>113</v>

--- a/docs/Cruise_Leg_DDL_DML_generator.xlsx
+++ b/docs/Cruise_Leg_DDL_DML_generator.xlsx
@@ -43374,8 +43374,8 @@
   <dimension ref="A1:K153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H89" sqref="H89"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I126" sqref="I126:I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/Cruise_Leg_DDL_DML_generator.xlsx
+++ b/docs/Cruise_Leg_DDL_DML_generator.xlsx
@@ -43371,11 +43371,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K153"/>
+  <dimension ref="A1:K150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I126" sqref="I126:I153"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I115" sqref="I115:I150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45510,7 +45510,7 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-14-07', TO_DATE('10/2/2014', 'MM/DD/YYYY'), TO_DATE('10/27/2014', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-14-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>33</v>
       </c>
@@ -45540,29 +45540,93 @@
         <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-15-01', TO_DATE('4/3/2015', 'MM/DD/YYYY'), TO_DATE('4/14/2015', 'MM/DD/YYYY'), 'Leg dates were retrieved from https://sdat.noaa.gov/DataManagement/Tracking#', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" t="s">
+        <v>327</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>2061</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F85" t="s">
+        <v>94</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>2015</v>
+      </c>
+      <c r="I85" s="5" t="str">
+        <f t="shared" ref="I85:I112" si="3">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B85, "'", "''"), "', TO_DATE('", C85, "', 'MM/DD/YYYY'), TO_DATE('", D85, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E85, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F85, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A85, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G85, "'", "''"), "'), '", H85, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0201_LEGI', TO_DATE('01/21/2002', 'MM/DD/YYYY'), TO_DATE('02/14/2002', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>2062</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F86" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>2015</v>
+      </c>
+      <c r="I86" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0201_LEGII', TO_DATE('05/15/2002', 'MM/DD/YYYY'), TO_DATE('07/24/2002', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>1875</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>1905</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>1917</v>
+        <v>79</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>2088</v>
       </c>
       <c r="E87" t="s">
-        <v>1894</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>1872</v>
+        <v>2059</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1862</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>1040</v>
@@ -45571,28 +45635,30 @@
         <v>2015</v>
       </c>
       <c r="I87" s="5" t="str">
-        <f t="shared" ref="I87:I122" si="3">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B87, "'", "''"), "', TO_DATE('", C87, "', 'MM/DD/YYYY'), TO_DATE('", D87, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E87, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F87, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A87, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G87, "'", "''"), "'), '", H87, "');")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-20-04 Leg 1', TO_DATE('3/20/2020', 'MM/DD/YYYY'), TO_DATE('4/15/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-20-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="s">
+        <f t="shared" si="3"/>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC-03-07', TO_DATE('09/08/2002', 'MM/DD/YYYY'), TO_DATE('10/07/2002', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC-03-07'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>33</v>
       </c>
-      <c r="B88" s="21" t="s">
-        <v>1893</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>1906</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>1918</v>
+      <c r="B88" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>2064</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>2089</v>
       </c>
       <c r="E88" t="s">
-        <v>1894</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>1873</v>
+        <v>2059</v>
+      </c>
+      <c r="F88" t="s">
+        <v>40</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>1040</v>
@@ -45602,57 +45668,61 @@
       </c>
       <c r="I88" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-20-05 Leg 1', TO_DATE('4/10/2020', 'MM/DD/YYYY'), TO_DATE('4/25/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-20-05'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGI', TO_DATE('08/07/2004', 'MM/DD/YYYY'), TO_DATE('09/07/2004', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>33</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>1877</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>1895</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>1907</v>
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>2090</v>
       </c>
       <c r="E89" t="s">
-        <v>1919</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>1886</v>
+        <v>2059</v>
+      </c>
+      <c r="F89" t="s">
+        <v>10</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H89" s="25" t="s">
-        <v>2132</v>
+      <c r="H89" s="6" t="s">
+        <v>2015</v>
       </c>
       <c r="I89" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-01 Leg 1', TO_DATE('10/15/2020', 'MM/DD/YYYY'), TO_DATE('10/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'IDK What is this field?');</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0401', TO_DATE('09/13/2004', 'MM/DD/YYYY'), TO_DATE('09/05/2004', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0401'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>33</v>
       </c>
       <c r="B90" s="21" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>1896</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>1908</v>
+        <v>47</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>2091</v>
       </c>
       <c r="E90" t="s">
-        <v>1919</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>1886</v>
+        <v>2059</v>
+      </c>
+      <c r="F90" t="s">
+        <v>47</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>1040</v>
@@ -45662,57 +45732,63 @@
       </c>
       <c r="I90" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-01 Leg 2', TO_DATE('11/5/2020', 'MM/DD/YYYY'), TO_DATE('11/20/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="16" t="s">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0509', TO_DATE('07/19/2005', 'MM/DD/YYYY'), TO_DATE('08/05/2005', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0509'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J90" s="24" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K90" s="19"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>33</v>
       </c>
-      <c r="B91" s="21" t="s">
-        <v>1879</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>1897</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>1909</v>
+      <c r="B91" t="s">
+        <v>261</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>2067</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>2092</v>
       </c>
       <c r="E91" t="s">
-        <v>1919</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>1879</v>
+        <v>2059</v>
+      </c>
+      <c r="F91" t="s">
+        <v>40</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H91" s="6" t="s">
-        <v>2015</v>
+      <c r="H91" s="25" t="s">
+        <v>2128</v>
       </c>
       <c r="I91" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-03', TO_DATE('11/15/2020', 'MM/DD/YYYY'), TO_DATE('12/1/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-03'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGII', TO_DATE('09/08/2005', 'MM/DD/YYYY'), TO_DATE('09/13/2005', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Hawaii Standard Time');</v>
+      </c>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>33</v>
       </c>
-      <c r="B92" s="21" t="s">
-        <v>1880</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>1910</v>
+      <c r="B92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>2072</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>2072</v>
       </c>
       <c r="E92" t="s">
-        <v>1919</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>1887</v>
+        <v>2059</v>
+      </c>
+      <c r="F92" t="s">
+        <v>59</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>1040</v>
@@ -45722,27 +45798,29 @@
       </c>
       <c r="I92" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-04 Leg 1', TO_DATE('11/22/2020', 'MM/DD/YYYY'), TO_DATE('11/28/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0607', TO_DATE('06/05/2006', 'MM/DD/YYYY'), TO_DATE('06/05/2006', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0607'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>33</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>1881</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>1899</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>1911</v>
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>2068</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>2093</v>
       </c>
       <c r="E93" t="s">
-        <v>1919</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>1887</v>
+        <v>2059</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>1040</v>
@@ -45752,27 +45830,29 @@
       </c>
       <c r="I93" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-04 Leg 2', TO_DATE('11/30/2020', 'MM/DD/YYYY'), TO_DATE('12/10/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0610 (copy)', TO_DATE('07/27/2006', 'MM/DD/YYYY'), TO_DATE('08/20/2006', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0610'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>4</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>1912</v>
+        <v>33</v>
+      </c>
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>2094</v>
       </c>
       <c r="E94" t="s">
-        <v>1889</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>1882</v>
+        <v>2059</v>
+      </c>
+      <c r="F94" t="s">
+        <v>65</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>1040</v>
@@ -45782,27 +45862,29 @@
       </c>
       <c r="I94" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-06', TO_DATE('3/15/2021', 'MM/DD/YYYY'), TO_DATE('3/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0706', TO_DATE('07/18/2007', 'MM/DD/YYYY'), TO_DATE('08/14/2007', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0706'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="21" t="s">
-        <v>1883</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>1901</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>1913</v>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>2069</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>2095</v>
       </c>
       <c r="E95" t="s">
-        <v>1889</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>1888</v>
+        <v>2059</v>
+      </c>
+      <c r="F95" t="s">
+        <v>18</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>1040</v>
@@ -45812,57 +45894,61 @@
       </c>
       <c r="I95" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-07 Leg 1', TO_DATE('3/27/2021', 'MM/DD/YYYY'), TO_DATE('4/15/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGI', TO_DATE('01/21/2010', 'MM/DD/YYYY'), TO_DATE('03/20/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="21" t="s">
-        <v>1884</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>1902</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>1914</v>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>2074</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>2096</v>
       </c>
       <c r="E96" t="s">
-        <v>1889</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>1888</v>
+        <v>2059</v>
+      </c>
+      <c r="F96" t="s">
+        <v>18</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H96" s="6" t="s">
-        <v>2015</v>
+      <c r="H96" s="25" t="s">
+        <v>2126</v>
       </c>
       <c r="I96" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-07 Leg 2', TO_DATE('4/18/2021', 'MM/DD/YYYY'), TO_DATE('4/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="16" t="s">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGII', TO_DATE('03/21/2010', 'MM/DD/YYYY'), TO_DATE('06/30/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'ASDF JKL;');</v>
+      </c>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="21" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>1915</v>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>2070</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>2097</v>
       </c>
       <c r="E97" t="s">
-        <v>1889</v>
-      </c>
-      <c r="F97" s="9" t="s">
-        <v>1885</v>
+        <v>2059</v>
+      </c>
+      <c r="F97" t="s">
+        <v>18</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>1040</v>
@@ -45872,27 +45958,29 @@
       </c>
       <c r="I97" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-08 Leg 1', TO_DATE('4/28/2021', 'MM/DD/YYYY'), TO_DATE('5/23/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGIII', TO_DATE('07/05/2010', 'MM/DD/YYYY'), TO_DATE('07/21/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="21" t="s">
-        <v>1891</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>1904</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>1916</v>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>2098</v>
       </c>
       <c r="E98" t="s">
-        <v>1889</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>1885</v>
+        <v>2059</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>1040</v>
@@ -45902,57 +45990,61 @@
       </c>
       <c r="I98" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-08 Leg 2', TO_DATE('5/25/2021', 'MM/DD/YYYY'), TO_DATE('6/17/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1007', TO_DATE('09/04/2010', 'MM/DD/YYYY'), TO_DATE('09/29/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1007'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>4</v>
       </c>
       <c r="B99" s="21" t="s">
-        <v>1920</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>1926</v>
+        <v>1863</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>2071</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>2098</v>
       </c>
       <c r="E99" t="s">
-        <v>1892</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>1876</v>
+        <v>2059</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1863</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H99" s="25" t="s">
-        <v>2131</v>
+      <c r="H99" s="6" t="s">
+        <v>2015</v>
       </c>
       <c r="I99" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-08 Leg 1', TO_DATE('6/10/2020', 'MM/DD/YYYY'), TO_DATE('6/29/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Something else');</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1007 (copy)', TO_DATE('09/04/2010', 'MM/DD/YYYY'), TO_DATE('09/29/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1007 (copy)'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>4</v>
       </c>
       <c r="B100" s="21" t="s">
-        <v>1921</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>1927</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>1928</v>
+        <v>187</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>2075</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>2099</v>
       </c>
       <c r="E100" t="s">
-        <v>1892</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>1876</v>
+        <v>2059</v>
+      </c>
+      <c r="F100" t="s">
+        <v>23</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>1040</v>
@@ -45962,27 +46054,29 @@
       </c>
       <c r="I100" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-08 Leg 2', TO_DATE('7/2/2020', 'MM/DD/YYYY'), TO_DATE('7/26/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_I', TO_DATE('11/05/2010', 'MM/DD/YYYY'), TO_DATE('04/05/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4</v>
       </c>
       <c r="B101" s="21" t="s">
-        <v>1922</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>1929</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>1930</v>
+        <v>324</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>2076</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>2100</v>
       </c>
       <c r="E101" t="s">
-        <v>1892</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>1935</v>
+        <v>2059</v>
+      </c>
+      <c r="F101" t="s">
+        <v>23</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>1040</v>
@@ -45992,27 +46086,29 @@
       </c>
       <c r="I101" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-09 Leg 1', TO_DATE('7/20/2020', 'MM/DD/YYYY'), TO_DATE('8/12/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-09'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_II', TO_DATE('04/07/2011', 'MM/DD/YYYY'), TO_DATE('05/03/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>4</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>1923</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>1931</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>1932</v>
+        <v>325</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>2077</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>2101</v>
       </c>
       <c r="E102" t="s">
-        <v>1892</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>1935</v>
+        <v>2059</v>
+      </c>
+      <c r="F102" t="s">
+        <v>23</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>1040</v>
@@ -46022,27 +46118,29 @@
       </c>
       <c r="I102" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-09 Leg 2', TO_DATE('8/16/2020', 'MM/DD/YYYY'), TO_DATE('9/2/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-09'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="16" t="s">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_III', TO_DATE('05/12/2011', 'MM/DD/YYYY'), TO_DATE('07/24/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="21" t="s">
-        <v>1924</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>1934</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>1933</v>
+      <c r="B103" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>2102</v>
       </c>
       <c r="E103" t="s">
-        <v>1892</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>1936</v>
+        <v>2059</v>
+      </c>
+      <c r="F103" t="s">
+        <v>2060</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>1040</v>
@@ -46052,27 +46150,29 @@
       </c>
       <c r="I103" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-10 Leg 1', TO_DATE('6/14/2020', 'MM/DD/YYYY'), TO_DATE('7/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-10'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1102_LEG_I', TO_DATE('07/23/2011', 'MM/DD/YYYY'), TO_DATE('08/11/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1102'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>33</v>
-      </c>
-      <c r="B104" s="21" t="s">
-        <v>1938</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>1948</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>1949</v>
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>2079</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>2103</v>
       </c>
       <c r="E104" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>1937</v>
+        <v>2059</v>
+      </c>
+      <c r="F104" t="s">
+        <v>2060</v>
       </c>
       <c r="G104" s="5" t="s">
         <v>1040</v>
@@ -46082,27 +46182,29 @@
       </c>
       <c r="I104" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-06 Leg 1', TO_DATE('1/12/2021', 'MM/DD/YYYY'), TO_DATE('1/31/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1102_LEG_II', TO_DATE('08/15/2011', 'MM/DD/YYYY'), TO_DATE('08/30/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1102'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>33</v>
       </c>
       <c r="B105" s="21" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>1950</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>1951</v>
+        <v>1867</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>2080</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>2104</v>
       </c>
       <c r="E105" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>1937</v>
+        <v>2059</v>
+      </c>
+      <c r="F105" t="s">
+        <v>75</v>
       </c>
       <c r="G105" s="5" t="s">
         <v>1040</v>
@@ -46112,27 +46214,29 @@
       </c>
       <c r="I105" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-06 Leg 2', TO_DATE('2/3/2021', 'MM/DD/YYYY'), TO_DATE('2/25/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
-        <v>33</v>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-15-01 Leg 1', TO_DATE('04/03/2015', 'MM/DD/YYYY'), TO_DATE('04/14/2015', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>4</v>
       </c>
       <c r="B106" s="21" t="s">
-        <v>1940</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>1956</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>1957</v>
+        <v>1868</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>2081</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>2105</v>
       </c>
       <c r="E106" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>1940</v>
+        <v>2059</v>
+      </c>
+      <c r="F106" t="s">
+        <v>75</v>
       </c>
       <c r="G106" s="5" t="s">
         <v>1040</v>
@@ -46142,27 +46246,29 @@
       </c>
       <c r="I106" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-07', TO_DATE('1/30/2021', 'MM/DD/YYYY'), TO_DATE('3/6/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-15-01 Leg 2', TO_DATE('04/13/2015', 'MM/DD/YYYY'), TO_DATE('05/20/2015', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>33</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>1941</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>1952</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>1953</v>
+        <v>332</v>
+      </c>
+      <c r="B107" t="s">
+        <v>337</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>2082</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>2106</v>
       </c>
       <c r="E107" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>1944</v>
+        <v>2059</v>
+      </c>
+      <c r="F107" t="s">
+        <v>333</v>
       </c>
       <c r="G107" s="5" t="s">
         <v>1040</v>
@@ -46172,57 +46278,61 @@
       </c>
       <c r="I107" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-08 Leg 1', TO_DATE('3/2/2021', 'MM/DD/YYYY'), TO_DATE('3/23/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 1', TO_DATE('08/17/2017', 'MM/DD/YYYY'), TO_DATE('09/05/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>33</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>1954</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>1955</v>
+        <v>332</v>
+      </c>
+      <c r="B108" t="s">
+        <v>338</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>2083</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>2107</v>
       </c>
       <c r="E108" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>1944</v>
+        <v>2059</v>
+      </c>
+      <c r="F108" t="s">
+        <v>333</v>
       </c>
       <c r="G108" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H108" s="6" t="s">
-        <v>2015</v>
+      <c r="H108" s="25" t="s">
+        <v>2127</v>
       </c>
       <c r="I108" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-08 Leg 2', TO_DATE('3/26/2021', 'MM/DD/YYYY'), TO_DATE('4/12/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 2', TO_DATE('09/11/2017', 'MM/DD/YYYY'), TO_DATE('09/30/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '+09:00');</v>
+      </c>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>33</v>
-      </c>
-      <c r="B109" s="21" t="s">
-        <v>1945</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>1958</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>1959</v>
+        <v>332</v>
+      </c>
+      <c r="B109" t="s">
+        <v>339</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>357</v>
       </c>
       <c r="E109" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>1946</v>
+        <v>2059</v>
+      </c>
+      <c r="F109" t="s">
+        <v>333</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>1040</v>
@@ -46232,27 +46342,29 @@
       </c>
       <c r="I109" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-09 Leg 1', TO_DATE('5/11/2021', 'MM/DD/YYYY'), TO_DATE('5/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-09'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 3', TO_DATE('10/01/2017', 'MM/DD/YYYY'), TO_DATE('10/10/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>33</v>
-      </c>
-      <c r="B110" s="21" t="s">
-        <v>1947</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>1960</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>1961</v>
+        <v>332</v>
+      </c>
+      <c r="B110" t="s">
+        <v>340</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>2108</v>
       </c>
       <c r="E110" t="s">
-        <v>1943</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>1946</v>
+        <v>2059</v>
+      </c>
+      <c r="F110" t="s">
+        <v>333</v>
       </c>
       <c r="G110" s="5" t="s">
         <v>1040</v>
@@ -46262,27 +46374,29 @@
       </c>
       <c r="I110" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-09 Leg 2', TO_DATE('6/2/2021', 'MM/DD/YYYY'), TO_DATE('6/19/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-09'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 4', TO_DATE('10/16/2017', 'MM/DD/YYYY'), TO_DATE('11/09/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>4</v>
-      </c>
-      <c r="B111" s="21" t="s">
-        <v>1978</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>1982</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>1983</v>
+        <v>332</v>
+      </c>
+      <c r="B111" t="s">
+        <v>341</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>2109</v>
       </c>
       <c r="E111" t="s">
-        <v>1975</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>1990</v>
+        <v>2059</v>
+      </c>
+      <c r="F111" t="s">
+        <v>333</v>
       </c>
       <c r="G111" s="5" t="s">
         <v>1040</v>
@@ -46292,117 +46406,66 @@
       </c>
       <c r="I111" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-04 Leg 1', TO_DATE('6/1/2019', 'MM/DD/YYYY'), TO_DATE('6/15/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 5', TO_DATE('11/15/2017', 'MM/DD/YYYY'), TO_DATE('12/09/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>4</v>
-      </c>
-      <c r="B112" s="21" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>1984</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>1985</v>
+        <v>332</v>
+      </c>
+      <c r="B112" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>2085</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>2110</v>
       </c>
       <c r="E112" t="s">
-        <v>1975</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>1990</v>
+        <v>2059</v>
+      </c>
+      <c r="F112" t="s">
+        <v>333</v>
       </c>
       <c r="G112" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H112" s="25" t="s">
-        <v>2130</v>
+      <c r="H112" s="6" t="s">
+        <v>2015</v>
       </c>
       <c r="I112" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-04 Leg 2', TO_DATE('6/19/2019', 'MM/DD/YYYY'), TO_DATE('7/12/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Mountain/Pacific Time');</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>1980</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>1986</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>1987</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1975</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>1991</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>2015</v>
-      </c>
-      <c r="I113" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-05 Leg 1', TO_DATE('7/14/2019', 'MM/DD/YYYY'), TO_DATE('7/31/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>4</v>
-      </c>
-      <c r="B114" s="21" t="s">
-        <v>1981</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>1988</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>1989</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1975</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>1991</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H114" s="6" t="s">
-        <v>2015</v>
-      </c>
-      <c r="I114" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-05 Leg 2', TO_DATE('8/2/2019', 'MM/DD/YYYY'), TO_DATE('8/15/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 6', TO_DATE('12/20/2017', 'MM/DD/YYYY'), TO_DATE('01/10/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>1963</v>
+        <v>1875</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>1966</v>
+        <v>1905</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>1967</v>
+        <v>1917</v>
       </c>
       <c r="E115" t="s">
-        <v>1977</v>
+        <v>1894</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>1962</v>
+        <v>1872</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>1040</v>
@@ -46411,28 +46474,28 @@
         <v>2015</v>
       </c>
       <c r="I115" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-01 Leg 1', TO_DATE('10/15/2018', 'MM/DD/YYYY'), TO_DATE('11/2/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>4</v>
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B115, "'", "''"), "', TO_DATE('", C115, "', 'MM/DD/YYYY'), TO_DATE('", D115, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E115, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F115, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A115, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G115, "'", "''"), "'), '", H115, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-20-04 Leg 1', TO_DATE('3/20/2020', 'MM/DD/YYYY'), TO_DATE('4/15/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-20-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>1974</v>
+        <v>1893</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>1968</v>
+        <v>1906</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>1969</v>
+        <v>1918</v>
       </c>
       <c r="E116" t="s">
-        <v>1977</v>
+        <v>1894</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>1962</v>
+        <v>1873</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>1040</v>
@@ -46441,58 +46504,58 @@
         <v>2015</v>
       </c>
       <c r="I116" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-01 Leg 2', TO_DATE('11/5/2018', 'MM/DD/YYYY'), TO_DATE('11/29/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="18" t="s">
-        <v>4</v>
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B116, "'", "''"), "', TO_DATE('", C116, "', 'MM/DD/YYYY'), TO_DATE('", D116, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E116, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F116, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A116, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G116, "'", "''"), "'), '", H116, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-20-05 Leg 1', TO_DATE('4/10/2020', 'MM/DD/YYYY'), TO_DATE('4/25/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-20-05'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>33</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>1964</v>
+        <v>1877</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>1970</v>
+        <v>1895</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>1971</v>
+        <v>1907</v>
       </c>
       <c r="E117" t="s">
-        <v>1977</v>
+        <v>1919</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>1976</v>
+        <v>1886</v>
       </c>
       <c r="G117" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H117" s="6" t="s">
-        <v>2015</v>
+      <c r="H117" s="25" t="s">
+        <v>2132</v>
       </c>
       <c r="I117" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-02 Leg 1', TO_DATE('11/20/2018', 'MM/DD/YYYY'), TO_DATE('12/10/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B117, "'", "''"), "', TO_DATE('", C117, "', 'MM/DD/YYYY'), TO_DATE('", D117, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E117, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F117, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A117, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G117, "'", "''"), "'), '", H117, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-01 Leg 1', TO_DATE('10/15/2020', 'MM/DD/YYYY'), TO_DATE('10/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'IDK What is this field?');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>1965</v>
+        <v>1878</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>1972</v>
+        <v>1896</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>1973</v>
+        <v>1908</v>
       </c>
       <c r="E118" t="s">
-        <v>1977</v>
+        <v>1919</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>1976</v>
+        <v>1886</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>1040</v>
@@ -46501,28 +46564,28 @@
         <v>2015</v>
       </c>
       <c r="I118" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-02 Leg 2', TO_DATE('12/12/2018', 'MM/DD/YYYY'), TO_DATE('12/30/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B118, "'", "''"), "', TO_DATE('", C118, "', 'MM/DD/YYYY'), TO_DATE('", D118, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E118, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F118, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A118, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G118, "'", "''"), "'), '", H118, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-01 Leg 2', TO_DATE('11/5/2020', 'MM/DD/YYYY'), TO_DATE('11/20/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>2005</v>
+        <v>1879</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>1996</v>
+        <v>1897</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>1997</v>
+        <v>1909</v>
       </c>
       <c r="E119" t="s">
-        <v>1992</v>
+        <v>1919</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>2004</v>
+        <v>1879</v>
       </c>
       <c r="G119" s="5" t="s">
         <v>1040</v>
@@ -46531,58 +46594,58 @@
         <v>2015</v>
       </c>
       <c r="I119" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-01 Leg 1', TO_DATE('10/21/2021', 'MM/DD/YYYY'), TO_DATE('11/13/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B119, "'", "''"), "', TO_DATE('", C119, "', 'MM/DD/YYYY'), TO_DATE('", D119, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E119, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F119, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A119, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G119, "'", "''"), "'), '", H119, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-03', TO_DATE('11/15/2020', 'MM/DD/YYYY'), TO_DATE('12/1/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-03'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>33</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>2006</v>
+        <v>1880</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>1998</v>
+        <v>1898</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>1999</v>
+        <v>1910</v>
       </c>
       <c r="E120" t="s">
-        <v>1992</v>
+        <v>1919</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>2004</v>
+        <v>1887</v>
       </c>
       <c r="G120" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H120" s="25" t="s">
-        <v>2129</v>
+      <c r="H120" s="6" t="s">
+        <v>2015</v>
       </c>
       <c r="I120" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-01 Leg 2', TO_DATE('11/15/2021', 'MM/DD/YYYY'), TO_DATE('12/4/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Eastern US Time');</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="16" t="s">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B120, "'", "''"), "', TO_DATE('", C120, "', 'MM/DD/YYYY'), TO_DATE('", D120, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E120, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F120, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A120, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G120, "'", "''"), "'), '", H120, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-04 Leg 1', TO_DATE('11/22/2020', 'MM/DD/YYYY'), TO_DATE('11/28/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>33</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>1994</v>
+        <v>1881</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>2000</v>
+        <v>1899</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>2001</v>
+        <v>1911</v>
       </c>
       <c r="E121" t="s">
-        <v>1992</v>
+        <v>1919</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1995</v>
+        <v>1887</v>
       </c>
       <c r="G121" s="5" t="s">
         <v>1040</v>
@@ -46591,28 +46654,28 @@
         <v>2015</v>
       </c>
       <c r="I121" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-02 Leg 1', TO_DATE('11/30/2021', 'MM/DD/YYYY'), TO_DATE('12/15/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B121, "'", "''"), "', TO_DATE('", C121, "', 'MM/DD/YYYY'), TO_DATE('", D121, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E121, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F121, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A121, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G121, "'", "''"), "'), '", H121, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-04 Leg 2', TO_DATE('11/30/2020', 'MM/DD/YYYY'), TO_DATE('12/10/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-04'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>1993</v>
+        <v>1882</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>2002</v>
+        <v>1900</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>2003</v>
+        <v>1912</v>
       </c>
       <c r="E122" t="s">
-        <v>1992</v>
+        <v>1889</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1995</v>
+        <v>1882</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>1040</v>
@@ -46621,33 +46684,118 @@
         <v>2015</v>
       </c>
       <c r="I122" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-02 Leg 2', TO_DATE('12/17/2021', 'MM/DD/YYYY'), TO_DATE('1/12/2022', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B122, "'", "''"), "', TO_DATE('", C122, "', 'MM/DD/YYYY'), TO_DATE('", D122, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E122, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F122, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A122, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G122, "'", "''"), "'), '", H122, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-06', TO_DATE('3/15/2021', 'MM/DD/YYYY'), TO_DATE('3/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>1901</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>1913</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>2015</v>
+      </c>
+      <c r="I123" s="5" t="str">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B123, "'", "''"), "', TO_DATE('", C123, "', 'MM/DD/YYYY'), TO_DATE('", D123, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E123, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F123, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A123, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G123, "'", "''"), "'), '", H123, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-07 Leg 1', TO_DATE('3/27/2021', 'MM/DD/YYYY'), TO_DATE('4/15/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>1888</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>2015</v>
+      </c>
+      <c r="I124" s="5" t="str">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B124, "'", "''"), "', TO_DATE('", C124, "', 'MM/DD/YYYY'), TO_DATE('", D124, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E124, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F124, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A124, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G124, "'", "''"), "'), '", H124, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-07 Leg 2', TO_DATE('4/18/2021', 'MM/DD/YYYY'), TO_DATE('4/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>1915</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>2015</v>
+      </c>
+      <c r="I125" s="5" t="str">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B125, "'", "''"), "', TO_DATE('", C125, "', 'MM/DD/YYYY'), TO_DATE('", D125, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E125, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F125, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A125, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G125, "'", "''"), "'), '", H125, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-08 Leg 1', TO_DATE('4/28/2021', 'MM/DD/YYYY'), TO_DATE('5/23/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>79</v>
-      </c>
-      <c r="B126" t="s">
-        <v>327</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>2061</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>2086</v>
+        <v>4</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>1916</v>
       </c>
       <c r="E126" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F126" t="s">
-        <v>94</v>
+        <v>1889</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>1885</v>
       </c>
       <c r="G126" s="5" t="s">
         <v>1040</v>
@@ -46656,62 +46804,58 @@
         <v>2015</v>
       </c>
       <c r="I126" s="5" t="str">
-        <f t="shared" ref="I126:I153" si="4">CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B126, "'", "''"), "', TO_DATE('", C126, "', 'MM/DD/YYYY'), TO_DATE('", D126, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E126, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F126, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A126, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G126, "'", "''"), "'), '", H126, "');")</f>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0201_LEGI', TO_DATE('01/21/2002', 'MM/DD/YYYY'), TO_DATE('02/14/2002', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B126, "'", "''"), "', TO_DATE('", C126, "', 'MM/DD/YYYY'), TO_DATE('", D126, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E126, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F126, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A126, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G126, "'", "''"), "'), '", H126, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-21-08 Leg 2', TO_DATE('5/25/2021', 'MM/DD/YYYY'), TO_DATE('6/17/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>79</v>
-      </c>
-      <c r="B127" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>2062</v>
-      </c>
-      <c r="D127" s="20" t="s">
-        <v>2087</v>
+        <v>4</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>1926</v>
       </c>
       <c r="E127" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F127" t="s">
-        <v>94</v>
+        <v>1892</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>1876</v>
       </c>
       <c r="G127" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H127" s="6" t="s">
-        <v>2015</v>
+      <c r="H127" s="25" t="s">
+        <v>2131</v>
       </c>
       <c r="I127" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC0201_LEGII', TO_DATE('05/15/2002', 'MM/DD/YYYY'), TO_DATE('07/24/2002', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC0201'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J127" s="19"/>
-      <c r="K127" s="19"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B127, "'", "''"), "', TO_DATE('", C127, "', 'MM/DD/YYYY'), TO_DATE('", D127, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E127, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F127, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A127, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G127, "'", "''"), "'), '", H127, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-08 Leg 1', TO_DATE('6/10/2020', 'MM/DD/YYYY'), TO_DATE('6/29/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Something else');</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>79</v>
-      </c>
-      <c r="B128" t="s">
-        <v>1862</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>2063</v>
-      </c>
-      <c r="D128" s="20" t="s">
-        <v>2088</v>
+        <v>4</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>1928</v>
       </c>
       <c r="E128" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F128" t="s">
-        <v>1862</v>
+        <v>1892</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>1876</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>1040</v>
@@ -46720,30 +46864,28 @@
         <v>2015</v>
       </c>
       <c r="I128" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('TC-03-07', TO_DATE('09/08/2002', 'MM/DD/YYYY'), TO_DATE('10/07/2002', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'TC-03-07'), (select vessel_id from ccd_vessels where vessel_name = 'Townsend Cromwell'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B128, "'", "''"), "', TO_DATE('", C128, "', 'MM/DD/YYYY'), TO_DATE('", D128, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E128, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F128, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A128, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G128, "'", "''"), "'), '", H128, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-08 Leg 2', TO_DATE('7/2/2020', 'MM/DD/YYYY'), TO_DATE('7/26/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-08'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>33</v>
-      </c>
-      <c r="B129" t="s">
-        <v>260</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>2064</v>
-      </c>
-      <c r="D129" s="20" t="s">
-        <v>2089</v>
+        <v>4</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>1930</v>
       </c>
       <c r="E129" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F129" t="s">
-        <v>40</v>
+        <v>1892</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>1935</v>
       </c>
       <c r="G129" s="5" t="s">
         <v>1040</v>
@@ -46752,30 +46894,28 @@
         <v>2015</v>
       </c>
       <c r="I129" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGI', TO_DATE('08/07/2004', 'MM/DD/YYYY'), TO_DATE('09/07/2004', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B129, "'", "''"), "', TO_DATE('", C129, "', 'MM/DD/YYYY'), TO_DATE('", D129, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E129, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F129, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A129, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G129, "'", "''"), "'), '", H129, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-09 Leg 1', TO_DATE('7/20/2020', 'MM/DD/YYYY'), TO_DATE('8/12/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-09'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>4</v>
       </c>
-      <c r="B130" t="s">
-        <v>10</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>2065</v>
-      </c>
-      <c r="D130" s="20" t="s">
-        <v>2090</v>
+      <c r="B130" s="21" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>1932</v>
       </c>
       <c r="E130" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F130" t="s">
-        <v>10</v>
+        <v>1892</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>1935</v>
       </c>
       <c r="G130" s="5" t="s">
         <v>1040</v>
@@ -46784,30 +46924,28 @@
         <v>2015</v>
       </c>
       <c r="I130" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0401', TO_DATE('09/13/2004', 'MM/DD/YYYY'), TO_DATE('09/05/2004', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0401'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>33</v>
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B130, "'", "''"), "', TO_DATE('", C130, "', 'MM/DD/YYYY'), TO_DATE('", D130, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E130, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F130, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A130, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G130, "'", "''"), "'), '", H130, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-09 Leg 2', TO_DATE('8/16/2020', 'MM/DD/YYYY'), TO_DATE('9/2/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-09'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="B131" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D131" s="20" t="s">
-        <v>2091</v>
+        <v>1924</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>1933</v>
       </c>
       <c r="E131" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F131" t="s">
-        <v>47</v>
+        <v>1892</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>1936</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>1040</v>
@@ -46816,64 +46954,58 @@
         <v>2015</v>
       </c>
       <c r="I131" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0509', TO_DATE('07/19/2005', 'MM/DD/YYYY'), TO_DATE('08/05/2005', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0509'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J131" s="24" t="s">
-        <v>2124</v>
-      </c>
-      <c r="K131" s="19"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B131, "'", "''"), "', TO_DATE('", C131, "', 'MM/DD/YYYY'), TO_DATE('", D131, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E131, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F131, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A131, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G131, "'", "''"), "'), '", H131, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-20-10 Leg 1', TO_DATE('6/14/2020', 'MM/DD/YYYY'), TO_DATE('7/30/2020', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (remove cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-20-10'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>33</v>
       </c>
-      <c r="B132" t="s">
-        <v>261</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>2067</v>
-      </c>
-      <c r="D132" s="20" t="s">
-        <v>2092</v>
+      <c r="B132" s="21" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>1949</v>
       </c>
       <c r="E132" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F132" t="s">
-        <v>40</v>
+        <v>1943</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>1937</v>
       </c>
       <c r="G132" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H132" s="25" t="s">
-        <v>2128</v>
+      <c r="H132" s="6" t="s">
+        <v>2015</v>
       </c>
       <c r="I132" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0411_LEGII', TO_DATE('09/08/2005', 'MM/DD/YYYY'), TO_DATE('09/13/2005', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0411'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Hawaii Standard Time');</v>
-      </c>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B132, "'", "''"), "', TO_DATE('", C132, "', 'MM/DD/YYYY'), TO_DATE('", D132, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E132, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F132, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A132, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G132, "'", "''"), "'), '", H132, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-06 Leg 1', TO_DATE('1/12/2021', 'MM/DD/YYYY'), TO_DATE('1/31/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>33</v>
       </c>
-      <c r="B133" t="s">
-        <v>59</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>2072</v>
-      </c>
-      <c r="D133" s="20" t="s">
-        <v>2072</v>
+      <c r="B133" s="21" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>1951</v>
       </c>
       <c r="E133" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F133" t="s">
-        <v>59</v>
+        <v>1943</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>1937</v>
       </c>
       <c r="G133" s="5" t="s">
         <v>1040</v>
@@ -46882,30 +47014,28 @@
         <v>2015</v>
       </c>
       <c r="I133" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0607', TO_DATE('06/05/2006', 'MM/DD/YYYY'), TO_DATE('06/05/2006', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0607'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>4</v>
-      </c>
-      <c r="B134" t="s">
-        <v>2056</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>2068</v>
-      </c>
-      <c r="D134" s="20" t="s">
-        <v>2093</v>
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B133, "'", "''"), "', TO_DATE('", C133, "', 'MM/DD/YYYY'), TO_DATE('", D133, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E133, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F133, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A133, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G133, "'", "''"), "'), '", H133, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-06 Leg 2', TO_DATE('2/3/2021', 'MM/DD/YYYY'), TO_DATE('2/25/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-06'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>1940</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>1956</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>1957</v>
       </c>
       <c r="E134" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F134" t="s">
-        <v>15</v>
+        <v>1943</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>1940</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>1040</v>
@@ -46914,30 +47044,28 @@
         <v>2015</v>
       </c>
       <c r="I134" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI0610 (copy)', TO_DATE('07/27/2006', 'MM/DD/YYYY'), TO_DATE('08/20/2006', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI0610'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B134, "'", "''"), "', TO_DATE('", C134, "', 'MM/DD/YYYY'), TO_DATE('", D134, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E134, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F134, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A134, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G134, "'", "''"), "'), '", H134, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-07', TO_DATE('1/30/2021', 'MM/DD/YYYY'), TO_DATE('3/6/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-07'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
-      <c r="B135" t="s">
-        <v>65</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>2073</v>
-      </c>
-      <c r="D135" s="20" t="s">
-        <v>2094</v>
+      <c r="B135" s="21" t="s">
+        <v>1941</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>1953</v>
       </c>
       <c r="E135" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F135" t="s">
-        <v>65</v>
+        <v>1943</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>1944</v>
       </c>
       <c r="G135" s="5" t="s">
         <v>1040</v>
@@ -46946,30 +47074,28 @@
         <v>2015</v>
       </c>
       <c r="I135" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('OES0706', TO_DATE('07/18/2007', 'MM/DD/YYYY'), TO_DATE('08/14/2007', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'OES0706'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B135, "'", "''"), "', TO_DATE('", C135, "', 'MM/DD/YYYY'), TO_DATE('", D135, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E135, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F135, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A135, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G135, "'", "''"), "'), '", H135, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-08 Leg 1', TO_DATE('3/2/2021', 'MM/DD/YYYY'), TO_DATE('3/23/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>4</v>
-      </c>
-      <c r="B136" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>2069</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>2095</v>
+        <v>33</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>1955</v>
       </c>
       <c r="E136" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F136" t="s">
-        <v>18</v>
+        <v>1943</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>1944</v>
       </c>
       <c r="G136" s="5" t="s">
         <v>1040</v>
@@ -46978,62 +47104,58 @@
         <v>2015</v>
       </c>
       <c r="I136" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGI', TO_DATE('01/21/2010', 'MM/DD/YYYY'), TO_DATE('03/20/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B136, "'", "''"), "', TO_DATE('", C136, "', 'MM/DD/YYYY'), TO_DATE('", D136, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E136, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F136, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A136, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G136, "'", "''"), "'), '", H136, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-08 Leg 2', TO_DATE('3/26/2021', 'MM/DD/YYYY'), TO_DATE('4/12/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-08'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>2074</v>
-      </c>
-      <c r="D137" s="20" t="s">
-        <v>2096</v>
+        <v>33</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>1959</v>
       </c>
       <c r="E137" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F137" t="s">
-        <v>18</v>
+        <v>1943</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>1946</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H137" s="25" t="s">
-        <v>2126</v>
+      <c r="H137" s="6" t="s">
+        <v>2015</v>
       </c>
       <c r="I137" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGII', TO_DATE('03/21/2010', 'MM/DD/YYYY'), TO_DATE('06/30/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'ASDF JKL;');</v>
-      </c>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B137, "'", "''"), "', TO_DATE('", C137, "', 'MM/DD/YYYY'), TO_DATE('", D137, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E137, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F137, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A137, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G137, "'", "''"), "'), '", H137, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-09 Leg 1', TO_DATE('5/11/2021', 'MM/DD/YYYY'), TO_DATE('5/30/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-09'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>4</v>
-      </c>
-      <c r="B138" t="s">
-        <v>21</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>2070</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>2097</v>
+        <v>33</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>1961</v>
       </c>
       <c r="E138" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F138" t="s">
-        <v>18</v>
+        <v>1943</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>1946</v>
       </c>
       <c r="G138" s="5" t="s">
         <v>1040</v>
@@ -47042,30 +47164,28 @@
         <v>2015</v>
       </c>
       <c r="I138" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI1001_LEGIII', TO_DATE('07/05/2010', 'MM/DD/YYYY'), TO_DATE('07/21/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1001'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B138, "'", "''"), "', TO_DATE('", C138, "', 'MM/DD/YYYY'), TO_DATE('", D138, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E138, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F138, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A138, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G138, "'", "''"), "'), '", H138, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-21-09 Leg 2', TO_DATE('6/2/2021', 'MM/DD/YYYY'), TO_DATE('6/19/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 1)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-21-09'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>4</v>
       </c>
-      <c r="B139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C139" s="20" t="s">
-        <v>2071</v>
-      </c>
-      <c r="D139" s="20" t="s">
-        <v>2098</v>
+      <c r="B139" s="21" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>1983</v>
       </c>
       <c r="E139" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F139" t="s">
-        <v>3</v>
+        <v>1975</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>1990</v>
       </c>
       <c r="G139" s="5" t="s">
         <v>1040</v>
@@ -47074,62 +47194,58 @@
         <v>2015</v>
       </c>
       <c r="I139" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1007', TO_DATE('09/04/2010', 'MM/DD/YYYY'), TO_DATE('09/29/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1007'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B139, "'", "''"), "', TO_DATE('", C139, "', 'MM/DD/YYYY'), TO_DATE('", D139, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E139, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F139, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A139, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G139, "'", "''"), "'), '", H139, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-04 Leg 1', TO_DATE('6/1/2019', 'MM/DD/YYYY'), TO_DATE('6/15/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>4</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C140" s="20" t="s">
-        <v>2071</v>
-      </c>
-      <c r="D140" s="20" t="s">
-        <v>2098</v>
+        <v>1979</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>1985</v>
       </c>
       <c r="E140" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1863</v>
+        <v>1975</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>1990</v>
       </c>
       <c r="G140" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H140" s="6" t="s">
-        <v>2015</v>
+      <c r="H140" s="25" t="s">
+        <v>2130</v>
       </c>
       <c r="I140" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1007 (copy)', TO_DATE('09/04/2010', 'MM/DD/YYYY'), TO_DATE('09/29/2010', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HA1007 (copy)'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B140, "'", "''"), "', TO_DATE('", C140, "', 'MM/DD/YYYY'), TO_DATE('", D140, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E140, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F140, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A140, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G140, "'", "''"), "'), '", H140, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-04 Leg 2', TO_DATE('6/19/2019', 'MM/DD/YYYY'), TO_DATE('7/12/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-04'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Mountain/Pacific Time');</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C141" s="20" t="s">
-        <v>2075</v>
-      </c>
-      <c r="D141" s="20" t="s">
-        <v>2099</v>
+        <v>1980</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>1987</v>
       </c>
       <c r="E141" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F141" t="s">
-        <v>23</v>
+        <v>1975</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>1991</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>1040</v>
@@ -47138,30 +47254,28 @@
         <v>2015</v>
       </c>
       <c r="I141" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_I', TO_DATE('11/05/2010', 'MM/DD/YYYY'), TO_DATE('04/05/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B141, "'", "''"), "', TO_DATE('", C141, "', 'MM/DD/YYYY'), TO_DATE('", D141, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E141, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F141, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A141, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G141, "'", "''"), "'), '", H141, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-05 Leg 1', TO_DATE('7/14/2019', 'MM/DD/YYYY'), TO_DATE('7/31/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>4</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>2076</v>
-      </c>
-      <c r="D142" s="20" t="s">
-        <v>2100</v>
+        <v>1981</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>1989</v>
       </c>
       <c r="E142" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F142" t="s">
-        <v>23</v>
+        <v>1975</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>1991</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>1040</v>
@@ -47170,30 +47284,28 @@
         <v>2015</v>
       </c>
       <c r="I142" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_II', TO_DATE('04/07/2011', 'MM/DD/YYYY'), TO_DATE('05/03/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B142, "'", "''"), "', TO_DATE('", C142, "', 'MM/DD/YYYY'), TO_DATE('", D142, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E142, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F142, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A142, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G142, "'", "''"), "'), '", H142, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-19-05 Leg 2', TO_DATE('8/2/2019', 'MM/DD/YYYY'), TO_DATE('8/15/2019', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 2)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-19-05'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>4</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="C143" s="20" t="s">
-        <v>2077</v>
-      </c>
-      <c r="D143" s="20" t="s">
-        <v>2101</v>
+        <v>1963</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>1967</v>
       </c>
       <c r="E143" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F143" t="s">
-        <v>23</v>
+        <v>1977</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>1962</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>1040</v>
@@ -47202,30 +47314,28 @@
         <v>2015</v>
       </c>
       <c r="I143" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1101_LEG_III', TO_DATE('05/12/2011', 'MM/DD/YYYY'), TO_DATE('07/24/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1101'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B143, "'", "''"), "', TO_DATE('", C143, "', 'MM/DD/YYYY'), TO_DATE('", D143, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E143, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F143, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A143, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G143, "'", "''"), "'), '", H143, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-01 Leg 1', TO_DATE('10/15/2018', 'MM/DD/YYYY'), TO_DATE('11/2/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>4</v>
       </c>
-      <c r="B144" t="s">
-        <v>1869</v>
-      </c>
-      <c r="C144" s="20" t="s">
-        <v>2078</v>
-      </c>
-      <c r="D144" s="20" t="s">
-        <v>2102</v>
+      <c r="B144" s="21" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>1969</v>
       </c>
       <c r="E144" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F144" t="s">
-        <v>2060</v>
+        <v>1977</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>1962</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>1040</v>
@@ -47234,30 +47344,28 @@
         <v>2015</v>
       </c>
       <c r="I144" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1102_LEG_I', TO_DATE('07/23/2011', 'MM/DD/YYYY'), TO_DATE('08/11/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1102'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B144, "'", "''"), "', TO_DATE('", C144, "', 'MM/DD/YYYY'), TO_DATE('", D144, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E144, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F144, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A144, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G144, "'", "''"), "'), '", H144, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-01 Leg 2', TO_DATE('11/5/2018', 'MM/DD/YYYY'), TO_DATE('11/29/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B145" t="s">
-        <v>1870</v>
-      </c>
-      <c r="C145" s="20" t="s">
-        <v>2079</v>
-      </c>
-      <c r="D145" s="20" t="s">
-        <v>2103</v>
+      <c r="B145" s="21" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>1971</v>
       </c>
       <c r="E145" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F145" t="s">
-        <v>2060</v>
+        <v>1977</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>1976</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>1040</v>
@@ -47266,30 +47374,28 @@
         <v>2015</v>
       </c>
       <c r="I145" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HA1102_LEG_II', TO_DATE('08/15/2011', 'MM/DD/YYYY'), TO_DATE('08/30/2011', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI1102'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J145" s="19"/>
-      <c r="K145" s="19"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B145, "'", "''"), "', TO_DATE('", C145, "', 'MM/DD/YYYY'), TO_DATE('", D145, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E145, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F145, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A145, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G145, "'", "''"), "'), '", H145, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-02 Leg 1', TO_DATE('11/20/2018', 'MM/DD/YYYY'), TO_DATE('12/10/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C146" s="20" t="s">
-        <v>2080</v>
-      </c>
-      <c r="D146" s="20" t="s">
-        <v>2104</v>
+        <v>1965</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>1973</v>
       </c>
       <c r="E146" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F146" t="s">
-        <v>75</v>
+        <v>1977</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>1976</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>1040</v>
@@ -47298,30 +47404,28 @@
         <v>2015</v>
       </c>
       <c r="I146" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-15-01 Leg 1', TO_DATE('04/03/2015', 'MM/DD/YYYY'), TO_DATE('04/14/2015', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B146, "'", "''"), "', TO_DATE('", C146, "', 'MM/DD/YYYY'), TO_DATE('", D146, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E146, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F146, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A146, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G146, "'", "''"), "'), '", H146, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('HI-19-02 Leg 2', TO_DATE('12/12/2018', 'MM/DD/YYYY'), TO_DATE('12/30/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 3)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'HI-19-02'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>1868</v>
-      </c>
-      <c r="C147" s="20" t="s">
-        <v>2081</v>
-      </c>
-      <c r="D147" s="20" t="s">
-        <v>2105</v>
+        <v>2005</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>1997</v>
       </c>
       <c r="E147" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F147" t="s">
-        <v>75</v>
+        <v>1992</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>2004</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>1040</v>
@@ -47330,94 +47434,88 @@
         <v>2015</v>
       </c>
       <c r="I147" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-15-01 Leg 2', TO_DATE('04/13/2015', 'MM/DD/YYYY'), TO_DATE('05/20/2015', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-15-01'), (select vessel_id from ccd_vessels where vessel_name = 'Hi''ialakai'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B147, "'", "''"), "', TO_DATE('", C147, "', 'MM/DD/YYYY'), TO_DATE('", D147, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E147, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F147, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A147, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G147, "'", "''"), "'), '", H147, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-01 Leg 1', TO_DATE('10/21/2021', 'MM/DD/YYYY'), TO_DATE('11/13/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>332</v>
-      </c>
-      <c r="B148" t="s">
-        <v>337</v>
-      </c>
-      <c r="C148" s="20" t="s">
-        <v>2082</v>
-      </c>
-      <c r="D148" s="20" t="s">
-        <v>2106</v>
+        <v>33</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>1999</v>
       </c>
       <c r="E148" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F148" t="s">
-        <v>333</v>
+        <v>1992</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>2004</v>
       </c>
       <c r="G148" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H148" s="6" t="s">
-        <v>2015</v>
+      <c r="H148" s="25" t="s">
+        <v>2129</v>
       </c>
       <c r="I148" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 1', TO_DATE('08/17/2017', 'MM/DD/YYYY'), TO_DATE('09/05/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>332</v>
-      </c>
-      <c r="B149" t="s">
-        <v>338</v>
-      </c>
-      <c r="C149" s="20" t="s">
-        <v>2083</v>
-      </c>
-      <c r="D149" s="20" t="s">
-        <v>2107</v>
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B148, "'", "''"), "', TO_DATE('", C148, "', 'MM/DD/YYYY'), TO_DATE('", D148, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E148, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F148, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A148, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G148, "'", "''"), "'), '", H148, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-01 Leg 2', TO_DATE('11/15/2021', 'MM/DD/YYYY'), TO_DATE('12/4/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-01'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'Eastern US Time');</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>2001</v>
       </c>
       <c r="E149" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F149" t="s">
-        <v>333</v>
+        <v>1992</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>1995</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>1040</v>
       </c>
-      <c r="H149" s="25" t="s">
-        <v>2127</v>
+      <c r="H149" s="6" t="s">
+        <v>2015</v>
       </c>
       <c r="I149" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 2', TO_DATE('09/11/2017', 'MM/DD/YYYY'), TO_DATE('09/30/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), '+09:00');</v>
-      </c>
-      <c r="J149" s="19"/>
-      <c r="K149" s="19"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B149, "'", "''"), "', TO_DATE('", C149, "', 'MM/DD/YYYY'), TO_DATE('", D149, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E149, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F149, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A149, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G149, "'", "''"), "'), '", H149, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-02 Leg 1', TO_DATE('11/30/2021', 'MM/DD/YYYY'), TO_DATE('12/15/2021', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>332</v>
-      </c>
-      <c r="B150" t="s">
-        <v>339</v>
-      </c>
-      <c r="C150" s="20" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D150" s="20" t="s">
-        <v>357</v>
+        <v>33</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>2003</v>
       </c>
       <c r="E150" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F150" t="s">
-        <v>333</v>
+        <v>1992</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>1995</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>1040</v>
@@ -47426,107 +47524,9 @@
         <v>2015</v>
       </c>
       <c r="I150" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 3', TO_DATE('10/01/2017', 'MM/DD/YYYY'), TO_DATE('10/10/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>332</v>
-      </c>
-      <c r="B151" t="s">
-        <v>340</v>
-      </c>
-      <c r="C151" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="D151" s="20" t="s">
-        <v>2108</v>
-      </c>
-      <c r="E151" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F151" t="s">
-        <v>333</v>
-      </c>
-      <c r="G151" s="5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H151" s="6" t="s">
-        <v>2015</v>
-      </c>
-      <c r="I151" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 4', TO_DATE('10/16/2017', 'MM/DD/YYYY'), TO_DATE('11/09/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J151" s="19"/>
-      <c r="K151" s="19"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>332</v>
-      </c>
-      <c r="B152" t="s">
-        <v>341</v>
-      </c>
-      <c r="C152" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="D152" s="20" t="s">
-        <v>2109</v>
-      </c>
-      <c r="E152" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F152" t="s">
-        <v>333</v>
-      </c>
-      <c r="G152" s="5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H152" s="6" t="s">
-        <v>2015</v>
-      </c>
-      <c r="I152" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 5', TO_DATE('11/15/2017', 'MM/DD/YYYY'), TO_DATE('12/09/2017', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>332</v>
-      </c>
-      <c r="B153" t="s">
-        <v>2007</v>
-      </c>
-      <c r="C153" s="20" t="s">
-        <v>2085</v>
-      </c>
-      <c r="D153" s="20" t="s">
-        <v>2110</v>
-      </c>
-      <c r="E153" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F153" t="s">
-        <v>333</v>
-      </c>
-      <c r="G153" s="5" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H153" s="6" t="s">
-        <v>2015</v>
-      </c>
-      <c r="I153" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('RL-17-05 Leg 6', TO_DATE('12/20/2017', 'MM/DD/YYYY'), TO_DATE('01/10/2018', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'RL-17-05'), (select vessel_id from ccd_vessels where vessel_name = 'Reuben Lasker'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
-      </c>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
+        <f>CONCATENATE("insert into ccd_cruise_legs (", B$1, ", ", C$1, ", ", D$1, ", ", E$1, ", ", F$1, ", ", A$1, ", ", G$1, ", ", H$1, ") values ('", SUBSTITUTE(B150, "'", "''"), "', TO_DATE('", C150, "', 'MM/DD/YYYY'), TO_DATE('", D150, "', 'MM/DD/YYYY'), '", SUBSTITUTE(E150, "'", "''"), "', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = '", F150, "'), (select vessel_id from ccd_vessels where vessel_name = '", SUBSTITUTE(A150, "'", "''"), "'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = '", SUBSTITUTE(G150, "'", "''"), "'), '", H150, "');")</f>
+        <v>insert into ccd_cruise_legs (LEG_NAME, LEG_START_DATE, LEG_END_DATE, LEG_DESC, CRUISE_ID, VESSEL_ID, PLAT_TYPE_ID, TZ_NAME) values ('SE-22-02 Leg 2', TO_DATE('12/17/2021', 'MM/DD/YYYY'), TO_DATE('1/12/2022', 'MM/DD/YYYY'), 'Legs were fabricated for testing purposes (update cruise leg test case 4)', (SELECT CCD_CRUISES.CRUISE_ID FROM CCD_CRUISES where cruise_name = 'SE-22-02'), (select vessel_id from ccd_vessels where vessel_name = 'Oscar Elton Sette'), (select PLAT_TYPE_ID from CCD_PLAT_TYPES where PLAT_TYPE_NAME = 'Fishery Survey Vessel (FSV)'), 'US/Hawaii');</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
